--- a/tdcrpy/validation/Validation_Interaction.xlsx
+++ b/tdcrpy/validation/Validation_Interaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC03C94F-0F42-4FFE-B829-315FB9215CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A159D3-1A97-46D7-B01A-663628C9B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="3555" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t xml:space="preserve">validation of the function energie_dep_gamma2() </t>
   </si>
   <si>
-    <t>V</t>
-  </si>
-  <si>
     <t>N trials</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>u(E) /keV</t>
+  </si>
+  <si>
+    <t>V /ml</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>E incidente</a:t>
+                  <a:t>Volume /ml</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1343,7 +1343,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9FB7843-80C0-41F5-B9A9-78622C05B7CA}" name="Table1" displayName="Table1" ref="A8:C21" totalsRowShown="0">
   <autoFilter ref="A8:C21" xr:uid="{F9FB7843-80C0-41F5-B9A9-78622C05B7CA}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{65E01827-C436-4ED3-A6FA-4C1DBA4CD9DF}" name="V"/>
+    <tableColumn id="1" xr3:uid="{65E01827-C436-4ED3-A6FA-4C1DBA4CD9DF}" name="V /ml"/>
     <tableColumn id="2" xr3:uid="{B2CE250D-A68B-4A4C-8F7A-FE0DE53D1340}" name="E /keV"/>
     <tableColumn id="3" xr3:uid="{78E35C38-2D95-4F50-86F9-7E85A05A1E09}" name="u(E) /keV"/>
   </tableColumns>
@@ -1617,48 +1617,48 @@
   <dimension ref="A5:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>10000</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>15</v>
       </c>
       <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1691,7 +1691,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1735,7 +1735,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1757,7 +1757,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>

--- a/tdcrpy/validation/Validation_Interaction.xlsx
+++ b/tdcrpy/validation/Validation_Interaction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A159D3-1A97-46D7-B01A-663628C9B330}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC3E607-D17B-4012-A7D3-672EDA6205ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,12 +69,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -89,10 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,7 +1625,7 @@
   <dimension ref="A5:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1681,13 +1689,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="4">
         <v>7.1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -1747,13 +1755,13 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>7.76</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="4">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>

--- a/tdcrpy/validation/Validation_Interaction.xlsx
+++ b/tdcrpy/validation/Validation_Interaction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC3E607-D17B-4012-A7D3-672EDA6205ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA0E256-266F-4AAD-B63A-D00A37C90243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t xml:space="preserve">validation of the function energie_dep_gamma2() </t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>V /ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validation of the function energie_dep_beta2() </t>
   </si>
 </sst>
 </file>
@@ -69,18 +72,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,12 +92,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,96 +205,730 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$C$9:$C$21</c:f>
+                <c:f>Sheet1!$C$9:$C$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="13"/>
+                  <c:ptCount val="21"/>
                   <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4557957312670495E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4617002688326106E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4694884723376195E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4686597163499194E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4697921538955797E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4778102687885095E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4752420558667695E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4790511063559106E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4737929765358105E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4625633007698297E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4653477011864505E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4600154356024101E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>7.4443674320063297E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$9:$C$21</c:f>
+                <c:f>Sheet1!$C$9:$C$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>7.4557957312670495E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7.4617002688326106E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.4694884723376195E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>7.4686597163499194E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>7.4697921538955797E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>7.4778102687885095E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7.4752420558667695E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>7.4790511063559106E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>7.4737929765358105E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>7.4625633007698297E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7.4653477011864505E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>7.4600154356024101E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>7.4443674320063297E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet1!$A$9:$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>validation of the function energie_dep_beta2() </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>6.9610817799999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0144972999999897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.16771229999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1419451199999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1767301999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4732281599999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5995557199999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6096299399999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6821999799999903</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8991198799999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9221921200000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0063688600000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1876379400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAD3-4266-87FC-9D6F12C2E238}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1137214175"/>
+        <c:axId val="1137205055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1137214175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume /ml</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137205055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1137205055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>E déposée /keV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137214175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E /keV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$32:$C$44</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="13"/>
                   <c:pt idx="0">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.8640315089152697</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.8893061577955397</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.7665763753735204</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.6903443198632502</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.7150197197733297</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.6379407739051199</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.6676500476096097</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.5975781973472003</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.5685409393618297</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.48546976227136</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.5290597854344803</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.4306149110481696</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.0000000000000007E-2</c:v>
+                    <c:v>4.3630310760600404</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$32:$C$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>4.8640315089152697</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8893061577955397</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7665763753735204</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6903443198632502</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7150197197733297</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.6379407739051199</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6676500476096097</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.5975781973472003</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.5685409393618297</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.48546976227136</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.5290597854344803</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.4306149110481696</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.3630310760600404</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -321,7 +949,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$9:$A$21</c:f>
+              <c:f>Sheet1!$A$32:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -369,48 +997,48 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$21</c:f>
+              <c:f>Sheet1!$B$32:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>7.04</c:v>
+                  <c:v>1173.1713883</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.99</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0.00">
-                  <c:v>7.1</c:v>
+                  <c:v>1167.6768858999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1192.5617689000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.18</c:v>
+                  <c:v>1201.3945151999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.24</c:v>
+                  <c:v>1201.5473526999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.32</c:v>
+                  <c:v>1211.54486059999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.44</c:v>
+                  <c:v>1207.7114609</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.59</c:v>
+                  <c:v>1226.9916456000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.76</c:v>
+                  <c:v>1225.9456232999901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.71</c:v>
+                  <c:v>1240.5849143999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.87</c:v>
+                  <c:v>1235.3133806000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.06</c:v>
+                  <c:v>1246.72590729999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.19</c:v>
+                  <c:v>1257.0787886999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,7 +1046,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DAD3-4266-87FC-9D6F12C2E238}"/>
+              <c16:uniqueId val="{00000000-5BB1-4119-90F6-BFD0F0FC343A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -790,7 +1418,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1344,6 +2528,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B0AAAF-CD56-4AAB-850F-F1E4D932E0B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1354,6 +2576,18 @@
     <tableColumn id="1" xr3:uid="{65E01827-C436-4ED3-A6FA-4C1DBA4CD9DF}" name="V /ml"/>
     <tableColumn id="2" xr3:uid="{B2CE250D-A68B-4A4C-8F7A-FE0DE53D1340}" name="E /keV"/>
     <tableColumn id="3" xr3:uid="{78E35C38-2D95-4F50-86F9-7E85A05A1E09}" name="u(E) /keV"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79EEFB42-B463-4BCF-82C6-2374849217C2}" name="Table13" displayName="Table13" ref="A31:C44" totalsRowShown="0">
+  <autoFilter ref="A31:C44" xr:uid="{79EEFB42-B463-4BCF-82C6-2374849217C2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{18953E56-195E-4AE8-BD90-2C525BF57C8A}" name="V /ml"/>
+    <tableColumn id="2" xr3:uid="{54E85AEF-C773-431D-B5EB-E2B74FBB87B8}" name="E /keV"/>
+    <tableColumn id="3" xr3:uid="{EF0E0C62-5A32-4A24-9F9A-03250BA24A7F}" name="u(E) /keV"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1622,23 +2856,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:F21"/>
+  <dimension ref="A5:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1655,7 +2889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1666,155 +2900,535 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7.04</v>
+        <v>6.9610817799999998</v>
       </c>
       <c r="C9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.4557957312670495E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.99</v>
+        <v>7.0144972999999897</v>
       </c>
       <c r="C10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+        <v>7.4617002688326106E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="C11" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>7.16771229999999</v>
+      </c>
+      <c r="C11">
+        <v>7.4694884723376195E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.18</v>
+        <v>7.1419451199999999</v>
       </c>
       <c r="C12">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.4686597163499194E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.24</v>
-      </c>
-      <c r="C13" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.1767301999999997</v>
+      </c>
+      <c r="C13">
+        <v>7.4697921538955797E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.32</v>
+        <v>7.4732281599999997</v>
       </c>
       <c r="C14">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.4778102687885095E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7.44</v>
-      </c>
-      <c r="C15" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7.5995557199999997</v>
+      </c>
+      <c r="C15">
+        <v>7.4752420558667695E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7.59</v>
+        <v>7.6096299399999996</v>
       </c>
       <c r="C16">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+        <v>7.4790511063559106E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>7.76</v>
-      </c>
-      <c r="C17" s="4">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>7.6821999799999903</v>
+      </c>
+      <c r="C17">
+        <v>7.4737929765358105E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7.71</v>
+        <v>7.8991198799999998</v>
       </c>
       <c r="C18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.4625633007698297E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7.87</v>
+        <v>7.9221921200000001</v>
       </c>
       <c r="C19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.4653477011864505E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.06</v>
+        <v>8.0063688600000003</v>
       </c>
       <c r="C20">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7.4600154356024101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8.19</v>
+        <v>8.1876379400000001</v>
       </c>
       <c r="C21">
-        <v>7.0000000000000007E-2</v>
+        <v>7.4443674320063297E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1500</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1118.73774449999</v>
+      </c>
+      <c r="T31">
+        <v>5.0744873649891904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>1173.1713883</v>
+      </c>
+      <c r="C32">
+        <v>4.8640315089152697</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1121.12595159999</v>
+      </c>
+      <c r="T32">
+        <v>5.0557357438877704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>1167.6768858999901</v>
+      </c>
+      <c r="C33">
+        <v>4.8893061577955397</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1132.2439503999999</v>
+      </c>
+      <c r="T33">
+        <v>5.0285307069710603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1192.5617689000001</v>
+      </c>
+      <c r="C34">
+        <v>4.7665763753735204</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>1144.58214169999</v>
+      </c>
+      <c r="T34">
+        <v>4.98549233413216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1201.3945151999999</v>
+      </c>
+      <c r="C35">
+        <v>4.6903443198632502</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>1148.6559431000001</v>
+      </c>
+      <c r="T35">
+        <v>4.9554420860744104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>1201.5473526999999</v>
+      </c>
+      <c r="C36">
+        <v>4.7150197197733297</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>1151.6292277999901</v>
+      </c>
+      <c r="T36">
+        <v>4.9293196932576002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>1211.54486059999</v>
+      </c>
+      <c r="C37">
+        <v>4.6379407739051199</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>1160.9782855000001</v>
+      </c>
+      <c r="T37">
+        <v>4.9256184868217696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>1207.7114609</v>
+      </c>
+      <c r="C38">
+        <v>4.6676500476096097</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>1163.7738711</v>
+      </c>
+      <c r="T38">
+        <v>4.8952311458320299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>1226.9916456000001</v>
+      </c>
+      <c r="C39">
+        <v>4.5975781973472003</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>1173.1713883</v>
+      </c>
+      <c r="T39">
+        <v>4.8640315089152697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>1225.9456232999901</v>
+      </c>
+      <c r="C40">
+        <v>4.5685409393618297</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>1167.6768858999901</v>
+      </c>
+      <c r="T40">
+        <v>4.8893061577955397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>1240.5849143999999</v>
+      </c>
+      <c r="C41">
+        <v>4.48546976227136</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>1192.5617689000001</v>
+      </c>
+      <c r="T41">
+        <v>4.7665763753735204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>1235.3133806000001</v>
+      </c>
+      <c r="C42">
+        <v>4.5290597854344803</v>
+      </c>
+      <c r="R42">
+        <v>11</v>
+      </c>
+      <c r="S42">
+        <v>1201.3945151999999</v>
+      </c>
+      <c r="T42">
+        <v>4.6903443198632502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>1246.72590729999</v>
+      </c>
+      <c r="C43">
+        <v>4.4306149110481696</v>
+      </c>
+      <c r="R43">
+        <v>12</v>
+      </c>
+      <c r="S43">
+        <v>1201.5473526999999</v>
+      </c>
+      <c r="T43">
+        <v>4.7150197197733297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>1257.0787886999999</v>
+      </c>
+      <c r="C44">
+        <v>4.3630310760600404</v>
+      </c>
+      <c r="R44">
+        <v>13</v>
+      </c>
+      <c r="S44">
+        <v>1211.54486059999</v>
+      </c>
+      <c r="T44">
+        <v>4.6379407739051199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>14</v>
+      </c>
+      <c r="S45">
+        <v>1207.7114609</v>
+      </c>
+      <c r="T45">
+        <v>4.6676500476096097</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>15</v>
+      </c>
+      <c r="S46">
+        <v>1226.9916456000001</v>
+      </c>
+      <c r="T46">
+        <v>4.5975781973472003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>16</v>
+      </c>
+      <c r="S47">
+        <v>1225.9456232999901</v>
+      </c>
+      <c r="T47">
+        <v>4.5685409393618297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>1240.5849143999999</v>
+      </c>
+      <c r="T48">
+        <v>4.48546976227136</v>
+      </c>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>18</v>
+      </c>
+      <c r="S49">
+        <v>1235.3133806000001</v>
+      </c>
+      <c r="T49">
+        <v>4.5290597854344803</v>
+      </c>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>19</v>
+      </c>
+      <c r="S50">
+        <v>1246.72590729999</v>
+      </c>
+      <c r="T50">
+        <v>4.4306149110481696</v>
+      </c>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>20</v>
+      </c>
+      <c r="S51">
+        <v>1257.0787886999999</v>
+      </c>
+      <c r="T51">
+        <v>4.3630310760600404</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tdcrpy/validation/Validation_Interaction.xlsx
+++ b/tdcrpy/validation/Validation_Interaction.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA0E256-266F-4AAD-B63A-D00A37C90243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D437A-6AEF-4589-8139-A968A4A38B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t xml:space="preserve">validation of the function energie_dep_gamma2() </t>
   </si>
@@ -49,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">validation of the function energie_dep_beta2() </t>
+  </si>
+  <si>
+    <t>v linear</t>
+  </si>
+  <si>
+    <t>v quadratic</t>
   </si>
 </sst>
 </file>
@@ -126,36 +133,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -166,15 +143,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>E /keV</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>lineaire</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -205,96 +174,96 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>Sheet1!$C$9:$C$29</c:f>
+                <c:f>'Sheet1 (2)'!$C$9:$C$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
-                    <c:v>7.4557957312670495E-2</c:v>
+                    <c:v>2.35669202107146E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4617002688326106E-2</c:v>
+                    <c:v>2.3587033860985901E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4694884723376195E-2</c:v>
+                    <c:v>2.3606751926462399E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4686597163499194E-2</c:v>
+                    <c:v>2.36226804354344E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.4697921538955797E-2</c:v>
+                    <c:v>2.3634691875766198E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.4778102687885095E-2</c:v>
+                    <c:v>2.3638401009090201E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4752420558667695E-2</c:v>
+                    <c:v>2.3642286011787701E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.4790511063559106E-2</c:v>
+                    <c:v>2.3638524668528001E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.4737929765358105E-2</c:v>
+                    <c:v>2.3635674938519001E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.4625633007698297E-2</c:v>
+                    <c:v>2.36207099954957E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.4653477011864505E-2</c:v>
+                    <c:v>2.3608125202996301E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.4600154356024101E-2</c:v>
+                    <c:v>2.35860547360035E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.4443674320063297E-2</c:v>
+                    <c:v>2.3566766457542101E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>Sheet1!$C$9:$C$29</c:f>
+                <c:f>'Sheet1 (2)'!$C$9:$C$29</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="21"/>
                   <c:pt idx="0">
-                    <c:v>7.4557957312670495E-2</c:v>
+                    <c:v>2.35669202107146E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>7.4617002688326106E-2</c:v>
+                    <c:v>2.3587033860985901E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>7.4694884723376195E-2</c:v>
+                    <c:v>2.3606751926462399E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>7.4686597163499194E-2</c:v>
+                    <c:v>2.36226804354344E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.4697921538955797E-2</c:v>
+                    <c:v>2.3634691875766198E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.4778102687885095E-2</c:v>
+                    <c:v>2.3638401009090201E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>7.4752420558667695E-2</c:v>
+                    <c:v>2.3642286011787701E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>7.4790511063559106E-2</c:v>
+                    <c:v>2.3638524668528001E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.4737929765358105E-2</c:v>
+                    <c:v>2.3635674938519001E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>7.4625633007698297E-2</c:v>
+                    <c:v>2.36207099954957E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.4653477011864505E-2</c:v>
+                    <c:v>2.3608125202996301E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.4600154356024101E-2</c:v>
+                    <c:v>2.35860547360035E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>7.4443674320063297E-2</c:v>
+                    <c:v>2.3566766457542101E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -314,10 +283,11 @@
             </c:spPr>
           </c:errBars>
           <c:xVal>
-            <c:strRef>
-              <c:f>Sheet1!$A$9:$A$29</c:f>
-              <c:strCache>
-                <c:ptCount val="19"/>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$9:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -357,56 +327,53 @@
                 <c:pt idx="12">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>validation of the function energie_dep_beta2() </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$29</c:f>
+              <c:f>'Sheet1 (2)'!$B$9:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6.9610817799999998</c:v>
+                  <c:v>6.9126306199999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0144972999999897</c:v>
+                  <c:v>7.0072507259999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.16771229999999</c:v>
+                  <c:v>7.0994776479999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1419451199999999</c:v>
+                  <c:v>7.2073613639999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1767301999999997</c:v>
+                  <c:v>7.2977762879999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4732281599999997</c:v>
+                  <c:v>7.5073114299999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.5995557199999997</c:v>
+                  <c:v>7.5212081900000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.6096299399999996</c:v>
+                  <c:v>7.6362715899999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6821999799999903</c:v>
+                  <c:v>7.67758071</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.8991198799999998</c:v>
+                  <c:v>7.8351304079999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.9221921200000001</c:v>
+                  <c:v>7.9032242420000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.0063688600000003</c:v>
+                  <c:v>8.0147961520000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.1876379400000001</c:v>
+                  <c:v>8.1106760799999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -414,7 +381,253 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DAD3-4266-87FC-9D6F12C2E238}"/>
+              <c16:uniqueId val="{00000000-8D2E-4117-9DEC-461480A8FAC2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>quadratic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Sheet1 (2)'!$I$9:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>7.8340709696572905E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.3304786834530006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.1548465066776904E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3155555908589293E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.6425912765541305E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.3826061493181003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.7748179068160195E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.8626998765953396E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.8344876228231506E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.6070089887129303E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.8813662248044198E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.9820984558401401E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>8.9213050792305307E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Sheet1 (2)'!$I$9:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>7.8340709696572905E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>8.3304786834530006E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8.1548465066776904E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>8.3155555908589293E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>8.6425912765541305E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>8.3826061493181003E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.7748179068160195E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8.8626998765953396E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.8344876228231506E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>8.6070089887129303E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>8.8813662248044198E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8.9820984558401401E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>8.9213050792305307E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$G$9:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$H$9:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2.34090358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5543152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5881083999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5175684600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.80318522</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.75663766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8421203199999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9446477999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0318970799999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8021405800000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9545055800000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0114751399999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.03123136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8D2E-4117-9DEC-461480A8FAC2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -747,6 +960,1479 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>E /keV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Sheet1 (2)'!$C$32:$C$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>4.8640315089152697</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8893061577955397</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7665763753735204</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6903443198632502</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7150197197733297</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.6379407739051199</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6676500476096097</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.5975781973472003</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.5685409393618297</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.48546976227136</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.5290597854344803</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.4306149110481696</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.3630310760600404</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Sheet1 (2)'!$C$32:$C$44</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>4.8640315089152697</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.8893061577955397</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.7665763753735204</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.6903443198632502</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.7150197197733297</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.6379407739051199</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6676500476096097</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4.5975781973472003</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4.5685409393618297</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.48546976227136</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>4.5290597854344803</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>4.4306149110481696</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>4.3630310760600404</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$A$32:$A$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$B$32:$B$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1173.1713883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1167.6768858999901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1192.5617689000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1201.3945151999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1201.5473526999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1211.54486059999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1207.7114609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1226.9916456000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1225.9456232999901</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1240.5849143999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1235.3133806000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1246.72590729999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1257.0787886999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B88-4BA7-B590-AAB145CAB531}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1137214175"/>
+        <c:axId val="1137205055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1137214175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume /ml</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137205055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1137205055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>E déposée /keV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137214175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>lineaire</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$C$9:$C$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>2.35669202107146E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3587033860985901E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3606751926462399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.36226804354344E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3634691875766198E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3638401009090201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.3642286011787701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.3638524668528001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.3635674938519001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.36207099954957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.3608125202996301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.35860547360035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.3566766457542101E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$C$9:$C$29</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="21"/>
+                  <c:pt idx="0">
+                    <c:v>2.35669202107146E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3587033860985901E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3606751926462399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.36226804354344E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3634691875766198E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3638401009090201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.3642286011787701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.3638524668528001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.3635674938519001E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.36207099954957E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.3608125202996301E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.35860547360035E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.3566766457542101E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$9:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$9:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.9126306199999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0072507259999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0994776479999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2073613639999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2977762879999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.5073114299999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5212081900000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6362715899999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.67758071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8351304079999897</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9032242420000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0147961520000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1106760799999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DAD3-4266-87FC-9D6F12C2E238}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>quadratic</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$I$9:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>2.35179363950868E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3569068632171598E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3605186587696201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.36301116679953E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3637814937406201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3641142036443501E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.3639375029396701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.3637043705172701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.36300157502379E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.3621782838380199E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.3630905011029199E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.3633705121885399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.36327789001173E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$I$9:$I$21</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="13"/>
+                  <c:pt idx="0">
+                    <c:v>2.35179363950868E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.3569068632171598E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.3605186587696201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.36301116679953E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2.3637814937406201E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.3641142036443501E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2.3639375029396701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2.3637043705172701E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2.36300157502379E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2.3621782838380199E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>2.3630905011029199E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.3633705121885399E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2.36327789001173E-2</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$9:$G$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$9:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>6.7345806140000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.9155103759999896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0913810359999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2491888580000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3665055659999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.4802146179999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5633341819999904</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6477981519999902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7358897139999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.789710328</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.73432420199999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7038543519999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.7237069680000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9BC5-4852-94A9-602E79EDB7F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1137214175"/>
+        <c:axId val="1137205055"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1137214175"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Volume /ml</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137205055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1137205055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="6"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>E déposée /keV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1137214175"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1458,6 +3144,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2490,20 +4256,1133 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F8A547E-DDB8-4B61-BCBA-2A0AC529CE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7855D802-4298-4475-BFCE-6ED81E089B20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2570,6 +5449,42 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9425BF1F-FA6E-4352-8A55-48F509B4302D}" name="Table15" displayName="Table15" ref="A8:C21" totalsRowShown="0">
+  <autoFilter ref="A8:C21" xr:uid="{F9FB7843-80C0-41F5-B9A9-78622C05B7CA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3E72D530-BAC6-4DDD-B55C-D36E1D2F57F8}" name="V /ml"/>
+    <tableColumn id="2" xr3:uid="{B0C47E0B-0677-4173-AFD2-F4005B3D9F93}" name="E /keV"/>
+    <tableColumn id="3" xr3:uid="{6AF9598D-FD9C-428A-92E6-B99DF4EDAFCD}" name="u(E) /keV"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{ED8EC204-979D-4E2D-B9C0-9E03B60E8AA9}" name="Table136" displayName="Table136" ref="A31:C44" totalsRowShown="0">
+  <autoFilter ref="A31:C44" xr:uid="{79EEFB42-B463-4BCF-82C6-2374849217C2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{96271534-6881-433E-907B-011A5D804FC1}" name="V /ml"/>
+    <tableColumn id="2" xr3:uid="{76CA59A0-216C-44C3-B0C8-3F8C199BFDEC}" name="E /keV"/>
+    <tableColumn id="3" xr3:uid="{AD89E15C-FD78-4380-8EB0-04D04032AC72}" name="u(E) /keV"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{28E34AD9-1837-461F-815A-A3D8795BF0E2}" name="Table147" displayName="Table147" ref="G8:I21" totalsRowShown="0">
+  <autoFilter ref="G8:I21" xr:uid="{99EC42C4-B6B9-41B8-88C0-D3B478E0606B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5C332655-C458-4A06-A174-1F0DEC62D4CA}" name="V /ml"/>
+    <tableColumn id="2" xr3:uid="{228D8D98-8F45-4204-B2FA-8CB1CF7F8E91}" name="E /keV"/>
+    <tableColumn id="3" xr3:uid="{CAE617DB-DCF5-457D-A832-BFEBF101F45A}" name="u(E) /keV"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9FB7843-80C0-41F5-B9A9-78622C05B7CA}" name="Table1" displayName="Table1" ref="A8:C21" totalsRowShown="0">
   <autoFilter ref="A8:C21" xr:uid="{F9FB7843-80C0-41F5-B9A9-78622C05B7CA}"/>
   <tableColumns count="3">
@@ -2581,13 +5496,25 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{79EEFB42-B463-4BCF-82C6-2374849217C2}" name="Table13" displayName="Table13" ref="A31:C44" totalsRowShown="0">
   <autoFilter ref="A31:C44" xr:uid="{79EEFB42-B463-4BCF-82C6-2374849217C2}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{18953E56-195E-4AE8-BD90-2C525BF57C8A}" name="V /ml"/>
     <tableColumn id="2" xr3:uid="{54E85AEF-C773-431D-B5EB-E2B74FBB87B8}" name="E /keV"/>
     <tableColumn id="3" xr3:uid="{EF0E0C62-5A32-4A24-9F9A-03250BA24A7F}" name="u(E) /keV"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99EC42C4-B6B9-41B8-88C0-D3B478E0606B}" name="Table14" displayName="Table14" ref="G8:I21" totalsRowShown="0">
+  <autoFilter ref="G8:I21" xr:uid="{99EC42C4-B6B9-41B8-88C0-D3B478E0606B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B0E38161-BEEB-41C6-9689-961F900E5AF8}" name="V /ml"/>
+    <tableColumn id="2" xr3:uid="{4C88277F-EB88-4B76-BC82-665953DB625B}" name="E /keV"/>
+    <tableColumn id="3" xr3:uid="{3C80B2AE-26F4-4057-B007-FF44A789B0D4}" name="u(E) /keV"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2855,11 +5782,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F4CB94-1329-4C41-A132-B90AEBD542A9}">
   <dimension ref="A5:T51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="G9" sqref="G9:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2867,12 +5794,20 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2889,7 +5824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2899,93 +5834,246 @@
       <c r="C8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>6.9610817799999998</v>
+        <v>6.9126306199999998</v>
       </c>
       <c r="C9">
-        <v>7.4557957312670495E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.35669202107146E-2</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>2.34090358</v>
+      </c>
+      <c r="I9">
+        <v>7.8340709696572905E-2</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>2.34090358</v>
+      </c>
+      <c r="M9">
+        <v>7.8340709696572905E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7.0144972999999897</v>
+        <v>7.0072507259999997</v>
       </c>
       <c r="C10">
-        <v>7.4617002688326106E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3587033860985901E-2</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>2.5543152</v>
+      </c>
+      <c r="I10">
+        <v>8.3304786834530006E-2</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>2.5543152</v>
+      </c>
+      <c r="M10">
+        <v>8.3304786834530006E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7.16771229999999</v>
+        <v>7.0994776479999997</v>
       </c>
       <c r="C11">
-        <v>7.4694884723376195E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3606751926462399E-2</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>2.5881083999999999</v>
+      </c>
+      <c r="I11">
+        <v>8.1548465066776904E-2</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>2.5881083999999999</v>
+      </c>
+      <c r="M11">
+        <v>8.1548465066776904E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7.1419451199999999</v>
+        <v>7.2073613639999996</v>
       </c>
       <c r="C12">
-        <v>7.4686597163499194E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.36226804354344E-2</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>2.5175684600000001</v>
+      </c>
+      <c r="I12">
+        <v>8.3155555908589293E-2</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>2.5175684600000001</v>
+      </c>
+      <c r="M12">
+        <v>8.3155555908589293E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7.1767301999999997</v>
+        <v>7.2977762879999997</v>
       </c>
       <c r="C13">
-        <v>7.4697921538955797E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3634691875766198E-2</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>2.80318522</v>
+      </c>
+      <c r="I13">
+        <v>8.6425912765541305E-2</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>2.80318522</v>
+      </c>
+      <c r="M13">
+        <v>8.6425912765541305E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>7.4732281599999997</v>
+        <v>7.5073114299999997</v>
       </c>
       <c r="C14">
-        <v>7.4778102687885095E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3638401009090201E-2</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>2.75663766</v>
+      </c>
+      <c r="I14">
+        <v>8.3826061493181003E-2</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>2.75663766</v>
+      </c>
+      <c r="M14">
+        <v>8.3826061493181003E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>7.5995557199999997</v>
+        <v>7.5212081900000003</v>
       </c>
       <c r="C15">
-        <v>7.4752420558667695E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2.3642286011787701E-2</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>2.8421203199999998</v>
+      </c>
+      <c r="I15">
+        <v>8.7748179068160195E-2</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>2.8421203199999998</v>
+      </c>
+      <c r="M15">
+        <v>8.7748179068160195E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7.6096299399999996</v>
+        <v>7.6362715899999998</v>
       </c>
       <c r="C16">
-        <v>7.4790511063559106E-2</v>
+        <v>2.3638524668528001E-2</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>2.9446477999999998</v>
+      </c>
+      <c r="I16">
+        <v>8.8626998765953396E-2</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>2.9446477999999998</v>
+      </c>
+      <c r="M16">
+        <v>8.8626998765953396E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2993,10 +6081,28 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7.6821999799999903</v>
+        <v>7.67758071</v>
       </c>
       <c r="C17">
-        <v>7.4737929765358105E-2</v>
+        <v>2.3635674938519001E-2</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>3.0318970799999998</v>
+      </c>
+      <c r="I17">
+        <v>8.8344876228231506E-2</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>3.0318970799999998</v>
+      </c>
+      <c r="M17">
+        <v>8.8344876228231506E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3004,10 +6110,28 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7.8991198799999998</v>
+        <v>7.8351304079999897</v>
       </c>
       <c r="C18">
-        <v>7.4625633007698297E-2</v>
+        <v>2.36207099954957E-2</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>2.8021405800000001</v>
+      </c>
+      <c r="I18">
+        <v>8.6070089887129303E-2</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>2.8021405800000001</v>
+      </c>
+      <c r="M18">
+        <v>8.6070089887129303E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3015,10 +6139,28 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7.9221921200000001</v>
+        <v>7.9032242420000003</v>
       </c>
       <c r="C19">
-        <v>7.4653477011864505E-2</v>
+        <v>2.3608125202996301E-2</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>2.9545055800000002</v>
+      </c>
+      <c r="I19">
+        <v>8.8813662248044198E-2</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>2.9545055800000002</v>
+      </c>
+      <c r="M19">
+        <v>8.8813662248044198E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3026,10 +6168,28 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>8.0063688600000003</v>
+        <v>8.0147961520000006</v>
       </c>
       <c r="C20">
-        <v>7.4600154356024101E-2</v>
+        <v>2.35860547360035E-2</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>3.0114751399999999</v>
+      </c>
+      <c r="I20">
+        <v>8.9820984558401401E-2</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>3.0114751399999999</v>
+      </c>
+      <c r="M20">
+        <v>8.9820984558401401E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3037,10 +6197,28 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8.1876379400000001</v>
+        <v>8.1106760799999993</v>
       </c>
       <c r="C21">
-        <v>7.4443674320063297E-2</v>
+        <v>2.3566766457542101E-2</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>3.03123136</v>
+      </c>
+      <c r="I21">
+        <v>8.9213050792305307E-2</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>3.03123136</v>
+      </c>
+      <c r="M21">
+        <v>8.9213050792305307E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
@@ -3426,9 +6604,841 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A5:T51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>10000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6.9126306199999998</v>
+      </c>
+      <c r="C9">
+        <v>2.35669202107146E-2</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9">
+        <v>6.7345806140000004</v>
+      </c>
+      <c r="I9">
+        <v>2.35179363950868E-2</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>5.4176057200000001</v>
+      </c>
+      <c r="M9">
+        <v>0.18285275648922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7.0072507259999997</v>
+      </c>
+      <c r="C10">
+        <v>2.3587033860985901E-2</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>6.9155103759999896</v>
+      </c>
+      <c r="I10">
+        <v>2.3569068632171598E-2</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="L10">
+        <v>5.5527432799999996</v>
+      </c>
+      <c r="M10">
+        <v>0.18230384125879401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7.0994776479999997</v>
+      </c>
+      <c r="C11">
+        <v>2.3606751926462399E-2</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>7.0913810359999996</v>
+      </c>
+      <c r="I11">
+        <v>2.3605186587696201E-2</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>5.8592807199999903</v>
+      </c>
+      <c r="M11">
+        <v>0.18899116517558201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7.2073613639999996</v>
+      </c>
+      <c r="C12">
+        <v>2.36226804354344E-2</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12">
+        <v>7.2491888580000001</v>
+      </c>
+      <c r="I12">
+        <v>2.36301116679953E-2</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>5.9688995</v>
+      </c>
+      <c r="M12">
+        <v>0.19333451178232999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7.2977762879999997</v>
+      </c>
+      <c r="C13">
+        <v>2.3634691875766198E-2</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>7.3665055659999998</v>
+      </c>
+      <c r="I13">
+        <v>2.3637814937406201E-2</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>6.3061426000000003</v>
+      </c>
+      <c r="M13">
+        <v>0.20101775490714399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7.5073114299999997</v>
+      </c>
+      <c r="C14">
+        <v>2.3638401009090201E-2</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>7.4802146179999998</v>
+      </c>
+      <c r="I14">
+        <v>2.3641142036443501E-2</v>
+      </c>
+      <c r="K14">
+        <v>13</v>
+      </c>
+      <c r="L14">
+        <v>6.3530906799999904</v>
+      </c>
+      <c r="M14">
+        <v>0.195987713347552</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7.5212081900000003</v>
+      </c>
+      <c r="C15">
+        <v>2.3642286011787701E-2</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15">
+        <v>7.5633341819999904</v>
+      </c>
+      <c r="I15">
+        <v>2.3639375029396701E-2</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>6.5231460999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.202676326554633</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7.6362715899999998</v>
+      </c>
+      <c r="C16">
+        <v>2.3638524668528001E-2</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>7.6477981519999902</v>
+      </c>
+      <c r="I16">
+        <v>2.3637043705172701E-2</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>6.5969392600000001</v>
+      </c>
+      <c r="M16">
+        <v>0.19692266116272999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7.67758071</v>
+      </c>
+      <c r="C17">
+        <v>2.3635674938519001E-2</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17">
+        <v>7.7358897139999998</v>
+      </c>
+      <c r="I17">
+        <v>2.36300157502379E-2</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>6.6681812399999902</v>
+      </c>
+      <c r="M17">
+        <v>0.202254206219911</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7.8351304079999897</v>
+      </c>
+      <c r="C18">
+        <v>2.36207099954957E-2</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>7.789710328</v>
+      </c>
+      <c r="I18">
+        <v>2.3621782838380199E-2</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>6.3465789599999898</v>
+      </c>
+      <c r="M18">
+        <v>0.19549251969238399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7.9032242420000003</v>
+      </c>
+      <c r="C19">
+        <v>2.3608125202996301E-2</v>
+      </c>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <v>7.73432420199999</v>
+      </c>
+      <c r="I19">
+        <v>2.3630905011029199E-2</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>6.6941064199999998</v>
+      </c>
+      <c r="M19">
+        <v>0.19953212070149001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>8.0147961520000006</v>
+      </c>
+      <c r="C20">
+        <v>2.35860547360035E-2</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>7.7038543519999996</v>
+      </c>
+      <c r="I20">
+        <v>2.3633705121885399E-2</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>6.9027946800000004</v>
+      </c>
+      <c r="M20">
+        <v>0.20357750874362199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8.1106760799999993</v>
+      </c>
+      <c r="C21">
+        <v>2.3566766457542101E-2</v>
+      </c>
+      <c r="G21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>7.7237069680000001</v>
+      </c>
+      <c r="I21">
+        <v>2.36327789001173E-2</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>6.8633185599999997</v>
+      </c>
+      <c r="M21">
+        <v>0.20457930186663301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1500</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>1118.73774449999</v>
+      </c>
+      <c r="T31">
+        <v>5.0744873649891904</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>1173.1713883</v>
+      </c>
+      <c r="C32">
+        <v>4.8640315089152697</v>
+      </c>
+      <c r="R32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>1121.12595159999</v>
+      </c>
+      <c r="T32">
+        <v>5.0557357438877704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>1167.6768858999901</v>
+      </c>
+      <c r="C33">
+        <v>4.8893061577955397</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>1132.2439503999999</v>
+      </c>
+      <c r="T33">
+        <v>5.0285307069710603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>1192.5617689000001</v>
+      </c>
+      <c r="C34">
+        <v>4.7665763753735204</v>
+      </c>
+      <c r="R34">
+        <v>3</v>
+      </c>
+      <c r="S34">
+        <v>1144.58214169999</v>
+      </c>
+      <c r="T34">
+        <v>4.98549233413216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1201.3945151999999</v>
+      </c>
+      <c r="C35">
+        <v>4.6903443198632502</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35">
+        <v>1148.6559431000001</v>
+      </c>
+      <c r="T35">
+        <v>4.9554420860744104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>1201.5473526999999</v>
+      </c>
+      <c r="C36">
+        <v>4.7150197197733297</v>
+      </c>
+      <c r="R36">
+        <v>5</v>
+      </c>
+      <c r="S36">
+        <v>1151.6292277999901</v>
+      </c>
+      <c r="T36">
+        <v>4.9293196932576002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>1211.54486059999</v>
+      </c>
+      <c r="C37">
+        <v>4.6379407739051199</v>
+      </c>
+      <c r="R37">
+        <v>6</v>
+      </c>
+      <c r="S37">
+        <v>1160.9782855000001</v>
+      </c>
+      <c r="T37">
+        <v>4.9256184868217696</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>14</v>
+      </c>
+      <c r="B38">
+        <v>1207.7114609</v>
+      </c>
+      <c r="C38">
+        <v>4.6676500476096097</v>
+      </c>
+      <c r="R38">
+        <v>7</v>
+      </c>
+      <c r="S38">
+        <v>1163.7738711</v>
+      </c>
+      <c r="T38">
+        <v>4.8952311458320299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>1226.9916456000001</v>
+      </c>
+      <c r="C39">
+        <v>4.5975781973472003</v>
+      </c>
+      <c r="R39">
+        <v>8</v>
+      </c>
+      <c r="S39">
+        <v>1173.1713883</v>
+      </c>
+      <c r="T39">
+        <v>4.8640315089152697</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>1225.9456232999901</v>
+      </c>
+      <c r="C40">
+        <v>4.5685409393618297</v>
+      </c>
+      <c r="R40">
+        <v>9</v>
+      </c>
+      <c r="S40">
+        <v>1167.6768858999901</v>
+      </c>
+      <c r="T40">
+        <v>4.8893061577955397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>1240.5849143999999</v>
+      </c>
+      <c r="C41">
+        <v>4.48546976227136</v>
+      </c>
+      <c r="R41">
+        <v>10</v>
+      </c>
+      <c r="S41">
+        <v>1192.5617689000001</v>
+      </c>
+      <c r="T41">
+        <v>4.7665763753735204</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>1235.3133806000001</v>
+      </c>
+      <c r="C42">
+        <v>4.5290597854344803</v>
+      </c>
+      <c r="R42">
+        <v>11</v>
+      </c>
+      <c r="S42">
+        <v>1201.3945151999999</v>
+      </c>
+      <c r="T42">
+        <v>4.6903443198632502</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>19</v>
+      </c>
+      <c r="B43">
+        <v>1246.72590729999</v>
+      </c>
+      <c r="C43">
+        <v>4.4306149110481696</v>
+      </c>
+      <c r="R43">
+        <v>12</v>
+      </c>
+      <c r="S43">
+        <v>1201.5473526999999</v>
+      </c>
+      <c r="T43">
+        <v>4.7150197197733297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>20</v>
+      </c>
+      <c r="B44">
+        <v>1257.0787886999999</v>
+      </c>
+      <c r="C44">
+        <v>4.3630310760600404</v>
+      </c>
+      <c r="R44">
+        <v>13</v>
+      </c>
+      <c r="S44">
+        <v>1211.54486059999</v>
+      </c>
+      <c r="T44">
+        <v>4.6379407739051199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>14</v>
+      </c>
+      <c r="S45">
+        <v>1207.7114609</v>
+      </c>
+      <c r="T45">
+        <v>4.6676500476096097</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>15</v>
+      </c>
+      <c r="S46">
+        <v>1226.9916456000001</v>
+      </c>
+      <c r="T46">
+        <v>4.5975781973472003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>16</v>
+      </c>
+      <c r="S47">
+        <v>1225.9456232999901</v>
+      </c>
+      <c r="T47">
+        <v>4.5685409393618297</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>17</v>
+      </c>
+      <c r="S48">
+        <v>1240.5849143999999</v>
+      </c>
+      <c r="T48">
+        <v>4.48546976227136</v>
+      </c>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>18</v>
+      </c>
+      <c r="S49">
+        <v>1235.3133806000001</v>
+      </c>
+      <c r="T49">
+        <v>4.5290597854344803</v>
+      </c>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>19</v>
+      </c>
+      <c r="S50">
+        <v>1246.72590729999</v>
+      </c>
+      <c r="T50">
+        <v>4.4306149110481696</v>
+      </c>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>20</v>
+      </c>
+      <c r="S51">
+        <v>1257.0787886999999</v>
+      </c>
+      <c r="T51">
+        <v>4.3630310760600404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="3">
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tdcrpy/validation/Validation_Interaction.xlsx
+++ b/tdcrpy/validation/Validation_Interaction.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python_modules\TDCRPy\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9D437A-6AEF-4589-8139-A968A4A38B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC2711A-5DE0-4CA2-A22D-5AFB3E831C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,43 +425,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="13"/>
                   <c:pt idx="0">
-                    <c:v>7.8340709696572905E-2</c:v>
+                    <c:v>7.4164480653020295E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3304786834530006E-2</c:v>
+                    <c:v>7.4447966280517405E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.1548465066776904E-2</c:v>
+                    <c:v>7.4576522688444002E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.3155555908589293E-2</c:v>
+                    <c:v>7.4690244729211402E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.6425912765541305E-2</c:v>
+                    <c:v>7.4770614855048004E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.3826061493181003E-2</c:v>
+                    <c:v>7.4765305400686599E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.7748179068160195E-2</c:v>
+                    <c:v>7.4753645935275795E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.8626998765953396E-2</c:v>
+                    <c:v>7.4705969500338906E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.8344876228231506E-2</c:v>
+                    <c:v>7.4720349231310101E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6070089887129303E-2</c:v>
+                    <c:v>7.4728112753227494E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.8813662248044198E-2</c:v>
+                    <c:v>7.4697081257086698E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9820984558401401E-2</c:v>
+                    <c:v>7.4715186907665807E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.9213050792305307E-2</c:v>
+                    <c:v>7.4738862210020296E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -473,43 +473,43 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="13"/>
                   <c:pt idx="0">
-                    <c:v>7.8340709696572905E-2</c:v>
+                    <c:v>7.4164480653020295E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>8.3304786834530006E-2</c:v>
+                    <c:v>7.4447966280517405E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.1548465066776904E-2</c:v>
+                    <c:v>7.4576522688444002E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>8.3155555908589293E-2</c:v>
+                    <c:v>7.4690244729211402E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>8.6425912765541305E-2</c:v>
+                    <c:v>7.4770614855048004E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>8.3826061493181003E-2</c:v>
+                    <c:v>7.4765305400686599E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>8.7748179068160195E-2</c:v>
+                    <c:v>7.4753645935275795E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>8.8626998765953396E-2</c:v>
+                    <c:v>7.4705969500338906E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>8.8344876228231506E-2</c:v>
+                    <c:v>7.4720349231310101E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.6070089887129303E-2</c:v>
+                    <c:v>7.4728112753227494E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>8.8813662248044198E-2</c:v>
+                    <c:v>7.4697081257086698E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>8.9820984558401401E-2</c:v>
+                    <c:v>7.4715186907665807E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.9213050792305307E-2</c:v>
+                    <c:v>7.4738862210020296E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -583,43 +583,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>2.34090358</c:v>
+                  <c:v>6.5744813000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5543152</c:v>
+                  <c:v>6.8281680400000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5881083999999999</c:v>
+                  <c:v>6.9840574799999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5175684600000001</c:v>
+                  <c:v>7.1920335999999896</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.80318522</c:v>
+                  <c:v>7.4783066800000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.75663766</c:v>
+                  <c:v>7.4603507999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.8421203199999998</c:v>
+                  <c:v>7.6035414999999897</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9446477999999998</c:v>
+                  <c:v>7.7219169799999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0318970799999998</c:v>
+                  <c:v>7.7662203600000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8021405800000001</c:v>
+                  <c:v>7.7220113599999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.9545055800000002</c:v>
+                  <c:v>7.8127986399999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.0114751399999999</c:v>
+                  <c:v>7.7270798599999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.03123136</c:v>
+                  <c:v>7.6301459999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5858,19 +5858,19 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <v>2.34090358</v>
+        <v>6.5744813000000004</v>
       </c>
       <c r="I9">
-        <v>7.8340709696572905E-2</v>
+        <v>7.4164480653020295E-2</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9">
-        <v>2.34090358</v>
+        <v>6.5744813000000004</v>
       </c>
       <c r="M9">
-        <v>7.8340709696572905E-2</v>
+        <v>7.4164480653020295E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -5887,19 +5887,19 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <v>2.5543152</v>
+        <v>6.8281680400000004</v>
       </c>
       <c r="I10">
-        <v>8.3304786834530006E-2</v>
+        <v>7.4447966280517405E-2</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <v>2.5543152</v>
+        <v>6.8281680400000004</v>
       </c>
       <c r="M10">
-        <v>8.3304786834530006E-2</v>
+        <v>7.4447966280517405E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5916,19 +5916,19 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <v>2.5881083999999999</v>
+        <v>6.9840574799999997</v>
       </c>
       <c r="I11">
-        <v>8.1548465066776904E-2</v>
+        <v>7.4576522688444002E-2</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11">
-        <v>2.5881083999999999</v>
+        <v>6.9840574799999997</v>
       </c>
       <c r="M11">
-        <v>8.1548465066776904E-2</v>
+        <v>7.4576522688444002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -5945,19 +5945,19 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <v>2.5175684600000001</v>
+        <v>7.1920335999999896</v>
       </c>
       <c r="I12">
-        <v>8.3155555908589293E-2</v>
+        <v>7.4690244729211402E-2</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12">
-        <v>2.5175684600000001</v>
+        <v>7.1920335999999896</v>
       </c>
       <c r="M12">
-        <v>8.3155555908589293E-2</v>
+        <v>7.4690244729211402E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -5974,19 +5974,19 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <v>2.80318522</v>
+        <v>7.4783066800000002</v>
       </c>
       <c r="I13">
-        <v>8.6425912765541305E-2</v>
+        <v>7.4770614855048004E-2</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13">
-        <v>2.80318522</v>
+        <v>7.4783066800000002</v>
       </c>
       <c r="M13">
-        <v>8.6425912765541305E-2</v>
+        <v>7.4770614855048004E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -6003,19 +6003,19 @@
         <v>13</v>
       </c>
       <c r="H14">
-        <v>2.75663766</v>
+        <v>7.4603507999999996</v>
       </c>
       <c r="I14">
-        <v>8.3826061493181003E-2</v>
+        <v>7.4765305400686599E-2</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14">
-        <v>2.75663766</v>
+        <v>7.4603507999999996</v>
       </c>
       <c r="M14">
-        <v>8.3826061493181003E-2</v>
+        <v>7.4765305400686599E-2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -6032,19 +6032,19 @@
         <v>14</v>
       </c>
       <c r="H15">
-        <v>2.8421203199999998</v>
+        <v>7.6035414999999897</v>
       </c>
       <c r="I15">
-        <v>8.7748179068160195E-2</v>
+        <v>7.4753645935275795E-2</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15">
-        <v>2.8421203199999998</v>
+        <v>7.6035414999999897</v>
       </c>
       <c r="M15">
-        <v>8.7748179068160195E-2</v>
+        <v>7.4753645935275795E-2</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -6061,19 +6061,19 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <v>2.9446477999999998</v>
+        <v>7.7219169799999996</v>
       </c>
       <c r="I16">
-        <v>8.8626998765953396E-2</v>
+        <v>7.4705969500338906E-2</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16">
-        <v>2.9446477999999998</v>
+        <v>7.7219169799999996</v>
       </c>
       <c r="M16">
-        <v>8.8626998765953396E-2</v>
+        <v>7.4705969500338906E-2</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -6090,19 +6090,19 @@
         <v>16</v>
       </c>
       <c r="H17">
-        <v>3.0318970799999998</v>
+        <v>7.7662203600000002</v>
       </c>
       <c r="I17">
-        <v>8.8344876228231506E-2</v>
+        <v>7.4720349231310101E-2</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17">
-        <v>3.0318970799999998</v>
+        <v>7.7662203600000002</v>
       </c>
       <c r="M17">
-        <v>8.8344876228231506E-2</v>
+        <v>7.4720349231310101E-2</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -6119,19 +6119,19 @@
         <v>17</v>
       </c>
       <c r="H18">
-        <v>2.8021405800000001</v>
+        <v>7.7220113599999998</v>
       </c>
       <c r="I18">
-        <v>8.6070089887129303E-2</v>
+        <v>7.4728112753227494E-2</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18">
-        <v>2.8021405800000001</v>
+        <v>7.7220113599999998</v>
       </c>
       <c r="M18">
-        <v>8.6070089887129303E-2</v>
+        <v>7.4728112753227494E-2</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -6148,19 +6148,19 @@
         <v>18</v>
       </c>
       <c r="H19">
-        <v>2.9545055800000002</v>
+        <v>7.8127986399999996</v>
       </c>
       <c r="I19">
-        <v>8.8813662248044198E-2</v>
+        <v>7.4697081257086698E-2</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19">
-        <v>2.9545055800000002</v>
+        <v>7.8127986399999996</v>
       </c>
       <c r="M19">
-        <v>8.8813662248044198E-2</v>
+        <v>7.4697081257086698E-2</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -6177,19 +6177,19 @@
         <v>19</v>
       </c>
       <c r="H20">
-        <v>3.0114751399999999</v>
+        <v>7.7270798599999999</v>
       </c>
       <c r="I20">
-        <v>8.9820984558401401E-2</v>
+        <v>7.4715186907665807E-2</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20">
-        <v>3.0114751399999999</v>
+        <v>7.7270798599999999</v>
       </c>
       <c r="M20">
-        <v>8.9820984558401401E-2</v>
+        <v>7.4715186907665807E-2</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -6206,19 +6206,19 @@
         <v>20</v>
       </c>
       <c r="H21">
-        <v>3.03123136</v>
+        <v>7.6301459999999999</v>
       </c>
       <c r="I21">
-        <v>8.9213050792305307E-2</v>
+        <v>7.4738862210020296E-2</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21">
-        <v>3.03123136</v>
+        <v>7.6301459999999999</v>
       </c>
       <c r="M21">
-        <v>8.9213050792305307E-2</v>
+        <v>7.4738862210020296E-2</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">

--- a/tdcrpy/validation/Validation_Interaction.xlsx
+++ b/tdcrpy/validation/Validation_Interaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jialin.hu\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78514B41-BC67-46DA-96FB-B379B4DC9060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455792C3-3310-459B-BC03-F5895CD4E328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1270,43 +1271,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.82805765999999</c:v>
+                  <c:v>4.9917894199999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8244049000000002</c:v>
+                  <c:v>4.820729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3009198199999998</c:v>
+                  <c:v>5.6116777799999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4092917999999903</c:v>
+                  <c:v>5.3712997600000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5678828999999999</c:v>
+                  <c:v>5.5869572199999897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8385625399999999</c:v>
+                  <c:v>6.0307249399999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.0186351199999901</c:v>
+                  <c:v>6.1201022399999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9532145999999999</c:v>
+                  <c:v>6.0312665599999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.0138771199999903</c:v>
+                  <c:v>5.8223155999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4564615999999901</c:v>
+                  <c:v>6.2222677999999902</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.2493940399999897</c:v>
+                  <c:v>5.9856076199999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.37176195999999</c:v>
+                  <c:v>6.5526431399999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.4334090799999899</c:v>
+                  <c:v>6.2422276999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,43 +1460,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.9809869399999904</c:v>
+                  <c:v>4.6420770400000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.04329596</c:v>
+                  <c:v>4.9937788000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.3382713800000001</c:v>
+                  <c:v>5.1281313600000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8425768399999898</c:v>
+                  <c:v>5.6729620999999897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.5939458799999997</c:v>
+                  <c:v>5.5671434599999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0136360999999896</c:v>
+                  <c:v>5.6335422199999901</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7736613999999999</c:v>
+                  <c:v>6.0199226199999902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.2040777199999999</c:v>
+                  <c:v>6.1329103399999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1379526000000002</c:v>
+                  <c:v>6.1559272399999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.4216443400000003</c:v>
+                  <c:v>6.4813610399999897</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.1425095999999897</c:v>
+                  <c:v>6.2177269799999904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.4701534199999902</c:v>
+                  <c:v>6.3255985999999904</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0855036399999998</c:v>
+                  <c:v>6.3245124400000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,13 +1660,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.2892174753846097</c:v>
+                  <c:v>5.3592401907692198</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.78927499076923</c:v>
+                  <c:v>5.7945699461538398</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1594068984615298</c:v>
+                  <c:v>6.16384082461538</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,43 +1786,43 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>5.0672514199999998</c:v>
+                        <c:v>4.9537796399999996</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.9942003799999997</c:v>
+                        <c:v>5.0396806600000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.3437142199999998</c:v>
+                        <c:v>5.1383547800000002</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5.6473574199999996</c:v>
+                        <c:v>5.5284047799999998</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5.6653088599999997</c:v>
+                        <c:v>5.85436406</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.95169178</c:v>
+                        <c:v>5.7213721999999896</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.7952476199999996</c:v>
+                        <c:v>5.8160700599999897</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6.2512409799999897</c:v>
+                        <c:v>6.1071858199999998</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>5.6752120799999997</c:v>
+                        <c:v>6.0983966000000001</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>6.2739521999999903</c:v>
+                        <c:v>6.2543349399999997</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>6.3839742999999904</c:v>
+                        <c:v>6.0865482399999902</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>6.2657416799999899</c:v>
+                        <c:v>6.2183518599999896</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>6.1298997399999902</c:v>
+                        <c:v>6.3238721199999999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1865,7 +1866,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$27:$A$39</c15:sqref>
@@ -1919,7 +1920,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$E$27:$E$39</c15:sqref>
@@ -1930,49 +1931,49 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>5.1925881399999998</c:v>
+                        <c:v>5.0006043199999999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.2076090199999996</c:v>
+                        <c:v>4.9121742599999996</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.3393916199999998</c:v>
+                        <c:v>5.40152302</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5.5066204999999897</c:v>
+                        <c:v>5.2546369200000003</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5.4691312399999896</c:v>
+                        <c:v>5.5500736799999997</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.5316212800000004</c:v>
+                        <c:v>5.7255315199999997</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.7914532799999998</c:v>
+                        <c:v>5.9772355199999998</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6.1277513799999896</c:v>
+                        <c:v>6.1857637799999896</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>6.3667441199999901</c:v>
+                        <c:v>6.1012258599999996</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>6.1848205399999996</c:v>
+                        <c:v>6.2041769599999999</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>6.6079814799999896</c:v>
+                        <c:v>6.3798353399999996</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>6.5637091199999897</c:v>
+                        <c:v>6.6914778000000004</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>6.4587675199999897</c:v>
+                        <c:v>6.98540224</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FE60-4E23-85B7-948DFCB47C7F}"/>
                   </c:ext>
@@ -2010,7 +2011,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$27:$A$39</c15:sqref>
@@ -2064,7 +2065,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$H$27:$H$39</c15:sqref>
@@ -2075,49 +2076,49 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>4.6594689000000002</c:v>
+                        <c:v>4.7191695600000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.7694151400000004</c:v>
+                        <c:v>4.8969729800000001</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.98985798</c:v>
+                        <c:v>4.7736277600000001</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5.0330403600000002</c:v>
+                        <c:v>5.1748866800000002</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5.1809590200000004</c:v>
+                        <c:v>5.3295274399999997</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.5040959599999999</c:v>
+                        <c:v>5.8898434399999999</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.5079502800000002</c:v>
+                        <c:v>5.6026751600000004</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>5.5143500599999999</c:v>
+                        <c:v>5.9052738199999997</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>6.0569353799999996</c:v>
+                        <c:v>5.9089179999999999</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>5.7000544599999996</c:v>
+                        <c:v>5.9378183399999998</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>5.8962389599999998</c:v>
+                        <c:v>5.9766298200000003</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>6.02130294</c:v>
+                        <c:v>5.8035151999999997</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>5.9544373799999999</c:v>
+                        <c:v>6.3982040600000003</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-FE60-4E23-85B7-948DFCB47C7F}"/>
                   </c:ext>
@@ -2155,7 +2156,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$27:$A$39</c15:sqref>
@@ -2209,7 +2210,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$Q$27:$Q$39</c15:sqref>
@@ -2220,49 +2221,49 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="13"/>
                       <c:pt idx="0">
-                        <c:v>5.1825490600000004</c:v>
+                        <c:v>4.9891589799999903</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>5.1065881399999897</c:v>
+                        <c:v>5.1306217800000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>5.6490247</c:v>
+                        <c:v>5.2038943800000004</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5.2747774200000004</c:v>
+                        <c:v>5.4295739199999904</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>5.3854366799999998</c:v>
+                        <c:v>5.5954326399999896</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>5.7688054599999896</c:v>
+                        <c:v>5.6790661399999998</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>5.9111302199999898</c:v>
+                        <c:v>6.1866058599999896</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>6.0461675599999998</c:v>
+                        <c:v>5.7631836400000003</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>6.2658603799999897</c:v>
+                        <c:v>5.8172359999999896</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>6.2839731199999997</c:v>
+                        <c:v>5.9504056800000003</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>6.3187501999999904</c:v>
+                        <c:v>6.2815845999999897</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>6.3651357999999902</c:v>
+                        <c:v>6.3742740399999898</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>6.6035870599999997</c:v>
+                        <c:v>6.5444503799999998</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-FE60-4E23-85B7-948DFCB47C7F}"/>
                   </c:ext>
@@ -2787,7 +2788,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$48:$A$60</c15:sqref>
@@ -2841,7 +2842,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$E$48:$E$60</c15:sqref>
@@ -2894,7 +2895,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-E91E-4279-B93A-3611D7F28496}"/>
                   </c:ext>
@@ -2932,7 +2933,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$48:$A$60</c15:sqref>
@@ -2986,7 +2987,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$H$48:$H$60</c15:sqref>
@@ -3039,7 +3040,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-E91E-4279-B93A-3611D7F28496}"/>
                   </c:ext>
@@ -3077,7 +3078,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$48:$A$60</c15:sqref>
@@ -3131,7 +3132,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$K$48:$K$60</c15:sqref>
@@ -3184,7 +3185,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E91E-4279-B93A-3611D7F28496}"/>
                   </c:ext>
@@ -3222,7 +3223,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$48:$A$60</c15:sqref>
@@ -3276,7 +3277,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$N$48:$N$60</c15:sqref>
@@ -3329,7 +3330,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-E91E-4279-B93A-3611D7F28496}"/>
                   </c:ext>
@@ -3367,7 +3368,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$A$48:$A$60</c15:sqref>
@@ -3421,7 +3422,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Feuil5!$Q$48:$Q$60</c15:sqref>
@@ -3474,7 +3475,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-E91E-4279-B93A-3611D7F28496}"/>
                   </c:ext>
@@ -18963,7 +18964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC608AA-2B56-4A86-8025-ECD499E8FBDB}">
   <dimension ref="A3:T51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="S5" sqref="S5:T5"/>
     </sheetView>
   </sheetViews>
@@ -20462,8 +20463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083D21E-C8CB-4F1E-AB77-9A0ABAD620D8}">
   <dimension ref="A1:V65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AA40" sqref="AA40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21177,37 +21178,37 @@
         <v>8</v>
       </c>
       <c r="B27">
-        <v>5.0672514199999998</v>
+        <v>4.9537796399999996</v>
       </c>
       <c r="C27">
         <v>0.15962894602876701</v>
       </c>
       <c r="E27">
-        <v>5.1925881399999998</v>
+        <v>5.0006043199999999</v>
       </c>
       <c r="F27">
         <v>0.16431343591308301</v>
       </c>
       <c r="H27">
-        <v>4.6594689000000002</v>
+        <v>4.7191695600000001</v>
       </c>
       <c r="I27">
         <v>0.15766879306221099</v>
       </c>
       <c r="K27">
-        <v>4.82805765999999</v>
+        <v>4.9917894199999999</v>
       </c>
       <c r="L27">
         <v>0.15589656045147601</v>
       </c>
       <c r="N27">
-        <v>4.9809869399999904</v>
+        <v>4.6420770400000002</v>
       </c>
       <c r="O27">
         <v>0.15769718595437299</v>
       </c>
       <c r="Q27">
-        <v>5.1825490600000004</v>
+        <v>4.9891589799999903</v>
       </c>
       <c r="R27">
         <v>0.16224022730791801</v>
@@ -21221,37 +21222,37 @@
         <v>9</v>
       </c>
       <c r="B28">
-        <v>4.9942003799999997</v>
+        <v>5.0396806600000001</v>
       </c>
       <c r="C28">
         <v>0.15762438535529499</v>
       </c>
       <c r="E28">
-        <v>5.2076090199999996</v>
+        <v>4.9121742599999996</v>
       </c>
       <c r="F28">
         <v>0.15958742793237399</v>
       </c>
       <c r="H28">
-        <v>4.7694151400000004</v>
+        <v>4.8969729800000001</v>
       </c>
       <c r="I28">
         <v>0.15877202810414101</v>
       </c>
       <c r="K28">
-        <v>4.8244049000000002</v>
+        <v>4.820729</v>
       </c>
       <c r="L28">
         <v>0.154792547883017</v>
       </c>
       <c r="N28">
-        <v>5.04329596</v>
+        <v>4.9937788000000003</v>
       </c>
       <c r="O28">
         <v>0.15919543947427101</v>
       </c>
       <c r="Q28">
-        <v>5.1065881399999897</v>
+        <v>5.1306217800000002</v>
       </c>
       <c r="R28">
         <v>0.16301999176189599</v>
@@ -21265,37 +21266,37 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>5.3437142199999998</v>
+        <v>5.1383547800000002</v>
       </c>
       <c r="C29">
         <v>0.16442675293475001</v>
       </c>
       <c r="E29">
-        <v>5.3393916199999998</v>
+        <v>5.40152302</v>
       </c>
       <c r="F29">
         <v>0.16437011425034501</v>
       </c>
       <c r="H29">
-        <v>4.98985798</v>
+        <v>4.7736277600000001</v>
       </c>
       <c r="I29">
         <v>0.161099737739928</v>
       </c>
       <c r="K29">
-        <v>5.3009198199999998</v>
+        <v>5.6116777799999999</v>
       </c>
       <c r="L29">
         <v>0.16547753952014299</v>
       </c>
       <c r="N29">
-        <v>5.3382713800000001</v>
+        <v>5.1281313600000002</v>
       </c>
       <c r="O29">
         <v>0.163638272264649</v>
       </c>
       <c r="Q29">
-        <v>5.6490247</v>
+        <v>5.2038943800000004</v>
       </c>
       <c r="R29">
         <v>0.17163847890595199</v>
@@ -21304,10 +21305,10 @@
         <v>10</v>
       </c>
       <c r="U29">
-        <v>5.2892174753846097</v>
+        <v>5.3592401907692198</v>
       </c>
       <c r="V29">
-        <v>0.16430924726246299</v>
+        <v>0.16542911625438</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -21315,37 +21316,37 @@
         <v>11</v>
       </c>
       <c r="B30">
-        <v>5.6473574199999996</v>
+        <v>5.5284047799999998</v>
       </c>
       <c r="C30">
         <v>0.172126761848618</v>
       </c>
       <c r="E30">
-        <v>5.5066204999999897</v>
+        <v>5.2546369200000003</v>
       </c>
       <c r="F30">
         <v>0.16882938017232099</v>
       </c>
       <c r="H30">
-        <v>5.0330403600000002</v>
+        <v>5.1748866800000002</v>
       </c>
       <c r="I30">
         <v>0.162331539104691</v>
       </c>
       <c r="K30">
-        <v>5.4092917999999903</v>
+        <v>5.3712997600000003</v>
       </c>
       <c r="L30">
         <v>0.165326247583649</v>
       </c>
       <c r="N30">
-        <v>5.8425768399999898</v>
+        <v>5.6729620999999897</v>
       </c>
       <c r="O30">
         <v>0.17638417166716899</v>
       </c>
       <c r="Q30">
-        <v>5.2747774200000004</v>
+        <v>5.4295739199999904</v>
       </c>
       <c r="R30">
         <v>0.16236048839998399</v>
@@ -21354,10 +21355,10 @@
         <v>13</v>
       </c>
       <c r="U30">
-        <v>5.78927499076923</v>
+        <v>5.7945699461538398</v>
       </c>
       <c r="V30">
-        <v>0.17181797743125099</v>
+        <v>0.17249509855218301</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -21365,37 +21366,37 @@
         <v>12</v>
       </c>
       <c r="B31">
-        <v>5.6653088599999997</v>
+        <v>5.85436406</v>
       </c>
       <c r="C31">
         <v>0.17141196468894901</v>
       </c>
       <c r="E31">
-        <v>5.4691312399999896</v>
+        <v>5.5500736799999997</v>
       </c>
       <c r="F31">
         <v>0.16737966326440001</v>
       </c>
       <c r="H31">
-        <v>5.1809590200000004</v>
+        <v>5.3295274399999997</v>
       </c>
       <c r="I31">
         <v>0.16270588431789301</v>
       </c>
       <c r="K31">
-        <v>5.5678828999999999</v>
+        <v>5.5869572199999897</v>
       </c>
       <c r="L31">
         <v>0.16799709058104101</v>
       </c>
       <c r="N31">
-        <v>5.5939458799999997</v>
+        <v>5.5671434599999996</v>
       </c>
       <c r="O31">
         <v>0.16772653232951501</v>
       </c>
       <c r="Q31">
-        <v>5.3854366799999998</v>
+        <v>5.5954326399999896</v>
       </c>
       <c r="R31">
         <v>0.16732594872436601</v>
@@ -21404,10 +21405,10 @@
         <v>16</v>
       </c>
       <c r="U31">
-        <v>6.1594068984615298</v>
+        <v>6.16384082461538</v>
       </c>
       <c r="V31">
-        <v>0.17828318576507199</v>
+        <v>0.177490866248596</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -21415,37 +21416,37 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>5.95169178</v>
+        <v>5.7213721999999896</v>
       </c>
       <c r="C32">
         <v>0.174767391308737</v>
       </c>
       <c r="E32">
-        <v>5.5316212800000004</v>
+        <v>5.7255315199999997</v>
       </c>
       <c r="F32">
         <v>0.16745982714399299</v>
       </c>
       <c r="H32">
-        <v>5.5040959599999999</v>
+        <v>5.8898434399999999</v>
       </c>
       <c r="I32">
         <v>0.16968697424624901</v>
       </c>
       <c r="K32">
-        <v>5.8385625399999999</v>
+        <v>6.0307249399999998</v>
       </c>
       <c r="L32">
         <v>0.17268858308441301</v>
       </c>
       <c r="N32">
-        <v>6.0136360999999896</v>
+        <v>5.6335422199999901</v>
       </c>
       <c r="O32">
         <v>0.176182997338203</v>
       </c>
       <c r="Q32">
-        <v>5.7688054599999896</v>
+        <v>5.6790661399999998</v>
       </c>
       <c r="R32">
         <v>0.16667567124594701</v>
@@ -21456,37 +21457,37 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>5.7952476199999996</v>
+        <v>5.8160700599999897</v>
       </c>
       <c r="C33">
         <v>0.17450952558708499</v>
       </c>
       <c r="E33">
-        <v>5.7914532799999998</v>
+        <v>5.9772355199999998</v>
       </c>
       <c r="F33">
         <v>0.172841705760928</v>
       </c>
       <c r="H33">
-        <v>5.5079502800000002</v>
+        <v>5.6026751600000004</v>
       </c>
       <c r="I33">
         <v>0.16936414988735701</v>
       </c>
       <c r="K33">
-        <v>6.0186351199999901</v>
+        <v>6.1201022399999996</v>
       </c>
       <c r="L33">
         <v>0.176024187553215</v>
       </c>
       <c r="N33">
-        <v>5.7736613999999999</v>
+        <v>6.0199226199999902</v>
       </c>
       <c r="O33">
         <v>0.16902100813506599</v>
       </c>
       <c r="Q33">
-        <v>5.9111302199999898</v>
+        <v>6.1866058599999896</v>
       </c>
       <c r="R33">
         <v>0.172311597905981</v>
@@ -21497,37 +21498,37 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>6.2512409799999897</v>
+        <v>6.1071858199999998</v>
       </c>
       <c r="C34">
         <v>0.18059091728120799</v>
       </c>
       <c r="E34">
-        <v>6.1277513799999896</v>
+        <v>6.1857637799999896</v>
       </c>
       <c r="F34">
         <v>0.17887048700779201</v>
       </c>
       <c r="H34">
-        <v>5.5143500599999999</v>
+        <v>5.9052738199999997</v>
       </c>
       <c r="I34">
         <v>0.16667248358536599</v>
       </c>
       <c r="K34">
-        <v>5.9532145999999999</v>
+        <v>6.0312665599999997</v>
       </c>
       <c r="L34">
         <v>0.175181884501208</v>
       </c>
       <c r="N34">
-        <v>6.2040777199999999</v>
+        <v>6.1329103399999996</v>
       </c>
       <c r="O34">
         <v>0.177665121331777</v>
       </c>
       <c r="Q34">
-        <v>6.0461675599999998</v>
+        <v>5.7631836400000003</v>
       </c>
       <c r="R34">
         <v>0.176977399003238</v>
@@ -21538,37 +21539,37 @@
         <v>16</v>
       </c>
       <c r="B35">
-        <v>5.6752120799999997</v>
+        <v>6.0983966000000001</v>
       </c>
       <c r="C35">
         <v>0.16840235256872099</v>
       </c>
       <c r="E35">
-        <v>6.3667441199999901</v>
+        <v>6.1012258599999996</v>
       </c>
       <c r="F35">
         <v>0.17881837514788301</v>
       </c>
       <c r="H35">
-        <v>6.0569353799999996</v>
+        <v>5.9089179999999999</v>
       </c>
       <c r="I35">
         <v>0.17849959349894401</v>
       </c>
       <c r="K35">
-        <v>6.0138771199999903</v>
+        <v>5.8223155999999996</v>
       </c>
       <c r="L35">
         <v>0.177631868146781</v>
       </c>
       <c r="N35">
-        <v>6.1379526000000002</v>
+        <v>6.1559272399999996</v>
       </c>
       <c r="O35">
         <v>0.176979438075096</v>
       </c>
       <c r="Q35">
-        <v>6.2658603799999897</v>
+        <v>5.8172359999999896</v>
       </c>
       <c r="R35">
         <v>0.17934637247053201</v>
@@ -21579,37 +21580,37 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>6.2739521999999903</v>
+        <v>6.2543349399999997</v>
       </c>
       <c r="C36">
         <v>0.17751801664334799</v>
       </c>
       <c r="E36">
-        <v>6.1848205399999996</v>
+        <v>6.2041769599999999</v>
       </c>
       <c r="F36">
         <v>0.17823625085755501</v>
       </c>
       <c r="H36">
-        <v>5.7000544599999996</v>
+        <v>5.9378183399999998</v>
       </c>
       <c r="I36">
         <v>0.17277264236744999</v>
       </c>
       <c r="K36">
-        <v>6.4564615999999901</v>
+        <v>6.2222677999999902</v>
       </c>
       <c r="L36">
         <v>0.183481330333637</v>
       </c>
       <c r="N36">
-        <v>6.4216443400000003</v>
+        <v>6.4813610399999897</v>
       </c>
       <c r="O36">
         <v>0.183454717438534</v>
       </c>
       <c r="Q36">
-        <v>6.2839731199999997</v>
+        <v>5.9504056800000003</v>
       </c>
       <c r="R36">
         <v>0.17754429156575999</v>
@@ -21620,37 +21621,37 @@
         <v>18</v>
       </c>
       <c r="B37">
-        <v>6.3839742999999904</v>
+        <v>6.0865482399999902</v>
       </c>
       <c r="C37">
         <v>0.179174886726708</v>
       </c>
       <c r="E37">
-        <v>6.6079814799999896</v>
+        <v>6.3798353399999996</v>
       </c>
       <c r="F37">
         <v>0.18477765576202701</v>
       </c>
       <c r="H37">
-        <v>5.8962389599999998</v>
+        <v>5.9766298200000003</v>
       </c>
       <c r="I37">
         <v>0.17399055772027</v>
       </c>
       <c r="K37">
-        <v>6.2493940399999897</v>
+        <v>5.9856076199999997</v>
       </c>
       <c r="L37">
         <v>0.17881283699814501</v>
       </c>
       <c r="N37">
-        <v>6.1425095999999897</v>
+        <v>6.2177269799999904</v>
       </c>
       <c r="O37">
         <v>0.178336607461964</v>
       </c>
       <c r="Q37">
-        <v>6.3187501999999904</v>
+        <v>6.2815845999999897</v>
       </c>
       <c r="R37">
         <v>0.18100205863910601</v>
@@ -21661,37 +21662,37 @@
         <v>19</v>
       </c>
       <c r="B38">
-        <v>6.2657416799999899</v>
+        <v>6.2183518599999896</v>
       </c>
       <c r="C38">
         <v>0.177338351215648</v>
       </c>
       <c r="E38">
-        <v>6.5637091199999897</v>
+        <v>6.6914778000000004</v>
       </c>
       <c r="F38">
         <v>0.184112599361374</v>
       </c>
       <c r="H38">
-        <v>6.02130294</v>
+        <v>5.8035151999999997</v>
       </c>
       <c r="I38">
         <v>0.17478585354013201</v>
       </c>
       <c r="K38">
-        <v>6.37176195999999</v>
+        <v>6.5526431399999998</v>
       </c>
       <c r="L38">
         <v>0.18040711666819101</v>
       </c>
       <c r="N38">
-        <v>6.4701534199999902</v>
+        <v>6.3255985999999904</v>
       </c>
       <c r="O38">
         <v>0.18231198922865399</v>
       </c>
       <c r="Q38">
-        <v>6.3651357999999902</v>
+        <v>6.3742740399999898</v>
       </c>
       <c r="R38">
         <v>0.18227044496873199</v>
@@ -21702,37 +21703,37 @@
         <v>20</v>
       </c>
       <c r="B39">
-        <v>6.1298997399999902</v>
+        <v>6.3238721199999999</v>
       </c>
       <c r="C39">
         <v>0.17591420069001101</v>
       </c>
       <c r="E39">
-        <v>6.4587675199999897</v>
+        <v>6.98540224</v>
       </c>
       <c r="F39">
         <v>0.179522510686634</v>
       </c>
       <c r="H39">
-        <v>5.9544373799999999</v>
+        <v>6.3982040600000003</v>
       </c>
       <c r="I39">
         <v>0.175513572872698</v>
       </c>
       <c r="K39">
-        <v>6.4334090799999899</v>
+        <v>6.2422276999999999</v>
       </c>
       <c r="L39">
         <v>0.181263681405787</v>
       </c>
       <c r="N39">
-        <v>6.0855036399999998</v>
+        <v>6.3245124400000003</v>
       </c>
       <c r="O39">
         <v>0.177506671179395</v>
       </c>
       <c r="Q39">
-        <v>6.6035870599999997</v>
+        <v>6.5444503799999998</v>
       </c>
       <c r="R39">
         <v>0.18206019829192399</v>
@@ -21749,27 +21750,27 @@
       </c>
       <c r="B42">
         <f>ABS(U29-B29)/U29</f>
-        <v>1.0303366210410423E-2</v>
-      </c>
-      <c r="E42">
+        <v>4.1215807261199749E-2</v>
+      </c>
+      <c r="E42" s="5">
         <f>ABS(U29-E29)/U29</f>
-        <v>9.4861186647920148E-3</v>
+        <v>7.88970595190123E-3</v>
       </c>
       <c r="H42">
         <f>ABS(U29-H29)/U29</f>
-        <v>5.6598068954016971E-2</v>
-      </c>
-      <c r="K42" s="5">
+        <v>0.10927154035340331</v>
+      </c>
+      <c r="K42" s="7">
         <f>ABS(U29-K29)/U29</f>
-        <v>2.2124907266247657E-3</v>
+        <v>4.710324229646954E-2</v>
       </c>
       <c r="N42">
         <f>ABS(U29-N29)/U29</f>
-        <v>9.2743217392140583E-3</v>
+        <v>4.3123432155043627E-2</v>
       </c>
       <c r="Q42">
         <f>ABS(U29-Q29)/U29</f>
-        <v>6.8026551430318452E-2</v>
+        <v>2.8986536381927372E-2</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -21778,27 +21779,27 @@
       </c>
       <c r="B43">
         <f>ABS(U30-B32)/U30</f>
-        <v>2.8054771882444193E-2</v>
+        <v>1.263212746313217E-2</v>
       </c>
       <c r="E43">
         <f>ABS(U30-E32)/U30</f>
-        <v>4.4505350182889612E-2</v>
+        <v>1.1914331312829277E-2</v>
       </c>
       <c r="H43">
         <f>ABS(U30-H32)/U30</f>
-        <v>4.9259886812068318E-2</v>
+        <v>1.6441857589345028E-2</v>
       </c>
       <c r="K43">
         <f>ABS(U30-K32)/U30</f>
-        <v>8.5135961427565427E-3</v>
+        <v>4.0754533302839582E-2</v>
       </c>
       <c r="N43">
         <f>ABS(U30-N32)/U30</f>
-        <v>3.8754612553125303E-2</v>
+        <v>2.7789417963749372E-2</v>
       </c>
       <c r="Q43" s="5">
         <f>ABS(U30-Q32)/U30</f>
-        <v>3.535767570529689E-3</v>
+        <v>1.993311103794786E-2</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -21807,27 +21808,27 @@
       </c>
       <c r="B44" s="6">
         <f>ABS(U31-B35)/U31</f>
-        <v>7.861062378951944E-2</v>
+        <v>1.0617442350884132E-2</v>
       </c>
       <c r="E44">
         <f>ABS(U31-E35)/U31</f>
-        <v>3.3661880917503301E-2</v>
+        <v>1.0158433093425566E-2</v>
       </c>
       <c r="H44">
         <f>ABS(U31-H35)/U31</f>
-        <v>1.6636588579190155E-2</v>
+        <v>4.1357788409678325E-2</v>
       </c>
       <c r="K44">
         <f>ABS(U31-K35)/U31</f>
-        <v>2.3627238930730373E-2</v>
+        <v>5.5407859211985953E-2</v>
       </c>
       <c r="N44" s="5">
         <f>ABS(U31-N35)/U31</f>
-        <v>3.4831760289920671E-3</v>
+        <v>1.2838723193138574E-3</v>
       </c>
       <c r="Q44">
         <f>ABS(U31-Q35)/U31</f>
-        <v>1.7283073401929232E-2</v>
+        <v>5.6231955768750445E-2</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">

--- a/tdcrpy/validation/Validation_Interaction.xlsx
+++ b/tdcrpy/validation/Validation_Interaction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jialin.hu\TDCRPy\tdcrpy\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EB85F9-2075-4224-A3AB-FAA1735BBCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBE78D8-EEB4-421F-9669-D16AB9147B6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,6 @@
     <sheet name="Feuil1" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -359,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -369,12 +368,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3464,10 +3462,143 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>ref</c:v>
+            <c:v>qua</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>photon!$A$5:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>photon!$B$5:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.8432871200000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8534819200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8600602400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8730000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8914999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8629236799999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8914999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8749618400000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8924618400000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8805602400000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.88776104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8966003999999996</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5398-40BC-9ACC-EA2F7783759A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>lin</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3481,15 +3612,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3497,52 +3624,114 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>photon!$T$5:$T$7</c:f>
+              <c:f>photon!$A$5:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>photon!$U$5:$U$7</c:f>
+              <c:f>photon!$E$5:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.8529819199999897</c:v>
+                  <c:v>4.8629638399999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8719999999999999</c:v>
+                  <c:v>4.8650000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8815622400000001</c:v>
+                  <c:v>4.86498192</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8564999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8788453599999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8824216800000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.86516064</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8813614400000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8815</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8906807199999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8980220799999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.88724296</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-5398-40BC-9ACC-EA2F7783759A}"/>
+              <c16:uniqueId val="{00000002-5398-40BC-9ACC-EA2F7783759A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>qua-</c:v>
+            <c:v>gamma</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3556,15 +3745,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3572,52 +3757,114 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>photon!$T$5:$T$7</c:f>
+              <c:f>photon!$A$5:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(photon!$B$7,photon!$B$10,photon!$B$13)</c:f>
+              <c:f>photon!$H$5:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.8600602400000001</c:v>
+                  <c:v>4.8414999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8629236799999997</c:v>
+                  <c:v>4.8574999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8749618400000001</c:v>
+                  <c:v>4.8710000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8668413599999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8775000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8787811199999904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8781204799999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8654999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8938031999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8905000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8760000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.89324096</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8775000000000004</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-5398-40BC-9ACC-EA2F7783759A}"/>
+              <c16:uniqueId val="{00000003-5398-40BC-9ACC-EA2F7783759A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>lin-</c:v>
+            <c:v>f1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3631,15 +3878,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3647,52 +3890,114 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>photon!$T$5:$T$7</c:f>
+              <c:f>photon!$A$5:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(photon!$E$7,photon!$E$10,photon!$E$13)</c:f>
+              <c:f>photon!$K$5:$K$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>4.86498192</c:v>
+                  <c:v>4.8419999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8824216800000002</c:v>
+                  <c:v>4.8637831199999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8815</c:v>
+                  <c:v>4.8585000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8738011999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8775000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.86924096</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8754999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8783413600000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8905059999999896</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8876023999999996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8841405599999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8860000000000001</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-5398-40BC-9ACC-EA2F7783759A}"/>
+              <c16:uniqueId val="{00000004-5398-40BC-9ACC-EA2F7783759A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>f1-</c:v>
+            <c:v>f2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -3706,15 +4011,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3722,44 +4023,239 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>photon!$T$5:$T$7</c:f>
+              <c:f>photon!$A$5:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(photon!$N$7,photon!$N$10,photon!$N$13)</c:f>
+              <c:f>photon!$N$5:$N$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>4.8436807199999903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8784999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>4.8727228799999898</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>4.8795000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8661626399999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>4.8624999999999998</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>4.8766807199999898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8949216800000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4.8846405600000002</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8983232799999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8936004000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8934216800000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.8910421599999996</c:v>
+                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-5398-40BC-9ACC-EA2F7783759A}"/>
+              <c16:uniqueId val="{00000005-5398-40BC-9ACC-EA2F7783759A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>f3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>photon!$A$5:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>photon!$Q$5:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>4.85626304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8662630399999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8581425600000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8779819199999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.87186144</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8869015999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8910019999999896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8780000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.8895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8873212800000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8864999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.9059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9087008000000001</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-5398-40BC-9ACC-EA2F7783759A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3777,155 +4273,10 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="6"/>
+                <c:order val="6"/>
                 <c:tx>
-                  <c:v>qua</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent1"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent1"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>photon!$A$5:$A$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>photon!$B$5:$B$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>4.8432871200000003</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.8534819200000001</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.8600602400000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4.8730000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.8914999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4.8629236799999997</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4.8795000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4.8914999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4.8749618400000001</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4.8924618400000002</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4.8805602400000003</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4.88776104</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4.8966003999999996</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-5398-40BC-9ACC-EA2F7783759A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:v>lin</c:v>
+                  <c:v>ref</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="25400" cap="rnd">
@@ -3939,11 +4290,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent2"/>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -3952,53 +4307,23 @@
                 <c:xVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$A$5:$A$17</c15:sqref>
+                          <c15:sqref>photon!$T$5:$T$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>8</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>9</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4006,53 +4331,23 @@
                 <c:yVal>
                   <c:numRef>
                     <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$E$5:$E$17</c15:sqref>
+                          <c15:sqref>photon!$U$5:$U$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>4.8629638399999999</c:v>
+                        <c:v>4.8529819199999897</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.8650000000000002</c:v>
+                        <c:v>4.8719999999999999</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.86498192</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4.8564999999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.8788453599999997</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4.8824216800000002</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4.86516064</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4.8813614400000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4.8815</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4.8795000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4.8906807199999998</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4.8980220799999996</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4.88724296</c:v>
+                        <c:v>4.8815622400000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4060,17 +4355,17 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-5398-40BC-9ACC-EA2F7783759A}"/>
+                    <c16:uniqueId val="{00000007-5398-40BC-9ACC-EA2F7783759A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
+                <c:idx val="7"/>
+                <c:order val="7"/>
                 <c:tx>
-                  <c:v>gamma</c:v>
+                  <c:v>qua-</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="25400" cap="rnd">
@@ -4084,11 +4379,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent3"/>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -4099,51 +4398,21 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$A$5:$A$17</c15:sqref>
+                          <c15:sqref>photon!$T$5:$T$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>8</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>9</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4153,51 +4422,21 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$H$5:$H$17</c15:sqref>
+                          <c15:sqref>(photon!$B$7,photon!$B$10,photon!$B$13)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>4.8414999999999999</c:v>
+                        <c:v>4.8600602400000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.8574999999999999</c:v>
+                        <c:v>4.8629236799999997</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.8710000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4.8668413599999996</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.8775000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4.8787811199999904</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4.8781204799999998</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4.8654999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4.8938031999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4.8905000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4.8760000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4.89324096</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4.8775000000000004</c:v>
+                        <c:v>4.8749618400000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4205,17 +4444,17 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-5398-40BC-9ACC-EA2F7783759A}"/>
+                    <c16:uniqueId val="{00000008-5398-40BC-9ACC-EA2F7783759A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
+                <c:idx val="8"/>
+                <c:order val="8"/>
                 <c:tx>
-                  <c:v>f1</c:v>
+                  <c:v>lin-</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="25400" cap="rnd">
@@ -4229,11 +4468,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent4"/>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent4"/>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -4244,51 +4487,21 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$A$5:$A$17</c15:sqref>
+                          <c15:sqref>photon!$T$5:$T$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>8</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>9</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4298,51 +4511,21 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$K$5:$K$17</c15:sqref>
+                          <c15:sqref>(photon!$E$7,photon!$E$10,photon!$E$13)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>4.8419999999999996</c:v>
+                        <c:v>4.86498192</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.8637831199999999</c:v>
+                        <c:v>4.8824216800000002</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.8585000000000003</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4.8738011999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.8775000000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4.86924096</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4.8754999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4.8783413600000003</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4.8905059999999896</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4.8879999999999999</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4.8876023999999996</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4.8841405599999996</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4.8860000000000001</c:v>
+                        <c:v>4.8815</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4350,17 +4533,17 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-5398-40BC-9ACC-EA2F7783759A}"/>
+                    <c16:uniqueId val="{00000009-5398-40BC-9ACC-EA2F7783759A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
+                <c:idx val="9"/>
+                <c:order val="9"/>
                 <c:tx>
-                  <c:v>f2</c:v>
+                  <c:v>f1-</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="25400" cap="rnd">
@@ -4374,11 +4557,15 @@
                   <c:size val="5"/>
                   <c:spPr>
                     <a:solidFill>
-                      <a:schemeClr val="accent5"/>
+                      <a:schemeClr val="accent4">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:ln w="9525">
                       <a:solidFill>
-                        <a:schemeClr val="accent5"/>
+                        <a:schemeClr val="accent4">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
                       </a:solidFill>
                     </a:ln>
                     <a:effectLst/>
@@ -4389,51 +4576,21 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$A$5:$A$17</c15:sqref>
+                          <c15:sqref>photon!$T$5:$T$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>8</c:v>
+                        <c:v>10</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>9</c:v>
+                        <c:v>13</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>20</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4443,51 +4600,21 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>photon!$N$5:$N$17</c15:sqref>
+                          <c15:sqref>(photon!$N$7,photon!$N$10,photon!$N$13)</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="3"/>
                       <c:pt idx="0">
-                        <c:v>4.8436807199999903</c:v>
+                        <c:v>4.8727228799999898</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>4.8784999999999998</c:v>
+                        <c:v>4.8624999999999998</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>4.8727228799999898</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4.8795000000000002</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.8661626399999998</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4.8624999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4.8766807199999898</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4.8949216800000004</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
                         <c:v>4.8846405600000002</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4.8983232799999996</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4.8936004000000004</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4.8934216800000003</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4.8910421599999996</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -4495,152 +4622,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-5398-40BC-9ACC-EA2F7783759A}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:tx>
-                  <c:v>f3</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="25400" cap="rnd">
-                    <a:noFill/>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="circle"/>
-                  <c:size val="5"/>
-                  <c:spPr>
-                    <a:solidFill>
-                      <a:schemeClr val="accent6"/>
-                    </a:solidFill>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="accent6"/>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>photon!$A$5:$A$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>20</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>photon!$Q$5:$Q$17</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="13"/>
-                      <c:pt idx="0">
-                        <c:v>4.85626304</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.8662630399999998</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.8581425600000001</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>4.8779819199999999</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4.87186144</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>4.8869015999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>4.8910019999999896</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>4.8780000000000001</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>4.8895</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>4.8873212800000001</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>4.8864999999999998</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>4.9059999999999997</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>4.9087008000000001</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-5398-40BC-9ACC-EA2F7783759A}"/>
+                    <c16:uniqueId val="{0000000A-5398-40BC-9ACC-EA2F7783759A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -28640,8 +28622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5083D21E-C8CB-4F1E-AB77-9A0ABAD620D8}">
   <dimension ref="A1:V435"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40427,7 +40409,7 @@
         <f>B393+B369+B349+B329</f>
         <v>136.19625902154945</v>
       </c>
-      <c r="E395" s="9">
+      <c r="E395">
         <f>E393+E369+E349+E329</f>
         <v>173.13147154352802</v>
       </c>
@@ -41700,8 +41682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5814E20F-DEDC-4C6B-B263-38B3D28FE7AF}">
   <dimension ref="A1:AQ340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H326" sqref="H326"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41711,15 +41693,15 @@
     <col min="4" max="4" width="5.42578125" customWidth="1"/>
     <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="12" style="7" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.28515625" customWidth="1"/>
     <col min="14" max="14" width="12" style="6" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="4.28515625" customWidth="1"/>
-    <col min="17" max="17" width="12" style="11" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="10" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="4" customWidth="1"/>
-    <col min="20" max="20" width="7" style="12" customWidth="1"/>
+    <col min="20" max="20" width="7" style="11" customWidth="1"/>
     <col min="23" max="23" width="7.5703125" customWidth="1"/>
     <col min="25" max="25" width="3.7109375" customWidth="1"/>
     <col min="27" max="27" width="3.7109375" customWidth="1"/>
@@ -41753,7 +41735,7 @@
       <c r="E4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>67</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -41762,10 +41744,10 @@
       <c r="N4" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="Q4" s="11" t="s">
+      <c r="Q4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -41785,7 +41767,7 @@
       <c r="F5">
         <v>3.9958001950047499E-4</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <v>5</v>
       </c>
       <c r="I5">
@@ -41803,13 +41785,13 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="10">
         <v>4.9999819199999997</v>
       </c>
       <c r="R5" s="2">
         <v>1.80790959773988E-5</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="11">
         <v>10</v>
       </c>
       <c r="U5">
@@ -41835,7 +41817,7 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <v>4.9995602400000001</v>
       </c>
       <c r="I6">
@@ -41853,13 +41835,13 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="10">
         <v>4.9995401599999996</v>
       </c>
       <c r="R6">
         <v>4.59817007425171E-4</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6" s="11">
         <v>13</v>
       </c>
       <c r="U6">
@@ -41885,7 +41867,7 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <v>5</v>
       </c>
       <c r="I7">
@@ -41903,13 +41885,13 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>5</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="11">
         <v>16</v>
       </c>
       <c r="U7">
@@ -41935,7 +41917,7 @@
       <c r="F8" s="2">
         <v>9.8395079876993795E-5</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <v>5</v>
       </c>
       <c r="I8">
@@ -41953,7 +41935,7 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>5</v>
       </c>
       <c r="R8">
@@ -41976,7 +41958,7 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>5</v>
       </c>
       <c r="I9">
@@ -41994,7 +41976,7 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="10">
         <v>5</v>
       </c>
       <c r="R9">
@@ -42017,7 +41999,7 @@
       <c r="F10">
         <v>2.9918503962598098E-4</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>5</v>
       </c>
       <c r="I10">
@@ -42035,7 +42017,7 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="10">
         <v>5</v>
       </c>
       <c r="R10">
@@ -42058,7 +42040,7 @@
       <c r="F11">
         <v>4.6555479345898598E-4</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <v>4.9997409599999996</v>
       </c>
       <c r="I11">
@@ -42076,7 +42058,7 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="10">
         <v>4.9998614400000001</v>
       </c>
       <c r="R11">
@@ -42099,7 +42081,7 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <v>5</v>
       </c>
       <c r="I12">
@@ -42117,7 +42099,7 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="10">
         <v>5</v>
       </c>
       <c r="R12">
@@ -42140,7 +42122,7 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <v>5</v>
       </c>
       <c r="I13">
@@ -42158,7 +42140,7 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>5</v>
       </c>
       <c r="R13">
@@ -42181,7 +42163,7 @@
       <c r="F14">
         <v>3.1926403560087998E-4</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>5</v>
       </c>
       <c r="I14">
@@ -42199,7 +42181,7 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="10">
         <v>5</v>
       </c>
       <c r="R14">
@@ -42222,7 +42204,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <v>5</v>
       </c>
       <c r="I15">
@@ -42240,7 +42222,7 @@
       <c r="O15">
         <v>1.3855307182679099E-4</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="10">
         <v>5</v>
       </c>
       <c r="R15">
@@ -42263,7 +42245,7 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <v>5</v>
       </c>
       <c r="I16">
@@ -42281,7 +42263,7 @@
       <c r="O16">
         <v>2.7910604365108198E-4</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="10">
         <v>5</v>
       </c>
       <c r="R16">
@@ -42304,7 +42286,7 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <v>5</v>
       </c>
       <c r="I17">
@@ -42322,42 +42304,44 @@
       <c r="O17">
         <v>4.1965901547537301E-4</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="10">
         <v>4.9999417599999996</v>
       </c>
       <c r="R17" s="2">
         <v>5.8237087927196297E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    <row r="19" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="12">
         <f>(B7-U5)^2+(U6-B10)^2+(B13-U7)^2</f>
         <v>9.6825599999450803E-9</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <f>(E7-U5)^2+(U6-E10)^2+(E13-U7)^2</f>
         <v>8.9520639999833587E-8</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <f>(H7-U5)^2+(U6-H10)^2+(H13-U7)^2</f>
         <v>0</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <f>(K7-U5)^2+(U6-K10)^2+(K13-U7)^2</f>
         <v>0</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <f>(N7-U5)^2+(U6-N10)^2+(N13-U7)^2</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="13">
+      <c r="Q19" s="12">
         <f>(Q7-U5)^2+(U6-Q10)^2+(Q13-U7)^2</f>
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>30</v>
@@ -42384,7 +42368,7 @@
       <c r="F24">
         <v>1.16295589188178E-3</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <v>14.992752960000001</v>
       </c>
       <c r="I24">
@@ -42402,13 +42386,13 @@
       <c r="O24">
         <v>3.1298194813471499E-3</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="10">
         <v>14.997763039999899</v>
       </c>
       <c r="R24">
         <v>1.6069025800576201E-3</v>
       </c>
-      <c r="T24" s="12">
+      <c r="T24" s="11">
         <v>10</v>
       </c>
       <c r="U24">
@@ -42434,7 +42418,7 @@
       <c r="F25">
         <v>1.6269921035284699E-3</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <v>14.9982650399999</v>
       </c>
       <c r="I25">
@@ -42452,13 +42436,13 @@
       <c r="O25">
         <v>2.3613905554685302E-3</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="10">
         <v>14.9986807199999</v>
       </c>
       <c r="R25">
         <v>1.3192140343508099E-3</v>
       </c>
-      <c r="T25" s="12">
+      <c r="T25" s="11">
         <v>13</v>
       </c>
       <c r="U25">
@@ -42484,7 +42468,7 @@
       <c r="F26">
         <v>2.1315401714679799E-3</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <v>14.995305199999899</v>
       </c>
       <c r="I26">
@@ -42502,13 +42486,13 @@
       <c r="O26">
         <v>1.9692547856648701E-3</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="10">
         <v>14.99762248</v>
       </c>
       <c r="R26">
         <v>1.71806211036299E-3</v>
       </c>
-      <c r="T26" s="12">
+      <c r="T26" s="11">
         <v>16</v>
       </c>
       <c r="U26">
@@ -42534,7 +42518,7 @@
       <c r="F27">
         <v>1.40138607849137E-3</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <v>14.99932328</v>
       </c>
       <c r="I27">
@@ -42552,7 +42536,7 @@
       <c r="O27">
         <v>8.7747612290304503E-4</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="10">
         <v>14.99918272</v>
       </c>
       <c r="R27">
@@ -42575,7 +42559,7 @@
       <c r="F28">
         <v>5.9637017925446201E-4</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <v>14.99404616</v>
       </c>
       <c r="I28">
@@ -42593,7 +42577,7 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="10">
         <v>14.9978032</v>
       </c>
       <c r="R28">
@@ -42616,7 +42600,7 @@
       <c r="F29">
         <v>8.2000528064911805E-4</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <v>15</v>
       </c>
       <c r="I29">
@@ -42634,7 +42618,7 @@
       <c r="O29">
         <v>1.91242312971162E-3</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="10">
         <v>14.9974016</v>
       </c>
       <c r="R29">
@@ -42657,7 +42641,7 @@
       <c r="F30">
         <v>8.2793923634807802E-4</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <v>14.995680719999999</v>
       </c>
       <c r="I30">
@@ -42675,7 +42659,7 @@
       <c r="O30">
         <v>0</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="10">
         <v>14.99732728</v>
       </c>
       <c r="R30">
@@ -42698,7 +42682,7 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <v>14.99531116</v>
       </c>
       <c r="I31">
@@ -42716,7 +42700,7 @@
       <c r="O31">
         <v>8.3731813095324703E-4</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="10">
         <v>14.996544159999999</v>
       </c>
       <c r="R31">
@@ -42739,7 +42723,7 @@
       <c r="F32">
         <v>1.30541052170075E-3</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <v>14.999283119999999</v>
       </c>
       <c r="I32">
@@ -42757,7 +42741,7 @@
       <c r="O32">
         <v>1.7177384679930199E-3</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="10">
         <v>14.9918493599999</v>
       </c>
       <c r="R32">
@@ -42780,7 +42764,7 @@
       <c r="F33">
         <v>1.0454414086051101E-3</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <v>14.998767040000001</v>
       </c>
       <c r="I33">
@@ -42798,7 +42782,7 @@
       <c r="O33">
         <v>2.3217503092519101E-3</v>
       </c>
-      <c r="Q33" s="11">
+      <c r="Q33" s="10">
         <v>14.995162599999899</v>
       </c>
       <c r="R33">
@@ -42821,7 +42805,7 @@
       <c r="F34">
         <v>0</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <v>14.995383479999999</v>
       </c>
       <c r="I34">
@@ -42839,7 +42823,7 @@
       <c r="O34">
         <v>2.56742830395042E-3</v>
       </c>
-      <c r="Q34" s="11">
+      <c r="Q34" s="10">
         <v>14.9971064</v>
       </c>
       <c r="R34">
@@ -42862,7 +42846,7 @@
       <c r="F35">
         <v>2.3535939773377699E-3</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <v>14.99762248</v>
       </c>
       <c r="I35">
@@ -42880,7 +42864,7 @@
       <c r="O35">
         <v>1.43173458638092E-3</v>
       </c>
-      <c r="Q35" s="11">
+      <c r="Q35" s="10">
         <v>14.996744959999999</v>
       </c>
       <c r="R35">
@@ -42903,7 +42887,7 @@
       <c r="F36">
         <v>1.7932623763866301E-3</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <v>14.999062239999899</v>
       </c>
       <c r="I36">
@@ -42921,15 +42905,15 @@
       <c r="O36">
         <v>2.9014777880489498E-3</v>
       </c>
-      <c r="Q36" s="11">
+      <c r="Q36" s="10">
         <v>14.99856024</v>
       </c>
       <c r="R36">
         <v>1.43968801020021E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="7">
@@ -42944,19 +42928,21 @@
         <f>(H26-U24)^2+(H29-U25)^2+(H32-U26)^2</f>
         <v>5.1532708193119898E-6</v>
       </c>
-      <c r="K38" s="13">
+      <c r="K38" s="12">
         <f>(K26-U24)^2+(K29-U25)^2+(K32-U26)^2</f>
         <v>2.3307340309917676E-5</v>
       </c>
-      <c r="N38" s="13">
+      <c r="N38" s="12">
         <f>(N26-U24)^2+(N29-U25)^2+(N32-U26)^2</f>
         <v>1.0973298550433898E-5</v>
       </c>
-      <c r="Q38" s="13">
+      <c r="Q38" s="12">
         <f>(Q26-U24)^2+(Q29-U25)^2+(Q32-U26)^2</f>
         <v>6.9879147320268424E-5</v>
       </c>
     </row>
+    <row r="39" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>46</v>
@@ -42983,7 +42969,7 @@
       <c r="F43">
         <v>4.2924597747752901E-3</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="9">
         <v>29.982698679999999</v>
       </c>
       <c r="I43">
@@ -43001,13 +42987,13 @@
       <c r="O43">
         <v>8.5445367087929897E-3</v>
       </c>
-      <c r="Q43" s="11">
+      <c r="Q43" s="10">
         <v>29.985501639999999</v>
       </c>
       <c r="R43">
         <v>5.30186673749265E-3</v>
       </c>
-      <c r="T43" s="12">
+      <c r="T43" s="11">
         <v>10</v>
       </c>
       <c r="U43">
@@ -43033,7 +43019,7 @@
       <c r="F44">
         <v>5.6516410151509003E-3</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="9">
         <v>29.97840544</v>
       </c>
       <c r="I44">
@@ -43051,13 +43037,13 @@
       <c r="O44">
         <v>4.7447935264783598E-3</v>
       </c>
-      <c r="Q44" s="11">
+      <c r="Q44" s="10">
         <v>29.97706398</v>
       </c>
       <c r="R44">
         <v>7.1870017375158498E-3</v>
       </c>
-      <c r="T44" s="12">
+      <c r="T44" s="11">
         <v>13</v>
       </c>
       <c r="U44">
@@ -43083,7 +43069,7 @@
       <c r="F45">
         <v>6.84201345878537E-3</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="9">
         <v>29.982541919999999</v>
       </c>
       <c r="I45">
@@ -43101,13 +43087,13 @@
       <c r="O45">
         <v>6.28625828181586E-3</v>
       </c>
-      <c r="Q45" s="11">
+      <c r="Q45" s="10">
         <v>29.975304979999901</v>
       </c>
       <c r="R45">
         <v>7.5114144940563602E-3</v>
       </c>
-      <c r="T45" s="12">
+      <c r="T45" s="11">
         <v>16</v>
       </c>
       <c r="U45">
@@ -43133,7 +43119,7 @@
       <c r="F46">
         <v>5.2388454069360801E-3</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="9">
         <v>29.97476284</v>
       </c>
       <c r="I46">
@@ -43151,7 +43137,7 @@
       <c r="O46">
         <v>8.2522498038141694E-3</v>
       </c>
-      <c r="Q46" s="11">
+      <c r="Q46" s="10">
         <v>29.986289020000001</v>
       </c>
       <c r="R46">
@@ -43174,7 +43160,7 @@
       <c r="F47">
         <v>5.6772466133165698E-3</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="9">
         <v>29.989562039999999</v>
       </c>
       <c r="I47">
@@ -43192,7 +43178,7 @@
       <c r="O47">
         <v>5.6559722237758498E-3</v>
       </c>
-      <c r="Q47" s="11">
+      <c r="Q47" s="10">
         <v>29.985871360000001</v>
       </c>
       <c r="R47">
@@ -43215,7 +43201,7 @@
       <c r="F48">
         <v>7.16203603553601E-3</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="9">
         <v>29.988867339999999</v>
       </c>
       <c r="I48">
@@ -43233,7 +43219,7 @@
       <c r="O48">
         <v>4.6931104578526797E-3</v>
       </c>
-      <c r="Q48" s="11">
+      <c r="Q48" s="10">
         <v>29.993955719999999</v>
       </c>
       <c r="R48">
@@ -43256,7 +43242,7 @@
       <c r="F49">
         <v>7.9423028784953806E-3</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="9">
         <v>29.98425284</v>
       </c>
       <c r="I49">
@@ -43274,7 +43260,7 @@
       <c r="O49">
         <v>6.44088104423657E-3</v>
       </c>
-      <c r="Q49" s="11">
+      <c r="Q49" s="10">
         <v>29.984272979999901</v>
       </c>
       <c r="R49">
@@ -43297,7 +43283,7 @@
       <c r="F50">
         <v>6.7366391984001496E-3</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="9">
         <v>29.983373239999999</v>
       </c>
       <c r="I50">
@@ -43315,7 +43301,7 @@
       <c r="O50">
         <v>7.071518143146E-3</v>
       </c>
-      <c r="Q50" s="11">
+      <c r="Q50" s="10">
         <v>29.9750239</v>
       </c>
       <c r="R50">
@@ -43338,7 +43324,7 @@
       <c r="F51">
         <v>6.5017179286560303E-3</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="9">
         <v>29.99512022</v>
       </c>
       <c r="I51">
@@ -43356,7 +43342,7 @@
       <c r="O51">
         <v>5.3340975722069401E-3</v>
       </c>
-      <c r="Q51" s="11">
+      <c r="Q51" s="10">
         <v>29.987409379999999</v>
       </c>
       <c r="R51">
@@ -43379,7 +43365,7 @@
       <c r="F52">
         <v>5.3063219770500096E-3</v>
       </c>
-      <c r="H52" s="10">
+      <c r="H52" s="9">
         <v>29.96756972</v>
       </c>
       <c r="I52">
@@ -43397,7 +43383,7 @@
       <c r="O52">
         <v>5.86980677115744E-3</v>
       </c>
-      <c r="Q52" s="11">
+      <c r="Q52" s="10">
         <v>29.99179092</v>
       </c>
       <c r="R52">
@@ -43420,7 +43406,7 @@
       <c r="F53">
         <v>5.3256828699454603E-3</v>
       </c>
-      <c r="H53" s="10">
+      <c r="H53" s="9">
         <v>29.986296759999998</v>
       </c>
       <c r="I53">
@@ -43438,7 +43424,7 @@
       <c r="O53">
         <v>6.4086779401344102E-3</v>
       </c>
-      <c r="Q53" s="11">
+      <c r="Q53" s="10">
         <v>29.98352586</v>
       </c>
       <c r="R53">
@@ -43461,7 +43447,7 @@
       <c r="F54">
         <v>5.1984219078077499E-3</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="9">
         <v>29.989999900000001</v>
       </c>
       <c r="I54">
@@ -43479,7 +43465,7 @@
       <c r="O54">
         <v>8.2816987681936394E-3</v>
       </c>
-      <c r="Q54" s="11">
+      <c r="Q54" s="10">
         <v>29.993907400000001</v>
       </c>
       <c r="R54">
@@ -43502,7 +43488,7 @@
       <c r="F55">
         <v>3.3251389367560001E-3</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="9">
         <v>29.991931619999999</v>
       </c>
       <c r="I55">
@@ -43520,22 +43506,22 @@
       <c r="O55">
         <v>1.1364955627978899E-2</v>
       </c>
-      <c r="Q55" s="11">
+      <c r="Q55" s="10">
         <v>29.977835119999899</v>
       </c>
       <c r="R55">
         <v>6.8688674265746704E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+    <row r="57" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="7">
         <f>(B45-U43)^2+(B48-U44)^2+(B51-U45)^2</f>
         <v>8.3818658444728038E-5</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <f>(E45-U43)^2+(E48-U44)^2+(E51-U45)^2</f>
         <v>3.4674539931160264E-4</v>
       </c>
@@ -43543,19 +43529,22 @@
         <f>(H45-U43)^2+(H48-U44)^2+(H51-U45)^2</f>
         <v>3.519496863161623E-5</v>
       </c>
-      <c r="K57" s="13">
+      <c r="K57" s="12">
         <f>(K45-U43)^2+(K48-U44)^2+(K51-U45)^2</f>
         <v>2.3568143961978893E-4</v>
       </c>
-      <c r="N57" s="14">
+      <c r="N57" s="5">
         <f>(N45-U43)^2+(N48-U44)^2+(N51-U45)^2</f>
         <v>6.7494648160023403E-5</v>
       </c>
-      <c r="Q57" s="13">
+      <c r="Q57" s="12">
         <f>(Q45-U43)^2+(Q48-U44)^2+(Q51-U45)^2</f>
         <v>9.0327877458690076E-5</v>
       </c>
     </row>
+    <row r="58" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>53</v>
@@ -43582,7 +43571,7 @@
       <c r="F63">
         <v>1.6748026371265001E-2</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="9">
         <v>49.935340619999998</v>
       </c>
       <c r="I63">
@@ -43600,13 +43589,13 @@
       <c r="O63">
         <v>1.7657852209708301E-2</v>
       </c>
-      <c r="Q63" s="11">
+      <c r="Q63" s="10">
         <v>49.895059199999999</v>
       </c>
       <c r="R63">
         <v>1.9615734531827599E-2</v>
       </c>
-      <c r="T63" s="12">
+      <c r="T63" s="11">
         <v>10</v>
       </c>
       <c r="U63">
@@ -43632,7 +43621,7 @@
       <c r="F64">
         <v>1.6459611809930899E-2</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="9">
         <v>49.940340720000002</v>
       </c>
       <c r="I64">
@@ -43650,13 +43639,13 @@
       <c r="O64">
         <v>1.45903922111603E-2</v>
       </c>
-      <c r="Q64" s="11">
+      <c r="Q64" s="10">
         <v>49.896866660000001</v>
       </c>
       <c r="R64">
         <v>1.9460374807943499E-2</v>
       </c>
-      <c r="T64" s="12">
+      <c r="T64" s="11">
         <v>13</v>
       </c>
       <c r="U64">
@@ -43682,7 +43671,7 @@
       <c r="F65">
         <v>1.72942183506627E-2</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="9">
         <v>49.9371078</v>
       </c>
       <c r="I65">
@@ -43700,13 +43689,13 @@
       <c r="O65">
         <v>1.43474255488922E-2</v>
       </c>
-      <c r="Q65" s="11">
+      <c r="Q65" s="10">
         <v>49.92779006</v>
       </c>
       <c r="R65">
         <v>1.5976031677563701E-2</v>
       </c>
-      <c r="T65" s="12">
+      <c r="T65" s="11">
         <v>16</v>
       </c>
       <c r="U65">
@@ -43732,7 +43721,7 @@
       <c r="F66">
         <v>1.6462640275007299E-2</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="9">
         <v>49.911284100000003</v>
       </c>
       <c r="I66">
@@ -43750,7 +43739,7 @@
       <c r="O66">
         <v>1.0039468054739899E-2</v>
       </c>
-      <c r="Q66" s="11">
+      <c r="Q66" s="10">
         <v>49.923432419999997</v>
       </c>
       <c r="R66">
@@ -43773,7 +43762,7 @@
       <c r="F67">
         <v>1.8018602814708899E-2</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="9">
         <v>49.922809899999997</v>
       </c>
       <c r="I67">
@@ -43791,7 +43780,7 @@
       <c r="O67">
         <v>1.94818778641099E-2</v>
       </c>
-      <c r="Q67" s="11">
+      <c r="Q67" s="10">
         <v>49.96118396</v>
       </c>
       <c r="R67">
@@ -43814,7 +43803,7 @@
       <c r="F68">
         <v>1.8497189373146702E-2</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="9">
         <v>49.968131879999902</v>
       </c>
       <c r="I68">
@@ -43832,7 +43821,7 @@
       <c r="O68">
         <v>1.53471095415856E-2</v>
       </c>
-      <c r="Q68" s="11">
+      <c r="Q68" s="10">
         <v>49.96417606</v>
       </c>
       <c r="R68">
@@ -43855,7 +43844,7 @@
       <c r="F69">
         <v>1.58272408098371E-2</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="9">
         <v>49.950260579999998</v>
       </c>
       <c r="I69">
@@ -43873,7 +43862,7 @@
       <c r="O69">
         <v>1.8055456760774701E-2</v>
       </c>
-      <c r="Q69" s="11">
+      <c r="Q69" s="10">
         <v>49.937629379999997</v>
       </c>
       <c r="R69">
@@ -43896,7 +43885,7 @@
       <c r="F70">
         <v>1.30583371571639E-2</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="9">
         <v>49.967147799999999</v>
       </c>
       <c r="I70">
@@ -43914,7 +43903,7 @@
       <c r="O70">
         <v>1.46242562761564E-2</v>
       </c>
-      <c r="Q70" s="11">
+      <c r="Q70" s="10">
         <v>49.914015319999997</v>
       </c>
       <c r="R70">
@@ -43937,7 +43926,7 @@
       <c r="F71">
         <v>1.5851279794463401E-2</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="9">
         <v>49.952268299999901</v>
       </c>
       <c r="I71">
@@ -43955,7 +43944,7 @@
       <c r="O71">
         <v>1.57515848462026E-2</v>
       </c>
-      <c r="Q71" s="11">
+      <c r="Q71" s="10">
         <v>49.93329198</v>
       </c>
       <c r="R71">
@@ -43978,7 +43967,7 @@
       <c r="F72">
         <v>1.62655489585803E-2</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="9">
         <v>49.936966399999903</v>
       </c>
       <c r="I72">
@@ -43996,7 +43985,7 @@
       <c r="O72">
         <v>1.45032525122211E-2</v>
       </c>
-      <c r="Q72" s="11">
+      <c r="Q72" s="10">
         <v>49.930480599999903</v>
       </c>
       <c r="R72">
@@ -44019,7 +44008,7 @@
       <c r="F73">
         <v>1.4878175701865099E-2</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="9">
         <v>49.926003199999997</v>
       </c>
       <c r="I73">
@@ -44037,7 +44026,7 @@
       <c r="O73">
         <v>1.36728429937879E-2</v>
       </c>
-      <c r="Q73" s="11">
+      <c r="Q73" s="10">
         <v>49.921665640000001</v>
       </c>
       <c r="R73">
@@ -44060,7 +44049,7 @@
       <c r="F74">
         <v>1.3256774327434599E-2</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="9">
         <v>49.948633479999998</v>
       </c>
       <c r="I74">
@@ -44078,7 +44067,7 @@
       <c r="O74">
         <v>1.7168131950329901E-2</v>
       </c>
-      <c r="Q74" s="11">
+      <c r="Q74" s="10">
         <v>49.958774179999999</v>
       </c>
       <c r="R74">
@@ -44101,7 +44090,7 @@
       <c r="F75">
         <v>1.2390923093409299E-2</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="9">
         <v>49.93150498</v>
       </c>
       <c r="I75">
@@ -44119,22 +44108,23 @@
       <c r="O75">
         <v>2.0464484404738598E-2</v>
       </c>
-      <c r="Q75" s="11">
+      <c r="Q75" s="10">
         <v>49.93989878</v>
       </c>
       <c r="R75">
         <v>1.4280970595889101E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="13" t="s">
+    <row r="76" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B77" s="13">
+      <c r="B77" s="12">
         <f>(B65-U63)^2+(B68-U64)^2+(B71-U65)^2</f>
         <v>1.579502531287612E-3</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="12">
         <f>(E65-U63)^2+(E68-U64)^2+(E71-U65)^2</f>
         <v>1.6179275991945897E-3</v>
       </c>
@@ -44150,20 +44140,21 @@
         <f>(N65-U63)^2+(N68-U64)^2+(N71-U65)^2</f>
         <v>7.5777916528576975E-4</v>
       </c>
-      <c r="Q77" s="13">
+      <c r="Q77" s="12">
         <f>(Q65-U63)^2+(Q68-U64)^2+(Q71-U65)^2</f>
         <v>1.7714690839903571E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
+    <row r="78" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B79" s="9">
+      <c r="B79">
         <f>B77+B57+B38+B19</f>
         <v>1.6730433908941271E-3</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79">
         <f>E77+E57+E38+E19</f>
         <v>1.9707012641452504E-3</v>
       </c>
@@ -44179,11 +44170,15 @@
         <f>N77+N57+N38+N19</f>
         <v>8.362471119962271E-4</v>
       </c>
-      <c r="Q79" s="9">
+      <c r="Q79">
         <f>Q77+Q57+Q38+Q19</f>
         <v>1.9316761087693156E-3</v>
       </c>
-    </row>
+      <c r="T79"/>
+    </row>
+    <row r="80" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="83" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>20</v>
@@ -44210,7 +44205,7 @@
       <c r="F85">
         <v>5.6497705443794503E-2</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="9">
         <v>99.51890976</v>
       </c>
       <c r="I85">
@@ -44228,13 +44223,13 @@
       <c r="O85">
         <v>6.5556959976558804E-2</v>
       </c>
-      <c r="Q85" s="11">
+      <c r="Q85" s="10">
         <v>99.508527139999998</v>
       </c>
       <c r="R85">
         <v>5.9800243844565899E-2</v>
       </c>
-      <c r="T85" s="12">
+      <c r="T85" s="11">
         <v>10</v>
       </c>
       <c r="U85">
@@ -44260,7 +44255,7 @@
       <c r="F86">
         <v>6.0027762081686198E-2</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="9">
         <v>99.479229759999996</v>
       </c>
       <c r="I86">
@@ -44278,13 +44273,13 @@
       <c r="O86">
         <v>6.8442249899599003E-2</v>
       </c>
-      <c r="Q86" s="11">
+      <c r="Q86" s="10">
         <v>99.455032459999998</v>
       </c>
       <c r="R86">
         <v>6.2118869892049997E-2</v>
       </c>
-      <c r="T86" s="12">
+      <c r="T86" s="11">
         <v>13</v>
       </c>
       <c r="U86">
@@ -44310,7 +44305,7 @@
       <c r="F87">
         <v>6.1572896584724202E-2</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="9">
         <v>99.486478120000001</v>
       </c>
       <c r="I87">
@@ -44328,13 +44323,13 @@
       <c r="O87">
         <v>6.2923819594987399E-2</v>
       </c>
-      <c r="Q87" s="11">
+      <c r="Q87" s="10">
         <v>99.51045508</v>
       </c>
       <c r="R87">
         <v>5.9729733205757897E-2</v>
       </c>
-      <c r="T87" s="12">
+      <c r="T87" s="11">
         <v>16</v>
       </c>
       <c r="U87">
@@ -44360,7 +44355,7 @@
       <c r="F88">
         <v>6.3936871681186003E-2</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="9">
         <v>99.406077739999901</v>
       </c>
       <c r="I88">
@@ -44378,7 +44373,7 @@
       <c r="O88">
         <v>6.6767866459016195E-2</v>
       </c>
-      <c r="Q88" s="11">
+      <c r="Q88" s="10">
         <v>99.536017000000001</v>
       </c>
       <c r="R88">
@@ -44401,7 +44396,7 @@
       <c r="F89">
         <v>5.6438549298999802E-2</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="9">
         <v>99.435894259999998</v>
       </c>
       <c r="I89">
@@ -44419,7 +44414,7 @@
       <c r="O89">
         <v>5.09136013722832E-2</v>
       </c>
-      <c r="Q89" s="11">
+      <c r="Q89" s="10">
         <v>99.546458360000003</v>
       </c>
       <c r="R89">
@@ -44442,7 +44437,7 @@
       <c r="F90">
         <v>5.6873876209634099E-2</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="9">
         <v>99.536499159999906</v>
       </c>
       <c r="I90">
@@ -44460,7 +44455,7 @@
       <c r="O90">
         <v>5.3975802494840998E-2</v>
       </c>
-      <c r="Q90" s="11">
+      <c r="Q90" s="10">
         <v>99.531940199999994</v>
       </c>
       <c r="R90">
@@ -44483,7 +44478,7 @@
       <c r="F91">
         <v>4.9647417321470003E-2</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="9">
         <v>99.572181999999998</v>
       </c>
       <c r="I91">
@@ -44501,7 +44496,7 @@
       <c r="O91">
         <v>5.0979001745143901E-2</v>
       </c>
-      <c r="Q91" s="11">
+      <c r="Q91" s="10">
         <v>99.476095920000006</v>
       </c>
       <c r="R91">
@@ -44524,7 +44519,7 @@
       <c r="F92">
         <v>4.6972872332527997E-2</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="9">
         <v>99.565254879999998</v>
       </c>
       <c r="I92">
@@ -44542,7 +44537,7 @@
       <c r="O92">
         <v>5.8513951106753399E-2</v>
       </c>
-      <c r="Q92" s="11">
+      <c r="Q92" s="10">
         <v>99.587162579999998</v>
       </c>
       <c r="R92">
@@ -44565,7 +44560,7 @@
       <c r="F93">
         <v>5.9484692987107401E-2</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="9">
         <v>99.482925159999994</v>
       </c>
       <c r="I93">
@@ -44583,7 +44578,7 @@
       <c r="O93">
         <v>5.8835971895315503E-2</v>
       </c>
-      <c r="Q93" s="11">
+      <c r="Q93" s="10">
         <v>99.409729639999995</v>
       </c>
       <c r="R93">
@@ -44606,7 +44601,7 @@
       <c r="F94">
         <v>4.7915996109480601E-2</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="9">
         <v>99.584994120000005</v>
       </c>
       <c r="I94">
@@ -44624,7 +44619,7 @@
       <c r="O94">
         <v>5.6189862237829603E-2</v>
       </c>
-      <c r="Q94" s="11">
+      <c r="Q94" s="10">
         <v>99.586761999999993</v>
       </c>
       <c r="R94">
@@ -44647,7 +44642,7 @@
       <c r="F95">
         <v>5.4374943425920599E-2</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="9">
         <v>99.521158380000003</v>
       </c>
       <c r="I95">
@@ -44665,7 +44660,7 @@
       <c r="O95">
         <v>5.5730920746248101E-2</v>
       </c>
-      <c r="Q95" s="11">
+      <c r="Q95" s="10">
         <v>99.640114019999999</v>
       </c>
       <c r="R95">
@@ -44688,7 +44683,7 @@
       <c r="F96">
         <v>5.9044795387961597E-2</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="9">
         <v>99.615897079999996</v>
       </c>
       <c r="I96">
@@ -44706,7 +44701,7 @@
       <c r="O96">
         <v>7.1096244665112607E-2</v>
       </c>
-      <c r="Q96" s="11">
+      <c r="Q96" s="10">
         <v>99.647544080000003</v>
       </c>
       <c r="R96">
@@ -44729,7 +44724,7 @@
       <c r="F97">
         <v>5.2903677336140001E-2</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="9">
         <v>99.560276180000002</v>
       </c>
       <c r="I97">
@@ -44747,18 +44742,18 @@
       <c r="O97">
         <v>7.8462824886393404E-2</v>
       </c>
-      <c r="Q97" s="11">
+      <c r="Q97" s="10">
         <v>99.688186479999899</v>
       </c>
       <c r="R97">
         <v>4.5775046531062298E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
+    <row r="99" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="12">
         <f>(B87-U85)^2+(B90-U86)^2+(B93-U87)^2</f>
         <v>3.0983391538275881E-2</v>
       </c>
@@ -44766,7 +44761,7 @@
         <f>(E87-U85)^2+(E90-U86)^2+(E93-U87)^2</f>
         <v>8.3652287736535533E-3</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99" s="12">
         <f>(H87-U85)^2+(H90-U86)^2+(H93-U87)^2</f>
         <v>1.2143107191800204E-2</v>
       </c>
@@ -44778,11 +44773,13 @@
         <f>(N87-U85)^2+(N90-U86)^2+(N93-U87)^2</f>
         <v>6.9137436323437867E-3</v>
       </c>
-      <c r="Q99" s="13">
+      <c r="Q99" s="12">
         <f>(Q87-U85)^2+(Q90-U86)^2+(Q93-U87)^2</f>
         <v>3.3318034697778103E-2</v>
       </c>
     </row>
+    <row r="100" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>34</v>
@@ -44809,7 +44806,7 @@
       <c r="F104">
         <v>0.133731880381698</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="9">
         <v>148.5186362</v>
       </c>
       <c r="I104">
@@ -44827,13 +44824,13 @@
       <c r="O104">
         <v>0.133738320487443</v>
       </c>
-      <c r="Q104" s="11">
+      <c r="Q104" s="10">
         <v>148.49550144</v>
       </c>
       <c r="R104">
         <v>0.12624975147794201</v>
       </c>
-      <c r="T104" s="12">
+      <c r="T104" s="11">
         <v>10</v>
       </c>
       <c r="U104">
@@ -44859,7 +44856,7 @@
       <c r="F105">
         <v>0.11885846306079501</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="9">
         <v>148.70285559999999</v>
       </c>
       <c r="I105">
@@ -44877,13 +44874,13 @@
       <c r="O105">
         <v>0.131352076771867</v>
       </c>
-      <c r="Q105" s="11">
+      <c r="Q105" s="10">
         <v>148.52873406000001</v>
       </c>
       <c r="R105">
         <v>0.12611141515792099</v>
       </c>
-      <c r="T105" s="12">
+      <c r="T105" s="11">
         <v>13</v>
       </c>
       <c r="U105">
@@ -44909,7 +44906,7 @@
       <c r="F106">
         <v>0.124312094532159</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="9">
         <v>148.63088008</v>
       </c>
       <c r="I106">
@@ -44927,13 +44924,13 @@
       <c r="O106">
         <v>0.127079523065318</v>
       </c>
-      <c r="Q106" s="11">
+      <c r="Q106" s="10">
         <v>148.64132448000001</v>
       </c>
       <c r="R106">
         <v>0.118907198155254</v>
       </c>
-      <c r="T106" s="12">
+      <c r="T106" s="11">
         <v>16</v>
       </c>
       <c r="U106">
@@ -44959,7 +44956,7 @@
       <c r="F107">
         <v>0.11737716891870301</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="9">
         <v>148.68568149999999</v>
       </c>
       <c r="I107">
@@ -44977,7 +44974,7 @@
       <c r="O107">
         <v>0.113378839076514</v>
       </c>
-      <c r="Q107" s="11">
+      <c r="Q107" s="10">
         <v>148.41334896000001</v>
       </c>
       <c r="R107">
@@ -45000,7 +44997,7 @@
       <c r="F108">
         <v>0.1219596057065</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="9">
         <v>148.62571724</v>
       </c>
       <c r="I108">
@@ -45018,7 +45015,7 @@
       <c r="O108">
         <v>0.113818859771739</v>
       </c>
-      <c r="Q108" s="11">
+      <c r="Q108" s="10">
         <v>148.66664753999899</v>
       </c>
       <c r="R108">
@@ -45041,7 +45038,7 @@
       <c r="F109">
         <v>0.116792663488977</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="9">
         <v>148.69734788</v>
       </c>
       <c r="I109">
@@ -45059,7 +45056,7 @@
       <c r="O109">
         <v>0.10655660692425301</v>
       </c>
-      <c r="Q109" s="11">
+      <c r="Q109" s="10">
         <v>148.62821217999999</v>
       </c>
       <c r="R109">
@@ -45082,7 +45079,7 @@
       <c r="F110">
         <v>0.112309825652516</v>
       </c>
-      <c r="H110" s="10">
+      <c r="H110" s="9">
         <v>148.85905611999999</v>
       </c>
       <c r="I110">
@@ -45100,7 +45097,7 @@
       <c r="O110">
         <v>0.11661559097108801</v>
       </c>
-      <c r="Q110" s="11">
+      <c r="Q110" s="10">
         <v>148.74526487999901</v>
       </c>
       <c r="R110">
@@ -45123,7 +45120,7 @@
       <c r="F111">
         <v>0.105394678397827</v>
       </c>
-      <c r="H111" s="10">
+      <c r="H111" s="9">
         <v>148.62094206</v>
       </c>
       <c r="I111">
@@ -45141,7 +45138,7 @@
       <c r="O111">
         <v>0.10984733884808701</v>
       </c>
-      <c r="Q111" s="11">
+      <c r="Q111" s="10">
         <v>148.76811803999999</v>
       </c>
       <c r="R111">
@@ -45164,7 +45161,7 @@
       <c r="F112">
         <v>0.10896211131134</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="9">
         <v>148.71405808</v>
       </c>
       <c r="I112">
@@ -45182,7 +45179,7 @@
       <c r="O112">
         <v>0.114736358967094</v>
       </c>
-      <c r="Q112" s="11">
+      <c r="Q112" s="10">
         <v>148.75205079999901</v>
       </c>
       <c r="R112">
@@ -45205,7 +45202,7 @@
       <c r="F113">
         <v>0.108206631893724</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="9">
         <v>148.82727556</v>
       </c>
       <c r="I113">
@@ -45223,7 +45220,7 @@
       <c r="O113">
         <v>0.111188822638792</v>
       </c>
-      <c r="Q113" s="11">
+      <c r="Q113" s="10">
         <v>148.82695009999901</v>
       </c>
       <c r="R113">
@@ -45246,7 +45243,7 @@
       <c r="F114">
         <v>0.10416688679878</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="9">
         <v>148.96548418</v>
       </c>
       <c r="I114">
@@ -45264,7 +45261,7 @@
       <c r="O114">
         <v>0.121418439295138</v>
       </c>
-      <c r="Q114" s="11">
+      <c r="Q114" s="10">
         <v>149.03323412</v>
       </c>
       <c r="R114">
@@ -45287,7 +45284,7 @@
       <c r="F115">
         <v>0.109375025732806</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="9">
         <v>148.63965454000001</v>
       </c>
       <c r="I115">
@@ -45305,7 +45302,7 @@
       <c r="O115">
         <v>0.14367836129912301</v>
       </c>
-      <c r="Q115" s="11">
+      <c r="Q115" s="10">
         <v>148.93602799999999</v>
       </c>
       <c r="R115">
@@ -45328,7 +45325,7 @@
       <c r="F116">
         <v>0.123039579293866</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="9">
         <v>149.04582350000001</v>
       </c>
       <c r="I116">
@@ -45346,22 +45343,22 @@
       <c r="O116">
         <v>0.14383285898333301</v>
       </c>
-      <c r="Q116" s="11">
+      <c r="Q116" s="10">
         <v>148.87419986</v>
       </c>
       <c r="R116">
         <v>0.10796293895336601</v>
       </c>
     </row>
-    <row r="118" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
+    <row r="118" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="12">
         <f>(B106-U104)^2+(B109-U105)^2+(B112-U106)^2</f>
         <v>7.1880147067744996E-2</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="12">
         <f>(E106-U104)^2+(E109-U105)^2+(E112-U106)^2</f>
         <v>5.6349414448547797E-2</v>
       </c>
@@ -45373,7 +45370,7 @@
         <f>(K106-U104)^2+(K109-U105)^2+(K112-U106)^2</f>
         <v>1.8837369598677725E-2</v>
       </c>
-      <c r="N118" s="13">
+      <c r="N118" s="12">
         <f>(N106-U104)^2+(N109-U105)^2+(N112-U106)^2</f>
         <v>5.4342156185613243E-2</v>
       </c>
@@ -45382,6 +45379,8 @@
         <v>1.6131502935877604E-2</v>
       </c>
     </row>
+    <row r="119" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="121" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>55</v>
@@ -45408,7 +45407,7 @@
       <c r="F123">
         <v>0.21135399980936401</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="9">
         <v>196.37477014000001</v>
       </c>
       <c r="I123">
@@ -45426,13 +45425,13 @@
       <c r="O123">
         <v>0.22512465023943301</v>
       </c>
-      <c r="Q123" s="11">
+      <c r="Q123" s="10">
         <v>196.81252348000001</v>
       </c>
       <c r="R123">
         <v>0.20919309073115</v>
       </c>
-      <c r="T123" s="12">
+      <c r="T123" s="11">
         <v>10</v>
       </c>
       <c r="U123">
@@ -45458,7 +45457,7 @@
       <c r="F124">
         <v>0.20908494053146401</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="9">
         <v>196.67828456000001</v>
       </c>
       <c r="I124">
@@ -45476,13 +45475,13 @@
       <c r="O124">
         <v>0.203168149255814</v>
       </c>
-      <c r="Q124" s="11">
+      <c r="Q124" s="10">
         <v>196.9744006</v>
       </c>
       <c r="R124">
         <v>0.20610338164345901</v>
       </c>
-      <c r="T124" s="12">
+      <c r="T124" s="11">
         <v>13</v>
       </c>
       <c r="U124">
@@ -45508,7 +45507,7 @@
       <c r="F125">
         <v>0.198746788385746</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="9">
         <v>197.065450099999</v>
       </c>
       <c r="I125">
@@ -45526,13 +45525,13 @@
       <c r="O125">
         <v>0.206206094480023</v>
       </c>
-      <c r="Q125" s="11">
+      <c r="Q125" s="10">
         <v>197.07553364</v>
       </c>
       <c r="R125">
         <v>0.20108614259059701</v>
       </c>
-      <c r="T125" s="12">
+      <c r="T125" s="11">
         <v>16</v>
       </c>
       <c r="U125">
@@ -45558,7 +45557,7 @@
       <c r="F126">
         <v>0.20174774995268799</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="9">
         <v>196.77051598</v>
       </c>
       <c r="I126">
@@ -45576,7 +45575,7 @@
       <c r="O126">
         <v>0.19735925264131801</v>
       </c>
-      <c r="Q126" s="11">
+      <c r="Q126" s="10">
         <v>197.27075517999901</v>
       </c>
       <c r="R126">
@@ -45599,7 +45598,7 @@
       <c r="F127">
         <v>0.189237506018642</v>
       </c>
-      <c r="H127" s="10">
+      <c r="H127" s="9">
         <v>197.28387115999999</v>
       </c>
       <c r="I127">
@@ -45617,7 +45616,7 @@
       <c r="O127">
         <v>0.20724351022092599</v>
       </c>
-      <c r="Q127" s="11">
+      <c r="Q127" s="10">
         <v>197.23448646</v>
       </c>
       <c r="R127">
@@ -45640,7 +45639,7 @@
       <c r="F128">
         <v>0.19543054389065001</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="9">
         <v>197.09772135999901</v>
       </c>
       <c r="I128">
@@ -45658,7 +45657,7 @@
       <c r="O128">
         <v>0.19457626001369899</v>
       </c>
-      <c r="Q128" s="11">
+      <c r="Q128" s="10">
         <v>196.74989245999899</v>
       </c>
       <c r="R128">
@@ -45681,7 +45680,7 @@
       <c r="F129">
         <v>0.199746990135518</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="9">
         <v>197.31294506</v>
       </c>
       <c r="I129">
@@ -45699,7 +45698,7 @@
       <c r="O129">
         <v>0.192396937974251</v>
       </c>
-      <c r="Q129" s="11">
+      <c r="Q129" s="10">
         <v>197.38137465999901</v>
       </c>
       <c r="R129">
@@ -45722,7 +45721,7 @@
       <c r="F130">
         <v>0.190804728982675</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="9">
         <v>197.43395179999999</v>
       </c>
       <c r="I130">
@@ -45740,7 +45739,7 @@
       <c r="O130">
         <v>0.18901813669362999</v>
       </c>
-      <c r="Q130" s="11">
+      <c r="Q130" s="10">
         <v>197.27021643999899</v>
       </c>
       <c r="R130">
@@ -45763,7 +45762,7 @@
       <c r="F131">
         <v>0.184769523879275</v>
       </c>
-      <c r="H131" s="10">
+      <c r="H131" s="9">
         <v>197.53961387999999</v>
       </c>
       <c r="I131">
@@ -45781,7 +45780,7 @@
       <c r="O131">
         <v>0.18268457681157199</v>
       </c>
-      <c r="Q131" s="11">
+      <c r="Q131" s="10">
         <v>197.57008458000001</v>
       </c>
       <c r="R131">
@@ -45804,7 +45803,7 @@
       <c r="F132">
         <v>0.18268443471207199</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="9">
         <v>197.48927993999999</v>
       </c>
       <c r="I132">
@@ -45822,7 +45821,7 @@
       <c r="O132">
         <v>0.19446003707054099</v>
       </c>
-      <c r="Q132" s="11">
+      <c r="Q132" s="10">
         <v>197.44124531999901</v>
       </c>
       <c r="R132">
@@ -45845,7 +45844,7 @@
       <c r="F133">
         <v>0.17746082532374599</v>
       </c>
-      <c r="H133" s="10">
+      <c r="H133" s="9">
         <v>197.76005085999901</v>
       </c>
       <c r="I133">
@@ -45863,7 +45862,7 @@
       <c r="O133">
         <v>0.19957064809549599</v>
       </c>
-      <c r="Q133" s="11">
+      <c r="Q133" s="10">
         <v>197.53955621999901</v>
       </c>
       <c r="R133">
@@ -45886,7 +45885,7 @@
       <c r="F134">
         <v>0.18541307310974001</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="9">
         <v>197.78412878</v>
       </c>
       <c r="I134">
@@ -45904,7 +45903,7 @@
       <c r="O134">
         <v>0.214612879052026</v>
       </c>
-      <c r="Q134" s="11">
+      <c r="Q134" s="10">
         <v>197.64166774</v>
       </c>
       <c r="R134">
@@ -45927,7 +45926,7 @@
       <c r="F135">
         <v>0.16955076924274401</v>
       </c>
-      <c r="H135" s="10">
+      <c r="H135" s="9">
         <v>197.66088092000001</v>
       </c>
       <c r="I135">
@@ -45945,15 +45944,15 @@
       <c r="O135">
         <v>0.246268618727738</v>
       </c>
-      <c r="Q135" s="11">
+      <c r="Q135" s="10">
         <v>198.02656723999999</v>
       </c>
       <c r="R135">
         <v>0.16205073890237401</v>
       </c>
     </row>
-    <row r="137" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
+    <row r="137" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B137" s="7">
@@ -45968,24 +45967,25 @@
         <f>(H125-U123)^2+(H128-U124)^2+(H131-U125)^2</f>
         <v>2.2330228630850046E-2</v>
       </c>
-      <c r="K137" s="13">
+      <c r="K137" s="12">
         <f>(K125-U123)^2+(K128-U124)^2+(K131-U125)^2</f>
         <v>9.2030385847409912E-2</v>
       </c>
-      <c r="N137" s="13">
+      <c r="N137" s="12">
         <f>(N125-U123)^2+(N128-U124)^2+(N131-U125)^2</f>
         <v>0.10232661509858328</v>
       </c>
-      <c r="Q137" s="13">
+      <c r="Q137" s="12">
         <f>(Q125-U123)^2+(Q128-U124)^2+(Q131-U125)^2</f>
         <v>0.18753036442416113</v>
       </c>
     </row>
-    <row r="139" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="11" t="s">
+    <row r="138" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B139" s="9">
+      <c r="B139">
         <f>B137+B118+B99+B77</f>
         <v>0.14760241072470806</v>
       </c>
@@ -46001,15 +46001,18 @@
         <f>K137+K118+K99+K77</f>
         <v>0.12115428553095581</v>
       </c>
-      <c r="N139" s="9">
+      <c r="N139">
         <f>N137+N118+N99+N77</f>
         <v>0.16434029408182607</v>
       </c>
-      <c r="Q139" s="9">
+      <c r="Q139">
         <f>Q137+Q118+Q99+Q77</f>
         <v>0.23875137114180719</v>
       </c>
-    </row>
+      <c r="T139"/>
+    </row>
+    <row r="140" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>56</v>
@@ -46036,7 +46039,7 @@
       <c r="F144">
         <v>1.28446214876677</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="9">
         <v>555.06470719999902</v>
       </c>
       <c r="I144">
@@ -46054,13 +46057,13 @@
       <c r="O144">
         <v>1.3022020817490101</v>
       </c>
-      <c r="Q144" s="11">
+      <c r="Q144" s="10">
         <v>554.79401380000002</v>
       </c>
       <c r="R144">
         <v>1.3031045419431599</v>
       </c>
-      <c r="T144" s="12">
+      <c r="T144" s="11">
         <v>10</v>
       </c>
       <c r="U144">
@@ -46086,7 +46089,7 @@
       <c r="F145">
         <v>1.27869208978917</v>
       </c>
-      <c r="H145" s="10">
+      <c r="H145" s="9">
         <v>555.68567959999996</v>
       </c>
       <c r="I145">
@@ -46104,13 +46107,13 @@
       <c r="O145">
         <v>1.3425538624292599</v>
       </c>
-      <c r="Q145" s="11">
+      <c r="Q145" s="10">
         <v>557.73609439999996</v>
       </c>
       <c r="R145">
         <v>1.25807035318767</v>
       </c>
-      <c r="T145" s="12">
+      <c r="T145" s="11">
         <v>13</v>
       </c>
       <c r="U145">
@@ -46136,7 +46139,7 @@
       <c r="F146">
         <v>1.2509004474918399</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="9">
         <v>558.98406850000003</v>
       </c>
       <c r="I146">
@@ -46154,13 +46157,13 @@
       <c r="O146">
         <v>1.2419011795346899</v>
       </c>
-      <c r="Q146" s="11">
+      <c r="Q146" s="10">
         <v>559.40851889999999</v>
       </c>
       <c r="R146">
         <v>1.2470310157029301</v>
       </c>
-      <c r="T146" s="12">
+      <c r="T146" s="11">
         <v>16</v>
       </c>
       <c r="U146">
@@ -46186,7 +46189,7 @@
       <c r="F147">
         <v>1.2289422512122401</v>
       </c>
-      <c r="H147" s="10">
+      <c r="H147" s="9">
         <v>557.45973879999997</v>
       </c>
       <c r="I147">
@@ -46204,7 +46207,7 @@
       <c r="O147">
         <v>1.23621289463684</v>
       </c>
-      <c r="Q147" s="11">
+      <c r="Q147" s="10">
         <v>559.61501250000003</v>
       </c>
       <c r="R147">
@@ -46227,7 +46230,7 @@
       <c r="F148">
         <v>1.2462960543172701</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="9">
         <v>559.04584279999995</v>
       </c>
       <c r="I148">
@@ -46245,7 +46248,7 @@
       <c r="O148">
         <v>1.2478937847523299</v>
       </c>
-      <c r="Q148" s="11">
+      <c r="Q148" s="10">
         <v>560.33205699999996</v>
       </c>
       <c r="R148">
@@ -46268,7 +46271,7 @@
       <c r="F149">
         <v>1.16781124802031</v>
       </c>
-      <c r="H149" s="10">
+      <c r="H149" s="9">
         <v>561.00546439999903</v>
       </c>
       <c r="I149">
@@ -46286,7 +46289,7 @@
       <c r="O149">
         <v>1.2295904071797601</v>
       </c>
-      <c r="Q149" s="11">
+      <c r="Q149" s="10">
         <v>563.4587798</v>
       </c>
       <c r="R149">
@@ -46309,7 +46312,7 @@
       <c r="F150">
         <v>1.2035013521873801</v>
       </c>
-      <c r="H150" s="10">
+      <c r="H150" s="9">
         <v>560.89442250000002</v>
       </c>
       <c r="I150">
@@ -46327,7 +46330,7 @@
       <c r="O150">
         <v>1.1867579891476501</v>
       </c>
-      <c r="Q150" s="11">
+      <c r="Q150" s="10">
         <v>558.94178929999896</v>
       </c>
       <c r="R150">
@@ -46350,7 +46353,7 @@
       <c r="F151">
         <v>1.2137010656051199</v>
       </c>
-      <c r="H151" s="10">
+      <c r="H151" s="9">
         <v>562.38038010000002</v>
       </c>
       <c r="I151">
@@ -46368,7 +46371,7 @@
       <c r="O151">
         <v>1.1992797118085701</v>
       </c>
-      <c r="Q151" s="11">
+      <c r="Q151" s="10">
         <v>561.97902689999898</v>
       </c>
       <c r="R151">
@@ -46391,7 +46394,7 @@
       <c r="F152">
         <v>1.17534552406568</v>
       </c>
-      <c r="H152" s="10">
+      <c r="H152" s="9">
         <v>562.51736529999903</v>
       </c>
       <c r="I152">
@@ -46409,7 +46412,7 @@
       <c r="O152">
         <v>1.17994850708938</v>
       </c>
-      <c r="Q152" s="11">
+      <c r="Q152" s="10">
         <v>564.19312779999996</v>
       </c>
       <c r="R152">
@@ -46432,7 +46435,7 @@
       <c r="F153">
         <v>1.14932089526281</v>
       </c>
-      <c r="H153" s="10">
+      <c r="H153" s="9">
         <v>564.14238580000006</v>
       </c>
       <c r="I153">
@@ -46450,7 +46453,7 @@
       <c r="O153">
         <v>1.2098828063301501</v>
       </c>
-      <c r="Q153" s="11">
+      <c r="Q153" s="10">
         <v>563.24856880000004</v>
       </c>
       <c r="R153">
@@ -46473,7 +46476,7 @@
       <c r="F154">
         <v>1.11963774964818</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="9">
         <v>564.42089009999995</v>
       </c>
       <c r="I154">
@@ -46491,7 +46494,7 @@
       <c r="O154">
         <v>1.2180787090529801</v>
       </c>
-      <c r="Q154" s="11">
+      <c r="Q154" s="10">
         <v>565.4881676</v>
       </c>
       <c r="R154">
@@ -46514,7 +46517,7 @@
       <c r="F155">
         <v>1.1260009074783099</v>
       </c>
-      <c r="H155" s="10">
+      <c r="H155" s="9">
         <v>565.76467709999997</v>
       </c>
       <c r="I155">
@@ -46532,7 +46535,7 @@
       <c r="O155">
         <v>1.1488993403156</v>
       </c>
-      <c r="Q155" s="11">
+      <c r="Q155" s="10">
         <v>565.14471590000005</v>
       </c>
       <c r="R155">
@@ -46555,7 +46558,7 @@
       <c r="F156">
         <v>1.11727996204663</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="9">
         <v>567.06828919999998</v>
       </c>
       <c r="I156">
@@ -46573,22 +46576,22 @@
       <c r="O156">
         <v>1.1516275854812501</v>
       </c>
-      <c r="Q156" s="11">
+      <c r="Q156" s="10">
         <v>567.0697126</v>
       </c>
       <c r="R156">
         <v>1.12233034912459</v>
       </c>
     </row>
-    <row r="158" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="13" t="s">
+    <row r="158" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B158" s="13">
+      <c r="B158" s="12">
         <f>(B146-U144)^2+(B149-U145)^2+(B152-U146)^2</f>
         <v>13.084929741597483</v>
       </c>
-      <c r="E158" s="13">
+      <c r="E158" s="12">
         <f>(E146-U144)^2+(E149-U145)^2+(E152-U146)^2</f>
         <v>24.001354559515391</v>
       </c>
@@ -46604,11 +46607,13 @@
         <f>(N146-U144)^2+(N149-U145)^2+(N152-U146)^2</f>
         <v>4.354122900078643</v>
       </c>
-      <c r="Q158" s="13">
+      <c r="Q158" s="12">
         <f>(Q146-U144)^2+(Q149-U145)^2+(Q152-U146)^2</f>
         <v>17.892420790022094</v>
       </c>
     </row>
+    <row r="159" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="161" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>52</v>
@@ -46635,7 +46640,7 @@
       <c r="F163">
         <v>2.0025853933787299</v>
       </c>
-      <c r="H163" s="10">
+      <c r="H163" s="9">
         <v>712.95802070000002</v>
       </c>
       <c r="I163">
@@ -46653,13 +46658,13 @@
       <c r="O163">
         <v>2.03637068391724</v>
       </c>
-      <c r="Q163" s="11">
+      <c r="Q163" s="10">
         <v>711.53671510000004</v>
       </c>
       <c r="R163">
         <v>2.03958858111233</v>
       </c>
-      <c r="T163" s="12">
+      <c r="T163" s="11">
         <v>10</v>
       </c>
       <c r="U163">
@@ -46685,7 +46690,7 @@
       <c r="F164">
         <v>2.0155954408666301</v>
       </c>
-      <c r="H164" s="10">
+      <c r="H164" s="9">
         <v>715.64538500000003</v>
       </c>
       <c r="I164">
@@ -46703,13 +46708,13 @@
       <c r="O164">
         <v>2.04050807076454</v>
       </c>
-      <c r="Q164" s="11">
+      <c r="Q164" s="10">
         <v>718.89532119999899</v>
       </c>
       <c r="R164">
         <v>1.97189229082116</v>
       </c>
-      <c r="T164" s="12">
+      <c r="T164" s="11">
         <v>13</v>
       </c>
       <c r="U164">
@@ -46735,7 +46740,7 @@
       <c r="F165">
         <v>1.9399162810158099</v>
       </c>
-      <c r="H165" s="10">
+      <c r="H165" s="9">
         <v>719.10052789999997</v>
       </c>
       <c r="I165">
@@ -46753,13 +46758,13 @@
       <c r="O165">
         <v>1.9517926097237099</v>
       </c>
-      <c r="Q165" s="11">
+      <c r="Q165" s="10">
         <v>718.34225690000005</v>
       </c>
       <c r="R165">
         <v>1.9839562476424799</v>
       </c>
-      <c r="T165" s="12">
+      <c r="T165" s="11">
         <v>16</v>
       </c>
       <c r="U165">
@@ -46785,7 +46790,7 @@
       <c r="F166">
         <v>1.9171649727464199</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="9">
         <v>721.2327818</v>
       </c>
       <c r="I166">
@@ -46803,7 +46808,7 @@
       <c r="O166">
         <v>1.9066961499355399</v>
       </c>
-      <c r="Q166" s="11">
+      <c r="Q166" s="10">
         <v>721.54672649999998</v>
       </c>
       <c r="R166">
@@ -46826,7 +46831,7 @@
       <c r="F167">
         <v>1.8712428231357801</v>
       </c>
-      <c r="H167" s="10">
+      <c r="H167" s="9">
         <v>722.74968330000002</v>
       </c>
       <c r="I167">
@@ -46844,7 +46849,7 @@
       <c r="O167">
         <v>1.86615392210072</v>
       </c>
-      <c r="Q167" s="11">
+      <c r="Q167" s="10">
         <v>723.49127820000001</v>
       </c>
       <c r="R167">
@@ -46867,7 +46872,7 @@
       <c r="F168">
         <v>1.9398016949829799</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="9">
         <v>727.96656619999999</v>
       </c>
       <c r="I168">
@@ -46885,7 +46890,7 @@
       <c r="O168">
         <v>1.91303617580642</v>
       </c>
-      <c r="Q168" s="11">
+      <c r="Q168" s="10">
         <v>728.77012239999999</v>
       </c>
       <c r="R168">
@@ -46908,7 +46913,7 @@
       <c r="F169">
         <v>1.8746112260196801</v>
       </c>
-      <c r="H169" s="10">
+      <c r="H169" s="9">
         <v>729.07009540000001</v>
       </c>
       <c r="I169">
@@ -46926,7 +46931,7 @@
       <c r="O169">
         <v>1.8662016165040201</v>
       </c>
-      <c r="Q169" s="11">
+      <c r="Q169" s="10">
         <v>725.60558070000002</v>
       </c>
       <c r="R169">
@@ -46949,7 +46954,7 @@
       <c r="F170">
         <v>1.84768226519784</v>
       </c>
-      <c r="H170" s="10">
+      <c r="H170" s="9">
         <v>726.77796469999998</v>
       </c>
       <c r="I170">
@@ -46967,7 +46972,7 @@
       <c r="O170">
         <v>1.8539255609436101</v>
       </c>
-      <c r="Q170" s="11">
+      <c r="Q170" s="10">
         <v>727.75355109999998</v>
       </c>
       <c r="R170">
@@ -46990,7 +46995,7 @@
       <c r="F171">
         <v>1.82442606297921</v>
       </c>
-      <c r="H171" s="10">
+      <c r="H171" s="9">
         <v>730.61160700000005</v>
       </c>
       <c r="I171">
@@ -47008,7 +47013,7 @@
       <c r="O171">
         <v>1.79246836395482</v>
       </c>
-      <c r="Q171" s="11">
+      <c r="Q171" s="10">
         <v>733.70057559999998</v>
       </c>
       <c r="R171">
@@ -47031,7 +47036,7 @@
       <c r="F172">
         <v>1.8094646397259799</v>
       </c>
-      <c r="H172" s="10">
+      <c r="H172" s="9">
         <v>730.91055759999995</v>
       </c>
       <c r="I172">
@@ -47049,7 +47054,7 @@
       <c r="O172">
         <v>1.84386221290413</v>
       </c>
-      <c r="Q172" s="11">
+      <c r="Q172" s="10">
         <v>729.60105189999899</v>
       </c>
       <c r="R172">
@@ -47072,7 +47077,7 @@
       <c r="F173">
         <v>1.73476420654054</v>
       </c>
-      <c r="H173" s="10">
+      <c r="H173" s="9">
         <v>734.39322419999996</v>
       </c>
       <c r="I173">
@@ -47090,7 +47095,7 @@
       <c r="O173">
         <v>1.8080713752256301</v>
       </c>
-      <c r="Q173" s="11">
+      <c r="Q173" s="10">
         <v>735.15864769999996</v>
       </c>
       <c r="R173">
@@ -47113,7 +47118,7 @@
       <c r="F174">
         <v>1.7364792182914599</v>
       </c>
-      <c r="H174" s="10">
+      <c r="H174" s="9">
         <v>736.28426119999995</v>
       </c>
       <c r="I174">
@@ -47131,7 +47136,7 @@
       <c r="O174">
         <v>1.84945973153712</v>
       </c>
-      <c r="Q174" s="11">
+      <c r="Q174" s="10">
         <v>736.78777609999997</v>
       </c>
       <c r="R174">
@@ -47154,7 +47159,7 @@
       <c r="F175">
         <v>1.7433793717621799</v>
       </c>
-      <c r="H175" s="10">
+      <c r="H175" s="9">
         <v>734.96633459999998</v>
       </c>
       <c r="I175">
@@ -47172,22 +47177,22 @@
       <c r="O175">
         <v>1.8556252985403101</v>
       </c>
-      <c r="Q175" s="11">
+      <c r="Q175" s="10">
         <v>736.62381399999902</v>
       </c>
       <c r="R175">
         <v>1.75759999341937</v>
       </c>
     </row>
-    <row r="177" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="13" t="s">
+    <row r="177" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B177" s="5">
         <f>(B165-U163)^2+(B168-U164)^2+(B171-U165)^2</f>
         <v>11.624111097181336</v>
       </c>
-      <c r="E177" s="13">
+      <c r="E177" s="12">
         <f>(E165-U163)^2+(E168-U164)^2+(E171-U165)^2</f>
         <v>60.082468424965711</v>
       </c>
@@ -47199,15 +47204,17 @@
         <f>(K165-U163)^2+(K168-U164)^2+(K171-U165)^2</f>
         <v>0.22375810517175951</v>
       </c>
-      <c r="N177" s="13">
+      <c r="N177" s="12">
         <f>(N165-U163)^2+(N168-U164)^2+(N171-U165)^2</f>
         <v>40.093809778945015</v>
       </c>
-      <c r="Q177" s="13">
+      <c r="Q177" s="12">
         <f>(Q165-U163)^2+(Q168-U164)^2+(Q171-U165)^2</f>
         <v>34.218004759324117</v>
       </c>
     </row>
+    <row r="178" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="180" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>24</v>
@@ -47234,7 +47241,7 @@
       <c r="F182">
         <v>2.72336178723336</v>
       </c>
-      <c r="H182" s="10">
+      <c r="H182" s="9">
         <v>862.58844499999998</v>
       </c>
       <c r="I182">
@@ -47252,13 +47259,13 @@
       <c r="O182">
         <v>2.8526745282344899</v>
       </c>
-      <c r="Q182" s="11">
+      <c r="Q182" s="10">
         <v>856.94226439999898</v>
       </c>
       <c r="R182">
         <v>2.8142691153507302</v>
       </c>
-      <c r="T182" s="12">
+      <c r="T182" s="11">
         <v>10</v>
       </c>
       <c r="U182">
@@ -47284,7 +47291,7 @@
       <c r="F183">
         <v>2.7590774418155699</v>
       </c>
-      <c r="H183" s="10">
+      <c r="H183" s="9">
         <v>864.88308029999996</v>
       </c>
       <c r="I183">
@@ -47302,13 +47309,13 @@
       <c r="O183">
         <v>2.78928143012936</v>
       </c>
-      <c r="Q183" s="11">
+      <c r="Q183" s="10">
         <v>862.98934780000002</v>
       </c>
       <c r="R183">
         <v>2.7931859462872302</v>
       </c>
-      <c r="T183" s="12">
+      <c r="T183" s="11">
         <v>13</v>
       </c>
       <c r="U183">
@@ -47334,7 +47341,7 @@
       <c r="F184">
         <v>2.7339307796510299</v>
       </c>
-      <c r="H184" s="10">
+      <c r="H184" s="9">
         <v>867.68037159999994</v>
       </c>
       <c r="I184">
@@ -47352,13 +47359,13 @@
       <c r="O184">
         <v>2.6715547311476802</v>
       </c>
-      <c r="Q184" s="11">
+      <c r="Q184" s="10">
         <v>870.29702009999903</v>
       </c>
       <c r="R184">
         <v>2.7158782689367</v>
       </c>
-      <c r="T184" s="12">
+      <c r="T184" s="11">
         <v>16</v>
       </c>
       <c r="U184">
@@ -47384,7 +47391,7 @@
       <c r="F185">
         <v>2.66472323654915</v>
       </c>
-      <c r="H185" s="10">
+      <c r="H185" s="9">
         <v>866.89137800000003</v>
       </c>
       <c r="I185">
@@ -47402,7 +47409,7 @@
       <c r="O185">
         <v>2.7520378980548399</v>
       </c>
-      <c r="Q185" s="11">
+      <c r="Q185" s="10">
         <v>867.80813929999999</v>
       </c>
       <c r="R185">
@@ -47425,7 +47432,7 @@
       <c r="F186">
         <v>2.6592338170439498</v>
       </c>
-      <c r="H186" s="10">
+      <c r="H186" s="9">
         <v>869.94299990000002</v>
       </c>
       <c r="I186">
@@ -47443,7 +47450,7 @@
       <c r="O186">
         <v>2.6245450760125202</v>
       </c>
-      <c r="Q186" s="11">
+      <c r="Q186" s="10">
         <v>876.6248726</v>
       </c>
       <c r="R186">
@@ -47466,7 +47473,7 @@
       <c r="F187">
         <v>2.6242957033307199</v>
       </c>
-      <c r="H187" s="10">
+      <c r="H187" s="9">
         <v>878.09341730000006</v>
       </c>
       <c r="I187">
@@ -47484,7 +47491,7 @@
       <c r="O187">
         <v>2.6498383885087602</v>
       </c>
-      <c r="Q187" s="11">
+      <c r="Q187" s="10">
         <v>879.62002619999998</v>
       </c>
       <c r="R187">
@@ -47507,7 +47514,7 @@
       <c r="F188">
         <v>2.6286787239305101</v>
       </c>
-      <c r="H188" s="10">
+      <c r="H188" s="9">
         <v>877.23301619999904</v>
       </c>
       <c r="I188">
@@ -47525,7 +47532,7 @@
       <c r="O188">
         <v>2.5722206226720399</v>
       </c>
-      <c r="Q188" s="11">
+      <c r="Q188" s="10">
         <v>878.20461179999995</v>
       </c>
       <c r="R188">
@@ -47548,7 +47555,7 @@
       <c r="F189">
         <v>2.59652946138534</v>
       </c>
-      <c r="H189" s="10">
+      <c r="H189" s="9">
         <v>881.85830229999999</v>
       </c>
       <c r="I189">
@@ -47566,7 +47573,7 @@
       <c r="O189">
         <v>2.5465228467594399</v>
       </c>
-      <c r="Q189" s="11">
+      <c r="Q189" s="10">
         <v>879.51199020000001</v>
       </c>
       <c r="R189">
@@ -47589,7 +47596,7 @@
       <c r="F190">
         <v>2.55347284533471</v>
       </c>
-      <c r="H190" s="10">
+      <c r="H190" s="9">
         <v>887.63974140000005</v>
       </c>
       <c r="I190">
@@ -47607,7 +47614,7 @@
       <c r="O190">
         <v>2.6132759119786702</v>
       </c>
-      <c r="Q190" s="11">
+      <c r="Q190" s="10">
         <v>884.94320089999997</v>
       </c>
       <c r="R190">
@@ -47630,7 +47637,7 @@
       <c r="F191">
         <v>2.5165709461711301</v>
       </c>
-      <c r="H191" s="10">
+      <c r="H191" s="9">
         <v>887.25827900000002</v>
       </c>
       <c r="I191">
@@ -47648,7 +47655,7 @@
       <c r="O191">
         <v>2.5858921632259202</v>
       </c>
-      <c r="Q191" s="11">
+      <c r="Q191" s="10">
         <v>887.67068849999998</v>
       </c>
       <c r="R191">
@@ -47671,7 +47678,7 @@
       <c r="F192">
         <v>2.4429560659242999</v>
       </c>
-      <c r="H192" s="10">
+      <c r="H192" s="9">
         <v>890.99617839999996</v>
       </c>
       <c r="I192">
@@ -47689,7 +47696,7 @@
       <c r="O192">
         <v>2.5194362412838802</v>
       </c>
-      <c r="Q192" s="11">
+      <c r="Q192" s="10">
         <v>895.802592</v>
       </c>
       <c r="R192">
@@ -47712,7 +47719,7 @@
       <c r="F193">
         <v>2.48652148569332</v>
       </c>
-      <c r="H193" s="10">
+      <c r="H193" s="9">
         <v>898.7199091</v>
       </c>
       <c r="I193">
@@ -47730,7 +47737,7 @@
       <c r="O193">
         <v>2.5701243046489699</v>
       </c>
-      <c r="Q193" s="11">
+      <c r="Q193" s="10">
         <v>893.15138930000001</v>
       </c>
       <c r="R193">
@@ -47753,7 +47760,7 @@
       <c r="F194">
         <v>2.3914385753469301</v>
       </c>
-      <c r="H194" s="10">
+      <c r="H194" s="9">
         <v>898.66293940000003</v>
       </c>
       <c r="I194">
@@ -47771,22 +47778,22 @@
       <c r="O194">
         <v>2.5765614863556698</v>
       </c>
-      <c r="Q194" s="11">
+      <c r="Q194" s="10">
         <v>894.63176039999996</v>
       </c>
       <c r="R194">
         <v>2.4848816715642901</v>
       </c>
     </row>
-    <row r="196" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="13" t="s">
+    <row r="196" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B196" s="13">
+      <c r="B196" s="12">
         <f>(B184-U182)^2+(B187-U183)^2+(B190-U184)^2</f>
         <v>12.31741422680912</v>
       </c>
-      <c r="E196" s="13">
+      <c r="E196" s="12">
         <f>(E184-U182)^2+(E187-U183)^2+(E190-U184)^2</f>
         <v>14.801214402751729</v>
       </c>
@@ -47798,7 +47805,7 @@
         <f>(K184-U182)^2+(K187-U183)^2+(K190-U184)^2</f>
         <v>5.1176327591928263</v>
       </c>
-      <c r="N196" s="13">
+      <c r="N196" s="12">
         <f>(N184-U182)^2+(N187-U183)^2+(N190-U184)^2</f>
         <v>38.128951358960414</v>
       </c>
@@ -47807,15 +47814,15 @@
         <v>6.5003309133969145</v>
       </c>
     </row>
-    <row r="198" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="11" t="s">
+    <row r="198" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A198" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B198" s="6">
         <f>B196+B177+B158+B137</f>
         <v>37.069614435175339</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198">
         <f>E196+E177+E158+E137</f>
         <v>98.92594188671174</v>
       </c>
@@ -47827,15 +47834,18 @@
         <f>K196+K177+K158+K137</f>
         <v>9.9111834272509913</v>
       </c>
-      <c r="N198" s="9">
+      <c r="N198">
         <f>N196+N177+N158+N137</f>
         <v>82.679210653082635</v>
       </c>
-      <c r="Q198" s="9">
+      <c r="Q198">
         <f>Q196+Q177+Q158+Q137</f>
         <v>58.798286827167288</v>
       </c>
-    </row>
+      <c r="T198"/>
+    </row>
+    <row r="199" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="201" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>50</v>
@@ -47862,7 +47872,7 @@
       <c r="F203">
         <v>3.5878631192615602</v>
       </c>
-      <c r="H203" s="10">
+      <c r="H203" s="9">
         <v>995.39408509999998</v>
       </c>
       <c r="I203">
@@ -47880,13 +47890,13 @@
       <c r="O203">
         <v>3.6326738874618898</v>
       </c>
-      <c r="Q203" s="11">
+      <c r="Q203" s="10">
         <v>994.22157149999998</v>
       </c>
       <c r="R203">
         <v>3.6074530808878502</v>
       </c>
-      <c r="T203" s="12">
+      <c r="T203" s="11">
         <v>10</v>
       </c>
       <c r="U203">
@@ -47912,7 +47922,7 @@
       <c r="F204">
         <v>3.5597220249863302</v>
       </c>
-      <c r="H204" s="10">
+      <c r="H204" s="9">
         <v>996.90109059999997</v>
       </c>
       <c r="I204">
@@ -47930,13 +47940,13 @@
       <c r="O204">
         <v>3.5357974479095202</v>
       </c>
-      <c r="Q204" s="11">
+      <c r="Q204" s="10">
         <v>993.16959250000002</v>
       </c>
       <c r="R204">
         <v>3.6310383372001498</v>
       </c>
-      <c r="T204" s="12">
+      <c r="T204" s="11">
         <v>13</v>
       </c>
       <c r="U204">
@@ -47962,7 +47972,7 @@
       <c r="F205">
         <v>3.5273906284572498</v>
       </c>
-      <c r="H205" s="10">
+      <c r="H205" s="9">
         <v>1006.1039822</v>
       </c>
       <c r="I205">
@@ -47980,13 +47990,13 @@
       <c r="O205">
         <v>3.5625291356259701</v>
       </c>
-      <c r="Q205" s="11">
+      <c r="Q205" s="10">
         <v>1003.43591739999</v>
       </c>
       <c r="R205">
         <v>3.54912357255435</v>
       </c>
-      <c r="T205" s="12">
+      <c r="T205" s="11">
         <v>16</v>
       </c>
       <c r="U205">
@@ -48012,7 +48022,7 @@
       <c r="F206">
         <v>3.4631828553270099</v>
       </c>
-      <c r="H206" s="10">
+      <c r="H206" s="9">
         <v>1006.49105739999</v>
       </c>
       <c r="I206">
@@ -48030,7 +48040,7 @@
       <c r="O206">
         <v>3.4999438640725899</v>
       </c>
-      <c r="Q206" s="11">
+      <c r="Q206" s="10">
         <v>1011.06452639999</v>
       </c>
       <c r="R206">
@@ -48053,7 +48063,7 @@
       <c r="F207">
         <v>3.4338980972782398</v>
       </c>
-      <c r="H207" s="10">
+      <c r="H207" s="9">
         <v>1013.76793579999</v>
       </c>
       <c r="I207">
@@ -48071,7 +48081,7 @@
       <c r="O207">
         <v>3.44803958831399</v>
       </c>
-      <c r="Q207" s="11">
+      <c r="Q207" s="10">
         <v>1010.0276613</v>
       </c>
       <c r="R207">
@@ -48094,7 +48104,7 @@
       <c r="F208">
         <v>3.4211296907953499</v>
       </c>
-      <c r="H208" s="10">
+      <c r="H208" s="9">
         <v>1024.2213753999999</v>
       </c>
       <c r="I208">
@@ -48112,7 +48122,7 @@
       <c r="O208">
         <v>3.4470003756655001</v>
       </c>
-      <c r="Q208" s="11">
+      <c r="Q208" s="10">
         <v>1016.5585678</v>
       </c>
       <c r="R208">
@@ -48135,7 +48145,7 @@
       <c r="F209">
         <v>3.3840090863563899</v>
       </c>
-      <c r="H209" s="10">
+      <c r="H209" s="9">
         <v>1027.8469345000001</v>
       </c>
       <c r="I209">
@@ -48153,7 +48163,7 @@
       <c r="O209">
         <v>3.3389434131320801</v>
       </c>
-      <c r="Q209" s="11">
+      <c r="Q209" s="10">
         <v>1027.1120593999999</v>
       </c>
       <c r="R209">
@@ -48176,7 +48186,7 @@
       <c r="F210">
         <v>3.3202140188467402</v>
       </c>
-      <c r="H210" s="10">
+      <c r="H210" s="9">
         <v>1025.4393628999901</v>
       </c>
       <c r="I210">
@@ -48194,7 +48204,7 @@
       <c r="O210">
         <v>3.38589383376834</v>
       </c>
-      <c r="Q210" s="11">
+      <c r="Q210" s="10">
         <v>1024.5365220000001</v>
       </c>
       <c r="R210">
@@ -48217,7 +48227,7 @@
       <c r="F211">
         <v>3.3655392651528402</v>
       </c>
-      <c r="H211" s="10">
+      <c r="H211" s="9">
         <v>1031.4869718</v>
       </c>
       <c r="I211">
@@ -48235,7 +48245,7 @@
       <c r="O211">
         <v>3.3091419057403599</v>
       </c>
-      <c r="Q211" s="11">
+      <c r="Q211" s="10">
         <v>1034.3180379</v>
       </c>
       <c r="R211">
@@ -48258,7 +48268,7 @@
       <c r="F212">
         <v>3.3257266561233201</v>
       </c>
-      <c r="H212" s="10">
+      <c r="H212" s="9">
         <v>1037.9541683999901</v>
       </c>
       <c r="I212">
@@ -48276,7 +48286,7 @@
       <c r="O212">
         <v>3.2652639681530702</v>
       </c>
-      <c r="Q212" s="11">
+      <c r="Q212" s="10">
         <v>1036.8721115000001</v>
       </c>
       <c r="R212">
@@ -48299,7 +48309,7 @@
       <c r="F213">
         <v>3.2697364889825402</v>
       </c>
-      <c r="H213" s="10">
+      <c r="H213" s="9">
         <v>1045.4446358</v>
       </c>
       <c r="I213">
@@ -48317,7 +48327,7 @@
       <c r="O213">
         <v>3.2965634657841698</v>
       </c>
-      <c r="Q213" s="11">
+      <c r="Q213" s="10">
         <v>1042.59887079999</v>
       </c>
       <c r="R213">
@@ -48340,7 +48350,7 @@
       <c r="F214">
         <v>3.1973120303428</v>
       </c>
-      <c r="H214" s="10">
+      <c r="H214" s="9">
         <v>1048.47123759999</v>
       </c>
       <c r="I214">
@@ -48358,7 +48368,7 @@
       <c r="O214">
         <v>3.3121449511494401</v>
       </c>
-      <c r="Q214" s="11">
+      <c r="Q214" s="10">
         <v>1044.6531084999999</v>
       </c>
       <c r="R214">
@@ -48381,7 +48391,7 @@
       <c r="F215">
         <v>3.1963648439630101</v>
       </c>
-      <c r="H215" s="10">
+      <c r="H215" s="9">
         <v>1050.05453559999</v>
       </c>
       <c r="I215">
@@ -48399,15 +48409,15 @@
       <c r="O215">
         <v>3.2690847516258899</v>
       </c>
-      <c r="Q215" s="11">
+      <c r="Q215" s="10">
         <v>1044.0339939</v>
       </c>
       <c r="R215">
         <v>3.2233734371202201</v>
       </c>
     </row>
-    <row r="217" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="13" t="s">
+    <row r="217" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B217" s="3">
@@ -48418,7 +48428,7 @@
         <f>(E205-U203)^2+(E208-U204)^2+(E211-U205)^2</f>
         <v>22.362328547799461</v>
       </c>
-      <c r="H217" s="13">
+      <c r="H217" s="12">
         <f>(H205-U203)^2+(H208-U204)^2+(H211-U205)^2</f>
         <v>28.950128513477651</v>
       </c>
@@ -48426,15 +48436,17 @@
         <f>(K205-U203)^2+(K208-U204)^2+(K211-U205)^2</f>
         <v>9.2227574264162211</v>
       </c>
-      <c r="N217" s="13">
+      <c r="N217" s="12">
         <f>(N205-U203)^2+(N208-U204)^2+(N211-U205)^2</f>
         <v>36.475381762345947</v>
       </c>
-      <c r="Q217" s="13">
+      <c r="Q217" s="12">
         <f>(Q205-U203)^2+(Q208-U204)^2+(Q211-U205)^2</f>
         <v>55.451605218879919</v>
       </c>
     </row>
+    <row r="218" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="220" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>49</v>
@@ -48461,7 +48473,7 @@
       <c r="F222">
         <v>4.8631690149045301</v>
       </c>
-      <c r="H222" s="10">
+      <c r="H222" s="9">
         <v>1175.2112070000001</v>
       </c>
       <c r="I222">
@@ -48479,13 +48491,13 @@
       <c r="O222">
         <v>4.9870161739476</v>
       </c>
-      <c r="Q222" s="11">
+      <c r="Q222" s="10">
         <v>1173.8897833999999</v>
       </c>
       <c r="R222">
         <v>4.84244500896851</v>
       </c>
-      <c r="T222" s="12">
+      <c r="T222" s="11">
         <v>10</v>
       </c>
       <c r="U222">
@@ -48511,7 +48523,7 @@
       <c r="F223">
         <v>4.7935133185213896</v>
       </c>
-      <c r="H223" s="10">
+      <c r="H223" s="9">
         <v>1179.1709820999999</v>
       </c>
       <c r="I223">
@@ -48529,13 +48541,13 @@
       <c r="O223">
         <v>4.9043927139519496</v>
       </c>
-      <c r="Q223" s="11">
+      <c r="Q223" s="10">
         <v>1185.4124993</v>
       </c>
       <c r="R223">
         <v>4.7894551922410598</v>
       </c>
-      <c r="T223" s="12">
+      <c r="T223" s="11">
         <v>13</v>
       </c>
       <c r="U223">
@@ -48561,7 +48573,7 @@
       <c r="F224">
         <v>4.7678094778471998</v>
       </c>
-      <c r="H224" s="10">
+      <c r="H224" s="9">
         <v>1190.41175</v>
       </c>
       <c r="I224">
@@ -48579,13 +48591,13 @@
       <c r="O224">
         <v>4.7547052920817698</v>
       </c>
-      <c r="Q224" s="11">
+      <c r="Q224" s="10">
         <v>1183.9672410999999</v>
       </c>
       <c r="R224">
         <v>4.8254820046918496</v>
       </c>
-      <c r="T224" s="12">
+      <c r="T224" s="11">
         <v>16</v>
       </c>
       <c r="U224">
@@ -48611,7 +48623,7 @@
       <c r="F225">
         <v>4.7488583582154202</v>
       </c>
-      <c r="H225" s="10">
+      <c r="H225" s="9">
         <v>1192.7137935999999</v>
       </c>
       <c r="I225">
@@ -48629,7 +48641,7 @@
       <c r="O225">
         <v>4.7169471016199402</v>
       </c>
-      <c r="Q225" s="11">
+      <c r="Q225" s="10">
         <v>1186.8930668999999</v>
       </c>
       <c r="R225">
@@ -48652,7 +48664,7 @@
       <c r="F226">
         <v>4.6614197044975603</v>
       </c>
-      <c r="H226" s="10">
+      <c r="H226" s="9">
         <v>1205.4831283000001</v>
       </c>
       <c r="I226">
@@ -48670,7 +48682,7 @@
       <c r="O226">
         <v>4.6452238187040802</v>
       </c>
-      <c r="Q226" s="11">
+      <c r="Q226" s="10">
         <v>1210.29183329999</v>
       </c>
       <c r="R226">
@@ -48693,7 +48705,7 @@
       <c r="F227">
         <v>4.6155939061399902</v>
       </c>
-      <c r="H227" s="10">
+      <c r="H227" s="9">
         <v>1216.5373204</v>
       </c>
       <c r="I227">
@@ -48711,7 +48723,7 @@
       <c r="O227">
         <v>4.6565283653898897</v>
       </c>
-      <c r="Q227" s="11">
+      <c r="Q227" s="10">
         <v>1207.8777974</v>
       </c>
       <c r="R227">
@@ -48734,7 +48746,7 @@
       <c r="F228">
         <v>4.6367321754043802</v>
       </c>
-      <c r="H228" s="10">
+      <c r="H228" s="9">
         <v>1218.5143642999999</v>
       </c>
       <c r="I228">
@@ -48752,7 +48764,7 @@
       <c r="O228">
         <v>4.5797436326112697</v>
       </c>
-      <c r="Q228" s="11">
+      <c r="Q228" s="10">
         <v>1211.8133723999999</v>
       </c>
       <c r="R228">
@@ -48775,7 +48787,7 @@
       <c r="F229">
         <v>4.6103119906484302</v>
       </c>
-      <c r="H229" s="10">
+      <c r="H229" s="9">
         <v>1216.4268884999999</v>
       </c>
       <c r="I229">
@@ -48793,7 +48805,7 @@
       <c r="O229">
         <v>4.6261559402225902</v>
       </c>
-      <c r="Q229" s="11">
+      <c r="Q229" s="10">
         <v>1225.2522594</v>
       </c>
       <c r="R229">
@@ -48816,7 +48828,7 @@
       <c r="F230">
         <v>4.5243173882525003</v>
       </c>
-      <c r="H230" s="10">
+      <c r="H230" s="9">
         <v>1228.8445498999999</v>
       </c>
       <c r="I230">
@@ -48834,7 +48846,7 @@
       <c r="O230">
         <v>4.6190293558537103</v>
       </c>
-      <c r="Q230" s="11">
+      <c r="Q230" s="10">
         <v>1229.82887399999</v>
       </c>
       <c r="R230">
@@ -48857,7 +48869,7 @@
       <c r="F231">
         <v>4.5108006022569098</v>
       </c>
-      <c r="H231" s="10">
+      <c r="H231" s="9">
         <v>1234.1163302</v>
       </c>
       <c r="I231">
@@ -48875,7 +48887,7 @@
       <c r="O231">
         <v>4.5703120545500404</v>
       </c>
-      <c r="Q231" s="11">
+      <c r="Q231" s="10">
         <v>1233.0451736</v>
       </c>
       <c r="R231">
@@ -48898,7 +48910,7 @@
       <c r="F232">
         <v>4.4481234964021699</v>
       </c>
-      <c r="H232" s="10">
+      <c r="H232" s="9">
         <v>1247.7480536999999</v>
       </c>
       <c r="I232">
@@ -48916,7 +48928,7 @@
       <c r="O232">
         <v>4.4667582584791203</v>
       </c>
-      <c r="Q232" s="11">
+      <c r="Q232" s="10">
         <v>1235.8561855999999</v>
       </c>
       <c r="R232">
@@ -48939,7 +48951,7 @@
       <c r="F233">
         <v>4.3974329472087499</v>
       </c>
-      <c r="H233" s="10">
+      <c r="H233" s="9">
         <v>1255.6443998</v>
       </c>
       <c r="I233">
@@ -48957,7 +48969,7 @@
       <c r="O233">
         <v>4.5353902883307597</v>
       </c>
-      <c r="Q233" s="11">
+      <c r="Q233" s="10">
         <v>1255.0315971999901</v>
       </c>
       <c r="R233">
@@ -48980,7 +48992,7 @@
       <c r="F234">
         <v>4.3655732037022101</v>
       </c>
-      <c r="H234" s="10">
+      <c r="H234" s="9">
         <v>1256.4412196999999</v>
       </c>
       <c r="I234">
@@ -48998,13 +49010,14 @@
       <c r="O234">
         <v>4.5351709298773599</v>
       </c>
-      <c r="Q234" s="11">
+      <c r="Q234" s="10">
         <v>1252.1858010999999</v>
       </c>
       <c r="R234">
         <v>4.3869723512947996</v>
       </c>
     </row>
+    <row r="235" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="236" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="13" t="s">
         <v>45</v>
@@ -49017,11 +49030,11 @@
         <f>(E224-U222)^2+(E227-U223)^2+(E230-U224)^2</f>
         <v>298.0540707398373</v>
       </c>
-      <c r="H236" s="7">
+      <c r="H236" s="13">
         <f>(H224-U222)^2+(H227-U223)^2+(H230-U224)^2</f>
         <v>101.64686219167143</v>
       </c>
-      <c r="K236" s="3">
+      <c r="K236" s="13">
         <f>(K224-U222)^2+(K227-U223)^2+(K230-U224)^2</f>
         <v>4.0478326304339962</v>
       </c>
@@ -49029,13 +49042,14 @@
         <f>(N224-U222)^2+(N227-U223)^2+(N230-U224)^2</f>
         <v>225.57527487422274</v>
       </c>
-      <c r="Q236" s="5">
+      <c r="Q236" s="13">
         <f>(Q224-U222)^2+(Q227-U223)^2+(Q230-U224)^2</f>
         <v>99.502981121822415</v>
       </c>
     </row>
+    <row r="237" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="238" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A238" s="11" t="s">
+      <c r="A238" s="10" t="s">
         <v>54</v>
       </c>
       <c r="B238" s="8">
@@ -49063,6 +49077,9 @@
         <v>161.45491725409926</v>
       </c>
     </row>
+    <row r="239" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="242" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>25</v>
@@ -49089,7 +49106,7 @@
       <c r="F244">
         <v>6.9320241811450902</v>
       </c>
-      <c r="H244" s="10">
+      <c r="H244" s="9">
         <v>1413.9471934000001</v>
       </c>
       <c r="I244">
@@ -49107,13 +49124,13 @@
       <c r="O244">
         <v>6.9489512006957899</v>
       </c>
-      <c r="Q244" s="11">
+      <c r="Q244" s="10">
         <v>1423.4951206000001</v>
       </c>
       <c r="R244">
         <v>6.9454450359923099</v>
       </c>
-      <c r="T244" s="12">
+      <c r="T244" s="11">
         <v>10</v>
       </c>
       <c r="U244">
@@ -49139,7 +49156,7 @@
       <c r="F245">
         <v>6.9282532860459902</v>
       </c>
-      <c r="H245" s="10">
+      <c r="H245" s="9">
         <v>1427.7485730000001</v>
       </c>
       <c r="I245">
@@ -49157,13 +49174,13 @@
       <c r="O245">
         <v>6.8628404986870404</v>
       </c>
-      <c r="Q245" s="11">
+      <c r="Q245" s="10">
         <v>1425.1221372</v>
       </c>
       <c r="R245">
         <v>6.9433704068750002</v>
       </c>
-      <c r="T245" s="12">
+      <c r="T245" s="11">
         <v>13</v>
       </c>
       <c r="U245">
@@ -49189,7 +49206,7 @@
       <c r="F246">
         <v>6.8614421901809397</v>
       </c>
-      <c r="H246" s="10">
+      <c r="H246" s="9">
         <v>1438.5328281</v>
       </c>
       <c r="I246">
@@ -49207,13 +49224,13 @@
       <c r="O246">
         <v>6.8137312527230796</v>
       </c>
-      <c r="Q246" s="11">
+      <c r="Q246" s="10">
         <v>1444.7876002</v>
       </c>
       <c r="R246">
         <v>6.8685806776365803</v>
       </c>
-      <c r="T246" s="12">
+      <c r="T246" s="11">
         <v>16</v>
       </c>
       <c r="U246">
@@ -49239,7 +49256,7 @@
       <c r="F247">
         <v>6.8008151569174897</v>
       </c>
-      <c r="H247" s="10">
+      <c r="H247" s="9">
         <v>1463.54989769999</v>
       </c>
       <c r="I247">
@@ -49257,7 +49274,7 @@
       <c r="O247">
         <v>6.7986807930533901</v>
       </c>
-      <c r="Q247" s="11">
+      <c r="Q247" s="10">
         <v>1466.0325284999999</v>
       </c>
       <c r="R247">
@@ -49280,7 +49297,7 @@
       <c r="F248">
         <v>6.7378094862204501</v>
       </c>
-      <c r="H248" s="10">
+      <c r="H248" s="9">
         <v>1456.6444888000001</v>
       </c>
       <c r="I248">
@@ -49298,7 +49315,7 @@
       <c r="O248">
         <v>6.7718927020610904</v>
       </c>
-      <c r="Q248" s="11">
+      <c r="Q248" s="10">
         <v>1467.8694625999999</v>
       </c>
       <c r="R248">
@@ -49321,7 +49338,7 @@
       <c r="F249">
         <v>6.7193130895042801</v>
       </c>
-      <c r="H249" s="10">
+      <c r="H249" s="9">
         <v>1496.0803883999999</v>
       </c>
       <c r="I249">
@@ -49339,7 +49356,7 @@
       <c r="O249">
         <v>6.6801181786007504</v>
       </c>
-      <c r="Q249" s="11">
+      <c r="Q249" s="10">
         <v>1487.2741853</v>
       </c>
       <c r="R249">
@@ -49362,7 +49379,7 @@
       <c r="F250">
         <v>6.7165535794221798</v>
       </c>
-      <c r="H250" s="10">
+      <c r="H250" s="9">
         <v>1491.9644799</v>
       </c>
       <c r="I250">
@@ -49380,7 +49397,7 @@
       <c r="O250">
         <v>6.6019200331436503</v>
       </c>
-      <c r="Q250" s="11">
+      <c r="Q250" s="10">
         <v>1492.0188261000001</v>
       </c>
       <c r="R250">
@@ -49403,7 +49420,7 @@
       <c r="F251">
         <v>6.6737497854925403</v>
       </c>
-      <c r="H251" s="10">
+      <c r="H251" s="9">
         <v>1509.4284290000001</v>
       </c>
       <c r="I251">
@@ -49421,7 +49438,7 @@
       <c r="O251">
         <v>6.6331586188840701</v>
       </c>
-      <c r="Q251" s="11">
+      <c r="Q251" s="10">
         <v>1509.9553478999901</v>
       </c>
       <c r="R251">
@@ -49444,7 +49461,7 @@
       <c r="F252">
         <v>6.5673756790176201</v>
       </c>
-      <c r="H252" s="10">
+      <c r="H252" s="9">
         <v>1502.2862484</v>
       </c>
       <c r="I252">
@@ -49462,7 +49479,7 @@
       <c r="O252">
         <v>6.6113127811526997</v>
       </c>
-      <c r="Q252" s="11">
+      <c r="Q252" s="10">
         <v>1522.4918819</v>
       </c>
       <c r="R252">
@@ -49485,7 +49502,7 @@
       <c r="F253">
         <v>6.5377755011573599</v>
       </c>
-      <c r="H253" s="10">
+      <c r="H253" s="9">
         <v>1528.81002219999</v>
       </c>
       <c r="I253">
@@ -49503,7 +49520,7 @@
       <c r="O253">
         <v>6.5446933556234699</v>
       </c>
-      <c r="Q253" s="11">
+      <c r="Q253" s="10">
         <v>1531.192405</v>
       </c>
       <c r="R253">
@@ -49526,7 +49543,7 @@
       <c r="F254">
         <v>6.4870469418445298</v>
       </c>
-      <c r="H254" s="10">
+      <c r="H254" s="9">
         <v>1543.2991503999999</v>
       </c>
       <c r="I254">
@@ -49544,7 +49561,7 @@
       <c r="O254">
         <v>6.6282202109127804</v>
       </c>
-      <c r="Q254" s="11">
+      <c r="Q254" s="10">
         <v>1542.6875121</v>
       </c>
       <c r="R254">
@@ -49567,7 +49584,7 @@
       <c r="F255">
         <v>6.4445562136447903</v>
       </c>
-      <c r="H255" s="10">
+      <c r="H255" s="9">
         <v>1555.2354023</v>
       </c>
       <c r="I255">
@@ -49585,7 +49602,7 @@
       <c r="O255">
         <v>6.60496025357034</v>
       </c>
-      <c r="Q255" s="11">
+      <c r="Q255" s="10">
         <v>1549.2990046</v>
       </c>
       <c r="R255">
@@ -49608,7 +49625,7 @@
       <c r="F256">
         <v>6.4097423158763398</v>
       </c>
-      <c r="H256" s="10">
+      <c r="H256" s="9">
         <v>1565.1274851000001</v>
       </c>
       <c r="I256">
@@ -49626,18 +49643,19 @@
       <c r="O256">
         <v>6.5350260618158096</v>
       </c>
-      <c r="Q256" s="11">
+      <c r="Q256" s="10">
         <v>1558.4040811</v>
       </c>
       <c r="R256">
         <v>6.4012149407340697</v>
       </c>
     </row>
-    <row r="258" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="13" t="s">
+    <row r="257" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:22" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B258" s="13">
+      <c r="B258" s="12">
         <f>(B246-U244)^2+(B249-U245)^2+(B252-U246)^2</f>
         <v>310.89188993124111</v>
       </c>
@@ -49645,7 +49663,7 @@
         <f>(E246-U244)^2+(E249-U245)^2+(E252-U246)^2</f>
         <v>101.80955257358951</v>
       </c>
-      <c r="H258" s="13">
+      <c r="H258" s="12">
         <f>(H246-U244)^2+(H249-U245)^2+(H252-U246)^2</f>
         <v>435.30620859772739</v>
       </c>
@@ -49653,7 +49671,7 @@
         <f>(K246-U244)^2+(K249-U245)^2+(K252-U246)^2</f>
         <v>181.70211471961576</v>
       </c>
-      <c r="N258" s="13">
+      <c r="N258" s="12">
         <f>(N246-U244)^2+(N249-U245)^2+(N252-U246)^2</f>
         <v>369.43753598071032</v>
       </c>
@@ -49662,6 +49680,8 @@
         <v>79.401598503867888</v>
       </c>
     </row>
+    <row r="259" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="261" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>57</v>
@@ -49688,7 +49708,7 @@
       <c r="F263">
         <v>10.6176536108999</v>
       </c>
-      <c r="H263" s="10">
+      <c r="H263" s="9">
         <v>1727.4285334000001</v>
       </c>
       <c r="I263">
@@ -49706,13 +49726,13 @@
       <c r="O263">
         <v>10.5476261847005</v>
       </c>
-      <c r="Q263" s="11">
+      <c r="Q263" s="10">
         <v>1725.0473781999899</v>
       </c>
       <c r="R263">
         <v>10.590877266024</v>
       </c>
-      <c r="T263" s="12">
+      <c r="T263" s="11">
         <v>10</v>
       </c>
       <c r="U263">
@@ -49738,7 +49758,7 @@
       <c r="F264">
         <v>10.6037741056158</v>
       </c>
-      <c r="H264" s="10">
+      <c r="H264" s="9">
         <v>1749.4730238</v>
       </c>
       <c r="I264">
@@ -49756,13 +49776,13 @@
       <c r="O264">
         <v>10.5421055296578</v>
       </c>
-      <c r="Q264" s="11">
+      <c r="Q264" s="10">
         <v>1744.9295901</v>
       </c>
       <c r="R264">
         <v>10.6251895961403</v>
       </c>
-      <c r="T264" s="12">
+      <c r="T264" s="11">
         <v>13</v>
       </c>
       <c r="U264">
@@ -49788,7 +49808,7 @@
       <c r="F265">
         <v>10.6501278570257</v>
       </c>
-      <c r="H265" s="10">
+      <c r="H265" s="9">
         <v>1770.1637384999999</v>
       </c>
       <c r="I265">
@@ -49806,13 +49826,13 @@
       <c r="O265">
         <v>10.621928020302001</v>
       </c>
-      <c r="Q265" s="11">
+      <c r="Q265" s="10">
         <v>1771.0969456</v>
       </c>
       <c r="R265">
         <v>10.565731174010301</v>
       </c>
-      <c r="T265" s="12">
+      <c r="T265" s="11">
         <v>16</v>
       </c>
       <c r="U265">
@@ -49838,7 +49858,7 @@
       <c r="F266">
         <v>10.618000559232</v>
       </c>
-      <c r="H266" s="10">
+      <c r="H266" s="9">
         <v>1784.68229949999</v>
       </c>
       <c r="I266">
@@ -49856,7 +49876,7 @@
       <c r="O266">
         <v>10.6779119855685</v>
       </c>
-      <c r="Q266" s="11">
+      <c r="Q266" s="10">
         <v>1823.52744109999</v>
       </c>
       <c r="R266">
@@ -49879,7 +49899,7 @@
       <c r="F267">
         <v>10.6374946119342</v>
       </c>
-      <c r="H267" s="10">
+      <c r="H267" s="9">
         <v>1819.0722653999901</v>
       </c>
       <c r="I267">
@@ -49897,7 +49917,7 @@
       <c r="O267">
         <v>10.6501212492046</v>
       </c>
-      <c r="Q267" s="11">
+      <c r="Q267" s="10">
         <v>1838.3945824</v>
       </c>
       <c r="R267">
@@ -49920,7 +49940,7 @@
       <c r="F268">
         <v>10.653256296432501</v>
       </c>
-      <c r="H268" s="10">
+      <c r="H268" s="9">
         <v>1863.4914332999899</v>
       </c>
       <c r="I268">
@@ -49938,7 +49958,7 @@
       <c r="O268">
         <v>10.608756449864099</v>
       </c>
-      <c r="Q268" s="11">
+      <c r="Q268" s="10">
         <v>1870.0759538</v>
       </c>
       <c r="R268">
@@ -49961,7 +49981,7 @@
       <c r="F269">
         <v>10.5817980172746</v>
       </c>
-      <c r="H269" s="10">
+      <c r="H269" s="9">
         <v>1871.99745049999</v>
       </c>
       <c r="I269">
@@ -49979,7 +49999,7 @@
       <c r="O269">
         <v>10.5681696498078</v>
       </c>
-      <c r="Q269" s="11">
+      <c r="Q269" s="10">
         <v>1885.7357425999901</v>
       </c>
       <c r="R269">
@@ -50002,7 +50022,7 @@
       <c r="F270">
         <v>10.605867304830699</v>
       </c>
-      <c r="H270" s="10">
+      <c r="H270" s="9">
         <v>1915.0138784999999</v>
       </c>
       <c r="I270">
@@ -50020,7 +50040,7 @@
       <c r="O270">
         <v>10.6210621172786</v>
       </c>
-      <c r="Q270" s="11">
+      <c r="Q270" s="10">
         <v>1884.4258129</v>
       </c>
       <c r="R270">
@@ -50043,7 +50063,7 @@
       <c r="F271">
         <v>10.6200415182018</v>
       </c>
-      <c r="H271" s="10">
+      <c r="H271" s="9">
         <v>1917.6454577</v>
       </c>
       <c r="I271">
@@ -50061,7 +50081,7 @@
       <c r="O271">
         <v>10.6009112151433</v>
       </c>
-      <c r="Q271" s="11">
+      <c r="Q271" s="10">
         <v>1915.3965659</v>
       </c>
       <c r="R271">
@@ -50084,7 +50104,7 @@
       <c r="F272">
         <v>10.5961999797365</v>
       </c>
-      <c r="H272" s="10">
+      <c r="H272" s="9">
         <v>1938.2884434</v>
       </c>
       <c r="I272">
@@ -50102,7 +50122,7 @@
       <c r="O272">
         <v>10.5738853688608</v>
       </c>
-      <c r="Q272" s="11">
+      <c r="Q272" s="10">
         <v>1949.0650673</v>
       </c>
       <c r="R272">
@@ -50125,7 +50145,7 @@
       <c r="F273">
         <v>10.5490632944183</v>
       </c>
-      <c r="H273" s="10">
+      <c r="H273" s="9">
         <v>1969.9422546999999</v>
       </c>
       <c r="I273">
@@ -50143,7 +50163,7 @@
       <c r="O273">
         <v>10.517846138133301</v>
       </c>
-      <c r="Q273" s="11">
+      <c r="Q273" s="10">
         <v>1962.2412236999901</v>
       </c>
       <c r="R273">
@@ -50166,7 +50186,7 @@
       <c r="F274">
         <v>10.523576381631401</v>
       </c>
-      <c r="H274" s="10">
+      <c r="H274" s="9">
         <v>1987.4217109000001</v>
       </c>
       <c r="I274">
@@ -50184,7 +50204,7 @@
       <c r="O274">
         <v>10.551132140562601</v>
       </c>
-      <c r="Q274" s="11">
+      <c r="Q274" s="10">
         <v>1980.1648120999901</v>
       </c>
       <c r="R274">
@@ -50207,7 +50227,7 @@
       <c r="F275">
         <v>10.472731405203501</v>
       </c>
-      <c r="H275" s="10">
+      <c r="H275" s="9">
         <v>2025.7818631999901</v>
       </c>
       <c r="I275">
@@ -50225,42 +50245,44 @@
       <c r="O275">
         <v>10.560431342433199</v>
       </c>
-      <c r="Q275" s="11">
+      <c r="Q275" s="10">
         <v>1999.3925251000001</v>
       </c>
       <c r="R275">
         <v>10.504882253274401</v>
       </c>
     </row>
-    <row r="277" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="13" t="s">
+    <row r="277" spans="1:43" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B277" s="3">
         <f>(B265-U263)^2+(B268-U264)^2+(B271-U265)^2</f>
         <v>139.33974756835741</v>
       </c>
-      <c r="E277" s="13">
+      <c r="E277" s="12">
         <f>(E265-U263)^2+(E268-U264)^2+(E271-U265)^2</f>
         <v>1475.6774281707512</v>
       </c>
-      <c r="H277" s="13">
+      <c r="H277" s="12">
         <f>(H265-U263)^2+(H268-U264)^2+(H271-U265)^2</f>
         <v>577.46218230943646</v>
       </c>
-      <c r="K277" s="13">
+      <c r="K277" s="12">
         <f>(K265-U263)^2+(K268-U264)^2+(K271-U265)^2</f>
         <v>869.2303817544813</v>
       </c>
-      <c r="N277" s="13">
+      <c r="N277" s="12">
         <f>(N265-U263)^2+(N268-U264)^2+(N271-U265)^2</f>
         <v>1550.3939108820884</v>
       </c>
-      <c r="Q277" s="13">
+      <c r="Q277" s="12">
         <f>(Q265-U263)^2+(Q268-U264)^2+(Q271-U265)^2</f>
         <v>331.34063059308829</v>
       </c>
     </row>
+    <row r="278" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:43" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="280" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>26</v>
@@ -50287,7 +50309,7 @@
       <c r="F282">
         <v>13.787783512978701</v>
       </c>
-      <c r="H282" s="10">
+      <c r="H282" s="9">
         <v>1866.3586224000001</v>
       </c>
       <c r="I282">
@@ -50305,13 +50327,13 @@
       <c r="O282">
         <v>13.1063212016655</v>
       </c>
-      <c r="Q282" s="11">
+      <c r="Q282" s="10">
         <v>1846.9493629999999</v>
       </c>
       <c r="R282">
         <v>13.849495290550999</v>
       </c>
-      <c r="T282" s="12">
+      <c r="T282" s="11">
         <v>10</v>
       </c>
       <c r="U282">
@@ -50370,7 +50392,7 @@
       <c r="F283">
         <v>14.108560080098099</v>
       </c>
-      <c r="H283" s="10">
+      <c r="H283" s="9">
         <v>1925.4264728999999</v>
       </c>
       <c r="I283">
@@ -50388,13 +50410,13 @@
       <c r="O283">
         <v>13.9465201731728</v>
       </c>
-      <c r="Q283" s="11">
+      <c r="Q283" s="10">
         <v>1913.06206719999</v>
       </c>
       <c r="R283">
         <v>14.0526470862669</v>
       </c>
-      <c r="T283" s="12">
+      <c r="T283" s="11">
         <v>13</v>
       </c>
       <c r="U283">
@@ -50453,7 +50475,7 @@
       <c r="F284">
         <v>14.3539227094978</v>
       </c>
-      <c r="H284" s="10">
+      <c r="H284" s="9">
         <v>1960.1067323</v>
       </c>
       <c r="I284">
@@ -50471,13 +50493,13 @@
       <c r="O284">
         <v>14.416965437388701</v>
       </c>
-      <c r="Q284" s="11">
+      <c r="Q284" s="10">
         <v>1946.8309492999999</v>
       </c>
       <c r="R284">
         <v>14.3935222184389</v>
       </c>
-      <c r="T284" s="12">
+      <c r="T284" s="11">
         <v>16</v>
       </c>
       <c r="U284">
@@ -50536,7 +50558,7 @@
       <c r="F285">
         <v>14.702277172917199</v>
       </c>
-      <c r="H285" s="10">
+      <c r="H285" s="9">
         <v>1993.5890259999901</v>
       </c>
       <c r="I285">
@@ -50554,7 +50576,7 @@
       <c r="O285">
         <v>14.7107602051756</v>
       </c>
-      <c r="Q285" s="11">
+      <c r="Q285" s="10">
         <v>1995.9870886000001</v>
       </c>
       <c r="R285">
@@ -50604,7 +50626,7 @@
       <c r="F286">
         <v>14.9602283884472</v>
       </c>
-      <c r="H286" s="10">
+      <c r="H286" s="9">
         <v>2047.89551019999</v>
       </c>
       <c r="I286">
@@ -50622,7 +50644,7 @@
       <c r="O286">
         <v>15.129953827614401</v>
       </c>
-      <c r="Q286" s="11">
+      <c r="Q286" s="10">
         <v>2062.1279672999899</v>
       </c>
       <c r="R286">
@@ -50672,7 +50694,7 @@
       <c r="F287">
         <v>15.276044374588899</v>
       </c>
-      <c r="H287" s="10">
+      <c r="H287" s="9">
         <v>2120.335102</v>
       </c>
       <c r="I287">
@@ -50690,7 +50712,7 @@
       <c r="O287">
         <v>15.4728531011916</v>
       </c>
-      <c r="Q287" s="11">
+      <c r="Q287" s="10">
         <v>2104.5256313</v>
       </c>
       <c r="R287">
@@ -50740,7 +50762,7 @@
       <c r="F288">
         <v>15.5262254968449</v>
       </c>
-      <c r="H288" s="10">
+      <c r="H288" s="9">
         <v>2149.9929160000002</v>
       </c>
       <c r="I288">
@@ -50758,7 +50780,7 @@
       <c r="O288">
         <v>15.4742521319986</v>
       </c>
-      <c r="Q288" s="11">
+      <c r="Q288" s="10">
         <v>2121.7348723999999</v>
       </c>
       <c r="R288">
@@ -50808,7 +50830,7 @@
       <c r="F289">
         <v>15.613159709831701</v>
       </c>
-      <c r="H289" s="10">
+      <c r="H289" s="9">
         <v>2138.0946872</v>
       </c>
       <c r="I289">
@@ -50826,7 +50848,7 @@
       <c r="O289">
         <v>15.6860436503485</v>
       </c>
-      <c r="Q289" s="11">
+      <c r="Q289" s="10">
         <v>2167.0894982999898</v>
       </c>
       <c r="R289">
@@ -50876,7 +50898,7 @@
       <c r="F290">
         <v>15.7463809764121</v>
       </c>
-      <c r="H290" s="10">
+      <c r="H290" s="9">
         <v>2235.9072763999998</v>
       </c>
       <c r="I290">
@@ -50894,7 +50916,7 @@
       <c r="O290">
         <v>15.7258195791205</v>
       </c>
-      <c r="Q290" s="11">
+      <c r="Q290" s="10">
         <v>2264.3496509000001</v>
       </c>
       <c r="R290">
@@ -50944,7 +50966,7 @@
       <c r="F291">
         <v>15.871334939741001</v>
       </c>
-      <c r="H291" s="10">
+      <c r="H291" s="9">
         <v>2269.8727564000001</v>
       </c>
       <c r="I291">
@@ -50962,7 +50984,7 @@
       <c r="O291">
         <v>15.916000192688299</v>
       </c>
-      <c r="Q291" s="11">
+      <c r="Q291" s="10">
         <v>2306.2919701999999</v>
       </c>
       <c r="R291">
@@ -51012,7 +51034,7 @@
       <c r="F292">
         <v>16.073636539860299</v>
       </c>
-      <c r="H292" s="10">
+      <c r="H292" s="9">
         <v>2325.3451019999902</v>
       </c>
       <c r="I292">
@@ -51030,7 +51052,7 @@
       <c r="O292">
         <v>15.936215587509601</v>
       </c>
-      <c r="Q292" s="11">
+      <c r="Q292" s="10">
         <v>2333.1792977</v>
       </c>
       <c r="R292">
@@ -51080,7 +51102,7 @@
       <c r="F293">
         <v>16.203925300231798</v>
       </c>
-      <c r="H293" s="10">
+      <c r="H293" s="9">
         <v>2379.8807641999902</v>
       </c>
       <c r="I293">
@@ -51098,7 +51120,7 @@
       <c r="O293">
         <v>15.9572958300718</v>
       </c>
-      <c r="Q293" s="11">
+      <c r="Q293" s="10">
         <v>2386.8260584</v>
       </c>
       <c r="R293">
@@ -51148,7 +51170,7 @@
       <c r="F294">
         <v>16.453049271263399</v>
       </c>
-      <c r="H294" s="10">
+      <c r="H294" s="9">
         <v>2386.3542410999999</v>
       </c>
       <c r="I294">
@@ -51166,7 +51188,7 @@
       <c r="O294">
         <v>15.8961301555182</v>
       </c>
-      <c r="Q294" s="11">
+      <c r="Q294" s="10">
         <v>2399.1960116999999</v>
       </c>
       <c r="R294">
@@ -51200,23 +51222,23 @@
         <v>1641.8093114000001</v>
       </c>
     </row>
-    <row r="296" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="13" t="s">
+    <row r="296" spans="1:40" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B296" s="13">
+      <c r="B296" s="12">
         <f>(B284-U282)^2+(B287-U283)^2+(B290-U284)^2</f>
         <v>1715.2493974544323</v>
       </c>
-      <c r="E296" s="13">
+      <c r="E296" s="12">
         <f>(E284-U282)^2+(E287-U283)^2+(E290-U284)^2</f>
         <v>2594.3892733683842</v>
       </c>
-      <c r="H296" s="13">
+      <c r="H296" s="12">
         <f>(H284-U282)^2+(H287-U283)^2+(H290-U284)^2</f>
         <v>2126.5743974573534</v>
       </c>
-      <c r="K296" s="13">
+      <c r="K296" s="12">
         <f>(K284-U282)^2+(K287-U283)^2+(K290-U284)^2</f>
         <v>3243.5988085652598</v>
       </c>
@@ -51224,23 +51246,23 @@
         <f>(N284-U282)^2+(N287-U283)^2+(N290-U284)^2</f>
         <v>486.67701625503366</v>
       </c>
-      <c r="Q296" s="13">
+      <c r="Q296" s="12">
         <f>(Q284-U282)^2+(Q287-U283)^2+(Q290-U284)^2</f>
         <v>4876.0350867913421</v>
       </c>
-      <c r="X296" s="13">
+      <c r="X296" s="12">
         <f>(X284-AQ282)^2+(X287-AQ283)^2+(X290-AQ284)^2</f>
         <v>856.28242884758208</v>
       </c>
-      <c r="Z296" s="13">
+      <c r="Z296" s="12">
         <f>(Z284-AQ282)^2+(Z287-AQ283)^2+(Z290-AQ284)^2</f>
         <v>2700.7158114130866</v>
       </c>
-      <c r="AB296" s="13">
+      <c r="AB296" s="12">
         <f>(AB284-AQ282)^2+(AB287-AQ283)^2+(AB290-AQ284)^2</f>
         <v>822.07750901425584</v>
       </c>
-      <c r="AD296" s="13">
+      <c r="AD296" s="12">
         <f>(AD284-AQ282)^2+(AD287-AQ283)^2+(AD290-AQ284)^2</f>
         <v>1096.1664417135175</v>
       </c>
@@ -51248,19 +51270,19 @@
         <f>(AF284-AQ282)^2+(AF287-AQ283)^2+(AF290-AQ284)^2</f>
         <v>727.77412620206633</v>
       </c>
-      <c r="AH296" s="13">
+      <c r="AH296" s="12">
         <f>(AH284-AQ282)^2+(AH287-AQ283)^2+(AH290-AQ284)^2</f>
         <v>1641.1856934600373</v>
       </c>
-      <c r="AJ296" s="13">
+      <c r="AJ296" s="12">
         <f>(AJ284-AQ282)^2+(AJ287-AQ283)^2+(AJ290-AQ284)^2</f>
         <v>2993.8990895496913</v>
       </c>
-      <c r="AL296" s="13">
+      <c r="AL296" s="12">
         <f>(AL284-AQ282)^2+(AL287-AQ283)^2+(AL290-AQ284)^2</f>
         <v>2195.7016849664533</v>
       </c>
-      <c r="AN296" s="13">
+      <c r="AN296" s="12">
         <f>(AN284-AQ282)^2+(AN287-AQ283)^2+(AN290-AQ284)^2</f>
         <v>1966.2951585340459</v>
       </c>
@@ -51289,18 +51311,20 @@
         <f>N296+N277+N258+N236</f>
         <v>2632.0837379920554</v>
       </c>
-      <c r="Q298" s="11">
+      <c r="Q298" s="10">
         <f>Q296+Q277+Q258+Q236</f>
         <v>5386.2802970101211</v>
       </c>
     </row>
-    <row r="301" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="302" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
+    <row r="302" spans="1:40" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -51320,7 +51344,7 @@
       <c r="F303">
         <v>13.734219435600799</v>
       </c>
-      <c r="H303" s="10">
+      <c r="H303" s="9">
         <v>1766.7207502000001</v>
       </c>
       <c r="I303">
@@ -51338,13 +51362,13 @@
       <c r="O303">
         <v>13.4702157675523</v>
       </c>
-      <c r="Q303" s="11">
+      <c r="Q303" s="10">
         <v>1790.6876663</v>
       </c>
       <c r="R303">
         <v>13.3877352088096</v>
       </c>
-      <c r="T303" s="12">
+      <c r="T303" s="11">
         <v>10</v>
       </c>
       <c r="U303">
@@ -51370,7 +51394,7 @@
       <c r="F304">
         <v>14.188143340547301</v>
       </c>
-      <c r="H304" s="10">
+      <c r="H304" s="9">
         <v>1847.92936739999</v>
       </c>
       <c r="I304">
@@ -51388,13 +51412,13 @@
       <c r="O304">
         <v>14.1841734854754</v>
       </c>
-      <c r="Q304" s="11">
+      <c r="Q304" s="10">
         <v>1850.4148009</v>
       </c>
       <c r="R304">
         <v>14.1004329940864</v>
       </c>
-      <c r="T304" s="12">
+      <c r="T304" s="11">
         <v>13</v>
       </c>
       <c r="U304">
@@ -51420,7 +51444,7 @@
       <c r="F305">
         <v>14.933310610807901</v>
       </c>
-      <c r="H305" s="10">
+      <c r="H305" s="9">
         <v>1898.6707924</v>
       </c>
       <c r="I305">
@@ -51438,13 +51462,13 @@
       <c r="O305">
         <v>14.6476933677709</v>
       </c>
-      <c r="Q305" s="11">
+      <c r="Q305" s="10">
         <v>1904.0730196</v>
       </c>
       <c r="R305">
         <v>14.7659754980979</v>
       </c>
-      <c r="T305" s="12">
+      <c r="T305" s="11">
         <v>16</v>
       </c>
       <c r="U305">
@@ -51470,7 +51494,7 @@
       <c r="F306">
         <v>15.0467374903149</v>
       </c>
-      <c r="H306" s="10">
+      <c r="H306" s="9">
         <v>1963.2859965999901</v>
       </c>
       <c r="I306">
@@ -51488,7 +51512,7 @@
       <c r="O306">
         <v>15.0346116683752</v>
       </c>
-      <c r="Q306" s="11">
+      <c r="Q306" s="10">
         <v>1961.7904111</v>
       </c>
       <c r="R306">
@@ -51511,7 +51535,7 @@
       <c r="F307">
         <v>15.560893456943001</v>
       </c>
-      <c r="H307" s="10">
+      <c r="H307" s="9">
         <v>1996.3140682000001</v>
       </c>
       <c r="I307">
@@ -51529,7 +51553,7 @@
       <c r="O307">
         <v>15.707369015015599</v>
       </c>
-      <c r="Q307" s="11">
+      <c r="Q307" s="10">
         <v>2026.9530735999999</v>
       </c>
       <c r="R307">
@@ -51552,7 +51576,7 @@
       <c r="F308">
         <v>15.795406209662101</v>
       </c>
-      <c r="H308" s="10">
+      <c r="H308" s="9">
         <v>2086.5376596000001</v>
       </c>
       <c r="I308">
@@ -51570,7 +51594,7 @@
       <c r="O308">
         <v>16.0438574393301</v>
       </c>
-      <c r="Q308" s="11">
+      <c r="Q308" s="10">
         <v>2084.8014355</v>
       </c>
       <c r="R308">
@@ -51593,7 +51617,7 @@
       <c r="F309">
         <v>16.340296557072602</v>
       </c>
-      <c r="H309" s="10">
+      <c r="H309" s="9">
         <v>2100.4530381999998</v>
       </c>
       <c r="I309">
@@ -51611,7 +51635,7 @@
       <c r="O309">
         <v>16.165536012251302</v>
       </c>
-      <c r="Q309" s="11">
+      <c r="Q309" s="10">
         <v>2130.7300572999902</v>
       </c>
       <c r="R309">
@@ -51634,7 +51658,7 @@
       <c r="F310">
         <v>16.649625411736899</v>
       </c>
-      <c r="H310" s="10">
+      <c r="H310" s="9">
         <v>2175.7988716</v>
       </c>
       <c r="I310">
@@ -51652,7 +51676,7 @@
       <c r="O310">
         <v>16.7649839067914</v>
       </c>
-      <c r="Q310" s="11">
+      <c r="Q310" s="10">
         <v>2190.6424034000001</v>
       </c>
       <c r="R310">
@@ -51675,7 +51699,7 @@
       <c r="F311">
         <v>17.147742182460998</v>
       </c>
-      <c r="H311" s="10">
+      <c r="H311" s="9">
         <v>2212.500235</v>
       </c>
       <c r="I311">
@@ -51693,7 +51717,7 @@
       <c r="O311">
         <v>16.874402247459699</v>
       </c>
-      <c r="Q311" s="11">
+      <c r="Q311" s="10">
         <v>2187.2653333999901</v>
       </c>
       <c r="R311">
@@ -51716,7 +51740,7 @@
       <c r="F312">
         <v>17.407267600699999</v>
       </c>
-      <c r="H312" s="10">
+      <c r="H312" s="9">
         <v>2305.9579788999899</v>
       </c>
       <c r="I312">
@@ -51734,7 +51758,7 @@
       <c r="O312">
         <v>17.377307943173602</v>
       </c>
-      <c r="Q312" s="11">
+      <c r="Q312" s="10">
         <v>2282.6588995000002</v>
       </c>
       <c r="R312">
@@ -51757,7 +51781,7 @@
       <c r="F313">
         <v>17.495722428652702</v>
       </c>
-      <c r="H313" s="10">
+      <c r="H313" s="9">
         <v>2316.3908132000001</v>
       </c>
       <c r="I313">
@@ -51775,7 +51799,7 @@
       <c r="O313">
         <v>17.681916728691199</v>
       </c>
-      <c r="Q313" s="11">
+      <c r="Q313" s="10">
         <v>2322.3714774</v>
       </c>
       <c r="R313">
@@ -51798,7 +51822,7 @@
       <c r="F314">
         <v>17.877340794133701</v>
       </c>
-      <c r="H314" s="10">
+      <c r="H314" s="9">
         <v>2347.3791009000001</v>
       </c>
       <c r="I314">
@@ -51816,7 +51840,7 @@
       <c r="O314">
         <v>17.8029462808069</v>
       </c>
-      <c r="Q314" s="11">
+      <c r="Q314" s="10">
         <v>2351.2356728</v>
       </c>
       <c r="R314">
@@ -51839,7 +51863,7 @@
       <c r="F315">
         <v>18.186298505049798</v>
       </c>
-      <c r="H315" s="10">
+      <c r="H315" s="9">
         <v>2418.1027003999998</v>
       </c>
       <c r="I315">
@@ -51857,7 +51881,7 @@
       <c r="O315">
         <v>17.768220610596401</v>
       </c>
-      <c r="Q315" s="11">
+      <c r="Q315" s="10">
         <v>2387.2060388999998</v>
       </c>
       <c r="R315">
@@ -51865,7 +51889,7 @@
       </c>
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A317" s="13" t="s">
+      <c r="A317" s="12" t="s">
         <v>45</v>
       </c>
       <c r="B317" s="8">
@@ -51884,15 +51908,19 @@
         <f>(K305-U303)^2+(K308-U304)^2+(K311-U305)^2</f>
         <v>861.0489680940027</v>
       </c>
-      <c r="N317" s="11">
+      <c r="N317" s="10">
         <f>(N305-U303)^2+(N308-U304)^2+(N311-U305)^2</f>
         <v>289.10198381371356</v>
       </c>
-      <c r="Q317" s="11">
+      <c r="Q317" s="10">
         <f>(Q305-U303)^2+(Q308-U304)^2+(Q311-U305)^2</f>
         <v>1212.5978434417802</v>
       </c>
     </row>
+    <row r="318" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="322" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>28</v>
@@ -51919,7 +51947,7 @@
       <c r="F324">
         <v>14.279839754147901</v>
       </c>
-      <c r="H324" s="10">
+      <c r="H324" s="9">
         <v>1813.7285348999901</v>
       </c>
       <c r="I324">
@@ -51937,13 +51965,13 @@
       <c r="O324">
         <v>13.8420212184118</v>
       </c>
-      <c r="Q324" s="11">
+      <c r="Q324" s="10">
         <v>1778.49137639999</v>
       </c>
       <c r="R324">
         <v>13.8836607038587</v>
       </c>
-      <c r="T324" s="12">
+      <c r="T324" s="11">
         <v>10</v>
       </c>
       <c r="U324">
@@ -51969,7 +51997,7 @@
       <c r="F325">
         <v>14.659615339318799</v>
       </c>
-      <c r="H325" s="10">
+      <c r="H325" s="9">
         <v>1820.8185470000001</v>
       </c>
       <c r="I325">
@@ -51987,13 +52015,13 @@
       <c r="O325">
         <v>14.599754688774301</v>
       </c>
-      <c r="Q325" s="11">
+      <c r="Q325" s="10">
         <v>1851.7404518999999</v>
       </c>
       <c r="R325">
         <v>14.624195355734701</v>
       </c>
-      <c r="T325" s="12">
+      <c r="T325" s="11">
         <v>13</v>
       </c>
       <c r="U325">
@@ -52019,7 +52047,7 @@
       <c r="F326">
         <v>15.0673879208434</v>
       </c>
-      <c r="H326" s="10">
+      <c r="H326" s="9">
         <v>1880.8821923999999</v>
       </c>
       <c r="I326">
@@ -52037,13 +52065,13 @@
       <c r="O326">
         <v>15.099655683030999</v>
       </c>
-      <c r="Q326" s="11">
+      <c r="Q326" s="10">
         <v>1887.0234347999999</v>
       </c>
       <c r="R326">
         <v>15.1412864145061</v>
       </c>
-      <c r="T326" s="12">
+      <c r="T326" s="11">
         <v>16</v>
       </c>
       <c r="U326">
@@ -52069,7 +52097,7 @@
       <c r="F327">
         <v>15.3756800911372</v>
       </c>
-      <c r="H327" s="10">
+      <c r="H327" s="9">
         <v>1917.0732103</v>
       </c>
       <c r="I327">
@@ -52087,7 +52115,7 @@
       <c r="O327">
         <v>15.512273977844499</v>
       </c>
-      <c r="Q327" s="11">
+      <c r="Q327" s="10">
         <v>1940.2336390999999</v>
       </c>
       <c r="R327">
@@ -52110,7 +52138,7 @@
       <c r="F328">
         <v>15.7577163133941</v>
       </c>
-      <c r="H328" s="10">
+      <c r="H328" s="9">
         <v>1972.2177475999999</v>
       </c>
       <c r="I328">
@@ -52128,7 +52156,7 @@
       <c r="O328">
         <v>16.068737682908001</v>
       </c>
-      <c r="Q328" s="11">
+      <c r="Q328" s="10">
         <v>2032.30400359999</v>
       </c>
       <c r="R328">
@@ -52151,7 +52179,7 @@
       <c r="F329">
         <v>16.271233589626998</v>
       </c>
-      <c r="H329" s="10">
+      <c r="H329" s="9">
         <v>2064.6869357</v>
       </c>
       <c r="I329">
@@ -52169,7 +52197,7 @@
       <c r="O329">
         <v>16.3536426021873</v>
       </c>
-      <c r="Q329" s="11">
+      <c r="Q329" s="10">
         <v>2072.8335317000001</v>
       </c>
       <c r="R329">
@@ -52192,7 +52220,7 @@
       <c r="F330">
         <v>16.660251869742101</v>
       </c>
-      <c r="H330" s="10">
+      <c r="H330" s="9">
         <v>2077.3183564999999</v>
       </c>
       <c r="I330">
@@ -52210,7 +52238,7 @@
       <c r="O330">
         <v>16.538728046963001</v>
       </c>
-      <c r="Q330" s="11">
+      <c r="Q330" s="10">
         <v>2109.3693837999999</v>
       </c>
       <c r="R330">
@@ -52233,7 +52261,7 @@
       <c r="F331">
         <v>16.860925958059099</v>
       </c>
-      <c r="H331" s="10">
+      <c r="H331" s="9">
         <v>2153.3699732999999</v>
       </c>
       <c r="I331">
@@ -52251,7 +52279,7 @@
       <c r="O331">
         <v>16.872101073443801</v>
       </c>
-      <c r="Q331" s="11">
+      <c r="Q331" s="10">
         <v>2154.5841006999999</v>
       </c>
       <c r="R331">
@@ -52274,7 +52302,7 @@
       <c r="F332">
         <v>17.194736818771801</v>
       </c>
-      <c r="H332" s="10">
+      <c r="H332" s="9">
         <v>2203.4837993000001</v>
       </c>
       <c r="I332">
@@ -52292,7 +52320,7 @@
       <c r="O332">
         <v>17.168845627722401</v>
       </c>
-      <c r="Q332" s="11">
+      <c r="Q332" s="10">
         <v>2211.6569693000001</v>
       </c>
       <c r="R332">
@@ -52315,7 +52343,7 @@
       <c r="F333">
         <v>17.361230015691099</v>
       </c>
-      <c r="H333" s="10">
+      <c r="H333" s="9">
         <v>2244.4968739000001</v>
       </c>
       <c r="I333">
@@ -52333,7 +52361,7 @@
       <c r="O333">
         <v>17.594141236332199</v>
       </c>
-      <c r="Q333" s="11">
+      <c r="Q333" s="10">
         <v>2246.5861132999999</v>
       </c>
       <c r="R333">
@@ -52356,7 +52384,7 @@
       <c r="F334">
         <v>17.5795836426392</v>
       </c>
-      <c r="H334" s="10">
+      <c r="H334" s="9">
         <v>2304.6457069999901</v>
       </c>
       <c r="I334">
@@ -52374,7 +52402,7 @@
       <c r="O334">
         <v>18.178869310357001</v>
       </c>
-      <c r="Q334" s="11">
+      <c r="Q334" s="10">
         <v>2270.0254310999999</v>
       </c>
       <c r="R334">
@@ -52397,7 +52425,7 @@
       <c r="F335">
         <v>17.943162633780201</v>
       </c>
-      <c r="H335" s="10">
+      <c r="H335" s="9">
         <v>2338.8235522999998</v>
       </c>
       <c r="I335">
@@ -52415,7 +52443,7 @@
       <c r="O335">
         <v>18.0181438718169</v>
       </c>
-      <c r="Q335" s="11">
+      <c r="Q335" s="10">
         <v>2324.9383877999999</v>
       </c>
       <c r="R335">
@@ -52438,7 +52466,7 @@
       <c r="F336">
         <v>18.693670894733401</v>
       </c>
-      <c r="H336" s="10">
+      <c r="H336" s="9">
         <v>2398.5605781999998</v>
       </c>
       <c r="I336">
@@ -52456,22 +52484,23 @@
       <c r="O336">
         <v>18.308583794248101</v>
       </c>
-      <c r="Q336" s="11">
+      <c r="Q336" s="10">
         <v>2390.8814546999902</v>
       </c>
       <c r="R336">
         <v>18.398879533349898</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B338" s="8">
+      <c r="B338" s="13">
         <f>(B326-U324)^2+(B329-U325)^2+(B332-U326)^2</f>
         <v>1083.0359447082139</v>
       </c>
-      <c r="E338" s="4">
+      <c r="E338" s="13">
         <f>(E326-U324)^2+(E329-U325)^2+(E332-U326)^2</f>
         <v>561.3010874564518</v>
       </c>
@@ -52479,19 +52508,20 @@
         <f>(H326-U324)^2+(H329-U325)^2+(H332-U326)^2</f>
         <v>38.155131759045112</v>
       </c>
-      <c r="K338" s="6">
+      <c r="K338" s="13">
         <f>(K326-U324)^2+(K329-U325)^2+(K332-U326)^2</f>
         <v>214.74789262271997</v>
       </c>
-      <c r="N338" s="6">
+      <c r="N338" s="13">
         <f>(N326-U324)^2+(N329-U325)^2+(N332-U326)^2</f>
         <v>444.80959039796477</v>
       </c>
-      <c r="Q338" s="5">
+      <c r="Q338" s="13">
         <f>(Q326-U324)^2+(Q329-U325)^2+(Q332-U326)^2</f>
         <v>110.32271724459954</v>
       </c>
     </row>
+    <row r="339" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="340" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>54</v>
@@ -52516,7 +52546,7 @@
         <f>N338+N317+N296</f>
         <v>1220.588590466712</v>
       </c>
-      <c r="Q340" s="11">
+      <c r="Q340" s="10">
         <f>Q338+Q317+Q296</f>
         <v>6198.9556474777219</v>
       </c>
